--- a/mbs-EP-v.1.0.6 - eq mot/Excel Files/andrew_mechanism/andrew_mechanism.xlsx
+++ b/mbs-EP-v.1.0.6 - eq mot/Excel Files/andrew_mechanism/andrew_mechanism.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago_Serralha\Desktop\Thesis-Project\mbs-EP-v.1.0.6 - eq mot\Excel Files\andrew_mechanism\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE67AA5A-5919-4319-BEA8-3B6C6F805AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2620ADB-7E76-4855-AEFA-706D0B62DDC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="16200" windowHeight="11385" tabRatio="500" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SimParam" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="275">
   <si>
     <t>Mass</t>
   </si>
@@ -834,9 +834,6 @@
     <t>Functions written as '@(x) Func(x)</t>
   </si>
   <si>
-    <t>MKS</t>
-  </si>
-  <si>
     <t>OF</t>
   </si>
   <si>
@@ -846,16 +843,76 @@
     <t>BED</t>
   </si>
   <si>
-    <t>EH</t>
-  </si>
-  <si>
-    <t>AG</t>
-  </si>
-  <si>
-    <t>HA</t>
-  </si>
-  <si>
-    <t>GE</t>
+    <t>EG</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>GH</t>
+  </si>
+  <si>
+    <t>HE</t>
+  </si>
+  <si>
+    <t>Ground - OF</t>
+  </si>
+  <si>
+    <t>OF - FE</t>
+  </si>
+  <si>
+    <t>FE - Plate</t>
+  </si>
+  <si>
+    <t>Plate - Ground (B)</t>
+  </si>
+  <si>
+    <t>Plate - EG</t>
+  </si>
+  <si>
+    <t>EG - GA</t>
+  </si>
+  <si>
+    <t>GA - Ground</t>
+  </si>
+  <si>
+    <t>GA - AH</t>
+  </si>
+  <si>
+    <t>AH - HE</t>
+  </si>
+  <si>
+    <t>HE - FE</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>mmks</t>
+  </si>
+  <si>
+    <t>@(t) 1000*t</t>
   </si>
 </sst>
 </file>
@@ -1131,7 +1188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1315,6 +1372,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1539,18 +1626,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1986,7 +2061,7 @@
   <dimension ref="B2:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2005,44 +2080,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="110" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="102"/>
-      <c r="J2" s="99" t="s">
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="112"/>
+      <c r="J2" s="109" t="s">
         <v>148</v>
       </c>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="109"/>
+      <c r="P2" s="109"/>
+      <c r="Q2" s="109"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="86"/>
+      <c r="C3" s="96"/>
       <c r="D3" s="45">
-        <v>10</v>
+        <v>0.05</v>
       </c>
       <c r="E3" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="87" t="s">
+      <c r="J3" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="K3" s="88"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="87" t="s">
+      <c r="K3" s="98"/>
+      <c r="L3" s="113"/>
+      <c r="M3" s="97" t="s">
         <v>123</v>
       </c>
-      <c r="N3" s="88"/>
-      <c r="O3" s="80"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="90"/>
       <c r="P3" s="39" t="s">
         <v>153</v>
       </c>
@@ -2051,12 +2126,12 @@
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="86"/>
+      <c r="C4" s="96"/>
       <c r="D4" s="45">
-        <v>1E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="E4" s="45" t="s">
         <v>22</v>
@@ -2067,14 +2142,14 @@
       <c r="K4" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="L4" s="104"/>
+      <c r="L4" s="114"/>
       <c r="M4" s="38" t="s">
         <v>124</v>
       </c>
       <c r="N4" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="O4" s="81"/>
+      <c r="O4" s="91"/>
       <c r="P4" s="39" t="s">
         <v>154</v>
       </c>
@@ -2083,10 +2158,10 @@
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="95" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="86"/>
+      <c r="C5" s="96"/>
       <c r="D5" s="45" t="s">
         <v>79</v>
       </c>
@@ -2099,14 +2174,14 @@
       <c r="K5" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="L5" s="104"/>
+      <c r="L5" s="114"/>
       <c r="M5" s="39" t="s">
         <v>5</v>
       </c>
       <c r="N5" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="81"/>
+      <c r="O5" s="91"/>
       <c r="P5" s="39" t="s">
         <v>155</v>
       </c>
@@ -2115,13 +2190,11 @@
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="85" t="s">
+      <c r="B6" s="95" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="86"/>
-      <c r="D6" s="45" t="s">
-        <v>3</v>
-      </c>
+      <c r="C6" s="96"/>
+      <c r="D6" s="45"/>
       <c r="E6" s="45" t="s">
         <v>77</v>
       </c>
@@ -2131,14 +2204,14 @@
       <c r="K6" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="L6" s="104"/>
+      <c r="L6" s="114"/>
       <c r="M6" s="39" t="s">
         <v>126</v>
       </c>
       <c r="N6" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="O6" s="81"/>
+      <c r="O6" s="91"/>
       <c r="P6" s="39" t="s">
         <v>159</v>
       </c>
@@ -2147,13 +2220,11 @@
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="85" t="s">
+      <c r="B7" s="95" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="86"/>
-      <c r="D7" s="45">
-        <v>-9.8066499999999994</v>
-      </c>
+      <c r="C7" s="96"/>
+      <c r="D7" s="78"/>
       <c r="E7" s="46" t="s">
         <v>103</v>
       </c>
@@ -2163,14 +2234,14 @@
       <c r="K7" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="104"/>
+      <c r="L7" s="114"/>
       <c r="M7" s="39" t="s">
         <v>10</v>
       </c>
       <c r="N7" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="81"/>
+      <c r="O7" s="91"/>
       <c r="P7" s="39" t="s">
         <v>158</v>
       </c>
@@ -2179,12 +2250,12 @@
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="85" t="s">
+      <c r="B8" s="95" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="86"/>
+      <c r="C8" s="96"/>
       <c r="D8" s="45" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="E8" s="46" t="s">
         <v>83</v>
@@ -2195,14 +2266,14 @@
       <c r="K8" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="L8" s="104"/>
+      <c r="L8" s="114"/>
       <c r="M8" s="39" t="s">
         <v>12</v>
       </c>
       <c r="N8" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="O8" s="81"/>
+      <c r="O8" s="91"/>
       <c r="P8" s="39" t="s">
         <v>162</v>
       </c>
@@ -2211,10 +2282,10 @@
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="85" t="s">
+      <c r="B9" s="95" t="s">
         <v>116</v>
       </c>
-      <c r="C9" s="86"/>
+      <c r="C9" s="96"/>
       <c r="D9" s="45"/>
       <c r="E9" s="46" t="s">
         <v>117</v>
@@ -2225,14 +2296,14 @@
       <c r="K9" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="L9" s="104"/>
+      <c r="L9" s="114"/>
       <c r="M9" s="39" t="s">
         <v>13</v>
       </c>
       <c r="N9" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="O9" s="81"/>
+      <c r="O9" s="91"/>
       <c r="P9" s="39" t="s">
         <v>163</v>
       </c>
@@ -2247,14 +2318,14 @@
       <c r="K10" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="L10" s="104"/>
+      <c r="L10" s="114"/>
       <c r="M10" s="39" t="s">
         <v>14</v>
       </c>
       <c r="N10" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="O10" s="81"/>
+      <c r="O10" s="91"/>
       <c r="P10" s="44" t="s">
         <v>164</v>
       </c>
@@ -2265,14 +2336,14 @@
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="J11" s="48"/>
       <c r="K11" s="49"/>
-      <c r="L11" s="104"/>
+      <c r="L11" s="114"/>
       <c r="M11" s="39" t="s">
         <v>128</v>
       </c>
       <c r="N11" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="O11" s="81"/>
+      <c r="O11" s="91"/>
       <c r="P11" s="44" t="s">
         <v>165</v>
       </c>
@@ -2281,25 +2352,25 @@
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="99" t="s">
+      <c r="B12" s="109" t="s">
         <v>132</v>
       </c>
-      <c r="C12" s="99"/>
-      <c r="D12" s="99"/>
-      <c r="E12" s="99"/>
-      <c r="F12" s="99"/>
-      <c r="G12" s="99"/>
-      <c r="H12" s="99"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="109"/>
+      <c r="E12" s="109"/>
+      <c r="F12" s="109"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="109"/>
       <c r="J12" s="50"/>
       <c r="K12" s="51"/>
-      <c r="L12" s="104"/>
+      <c r="L12" s="114"/>
       <c r="M12" s="39" t="s">
         <v>129</v>
       </c>
       <c r="N12" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="O12" s="81"/>
+      <c r="O12" s="91"/>
       <c r="P12" s="39" t="s">
         <v>170</v>
       </c>
@@ -2308,29 +2379,29 @@
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="84" t="s">
+      <c r="B13" s="94" t="s">
         <v>133</v>
       </c>
-      <c r="C13" s="84"/>
+      <c r="C13" s="94"/>
       <c r="D13" s="58" t="s">
         <v>231</v>
       </c>
       <c r="E13" s="58" t="s">
         <v>117</v>
       </c>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="99"/>
       <c r="J13" s="50"/>
       <c r="K13" s="51"/>
-      <c r="L13" s="104"/>
+      <c r="L13" s="114"/>
       <c r="M13" s="39" t="s">
         <v>19</v>
       </c>
       <c r="N13" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="O13" s="81"/>
+      <c r="O13" s="91"/>
       <c r="P13" s="44" t="s">
         <v>171</v>
       </c>
@@ -2339,27 +2410,29 @@
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="84" t="s">
+      <c r="B14" s="94" t="s">
         <v>136</v>
       </c>
-      <c r="C14" s="84"/>
-      <c r="D14" s="58"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="75" t="s">
+        <v>231</v>
+      </c>
       <c r="E14" s="58" t="s">
         <v>117</v>
       </c>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="99"/>
       <c r="J14" s="52"/>
       <c r="K14" s="53"/>
-      <c r="L14" s="104"/>
+      <c r="L14" s="114"/>
       <c r="M14" s="39" t="s">
         <v>130</v>
       </c>
       <c r="N14" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="O14" s="81"/>
+      <c r="O14" s="91"/>
       <c r="P14" s="44" t="s">
         <v>172</v>
       </c>
@@ -2368,29 +2441,31 @@
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="84" t="s">
+      <c r="B15" s="94" t="s">
         <v>137</v>
       </c>
-      <c r="C15" s="84"/>
-      <c r="D15" s="58"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="75" t="s">
+        <v>231</v>
+      </c>
       <c r="E15" s="58" t="s">
         <v>117</v>
       </c>
-      <c r="F15" s="89"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="89"/>
-      <c r="J15" s="87" t="s">
+      <c r="F15" s="99"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="99"/>
+      <c r="J15" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="K15" s="88"/>
-      <c r="L15" s="104"/>
+      <c r="K15" s="98"/>
+      <c r="L15" s="114"/>
       <c r="M15" s="39" t="s">
         <v>15</v>
       </c>
       <c r="N15" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="O15" s="81"/>
+      <c r="O15" s="91"/>
       <c r="P15" s="44" t="s">
         <v>173</v>
       </c>
@@ -2399,31 +2474,33 @@
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="84" t="s">
+      <c r="B16" s="94" t="s">
         <v>139</v>
       </c>
-      <c r="C16" s="84"/>
-      <c r="D16" s="58"/>
+      <c r="C16" s="94"/>
+      <c r="D16" s="75" t="s">
+        <v>231</v>
+      </c>
       <c r="E16" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="F16" s="89"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="89"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="99"/>
+      <c r="H16" s="99"/>
       <c r="J16" s="39" t="s">
         <v>90</v>
       </c>
       <c r="K16" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="L16" s="104"/>
+      <c r="L16" s="114"/>
       <c r="M16" s="39" t="s">
         <v>131</v>
       </c>
       <c r="N16" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="O16" s="81"/>
+      <c r="O16" s="91"/>
       <c r="P16" s="39" t="s">
         <v>178</v>
       </c>
@@ -2432,29 +2509,31 @@
       </c>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="84" t="s">
+      <c r="B17" s="94" t="s">
         <v>138</v>
       </c>
-      <c r="C17" s="84"/>
-      <c r="D17" s="58"/>
+      <c r="C17" s="94"/>
+      <c r="D17" s="75" t="s">
+        <v>231</v>
+      </c>
       <c r="E17" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="F17" s="89"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="89"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="99"/>
       <c r="J17" s="39" t="s">
         <v>0</v>
       </c>
       <c r="K17" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="L17" s="104"/>
-      <c r="M17" s="87" t="s">
+      <c r="L17" s="114"/>
+      <c r="M17" s="97" t="s">
         <v>143</v>
       </c>
-      <c r="N17" s="88"/>
-      <c r="O17" s="81"/>
+      <c r="N17" s="98"/>
+      <c r="O17" s="91"/>
       <c r="P17" s="44" t="s">
         <v>179</v>
       </c>
@@ -2463,31 +2542,33 @@
       </c>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="82" t="s">
+      <c r="B18" s="92" t="s">
         <v>135</v>
       </c>
-      <c r="C18" s="83"/>
-      <c r="D18" s="58"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="75" t="s">
+        <v>231</v>
+      </c>
       <c r="E18" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="F18" s="89"/>
-      <c r="G18" s="89"/>
-      <c r="H18" s="89"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="99"/>
+      <c r="H18" s="99"/>
       <c r="J18" s="39" t="s">
         <v>91</v>
       </c>
       <c r="K18" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="L18" s="104"/>
+      <c r="L18" s="114"/>
       <c r="M18" s="47" t="s">
         <v>152</v>
       </c>
       <c r="N18" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="O18" s="81"/>
+      <c r="O18" s="91"/>
       <c r="P18" s="44" t="s">
         <v>180</v>
       </c>
@@ -2496,33 +2577,33 @@
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="82" t="s">
+      <c r="B19" s="92" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="83"/>
-      <c r="D19" s="58" t="s">
+      <c r="C19" s="93"/>
+      <c r="D19" s="75" t="s">
         <v>231</v>
       </c>
       <c r="E19" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="F19" s="89"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="89"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="99"/>
+      <c r="H19" s="99"/>
       <c r="J19" s="39" t="s">
         <v>92</v>
       </c>
       <c r="K19" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="L19" s="104"/>
+      <c r="L19" s="114"/>
       <c r="M19" s="40" t="s">
         <v>144</v>
       </c>
       <c r="N19" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="O19" s="81"/>
+      <c r="O19" s="91"/>
       <c r="P19" s="44" t="s">
         <v>181</v>
       </c>
@@ -2531,33 +2612,33 @@
       </c>
     </row>
     <row r="20" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="71" t="s">
+      <c r="B20" s="81" t="s">
         <v>233</v>
       </c>
-      <c r="C20" s="73"/>
-      <c r="D20" s="42" t="s">
+      <c r="C20" s="83"/>
+      <c r="D20" s="75" t="s">
         <v>231</v>
       </c>
       <c r="E20" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="F20" s="89"/>
-      <c r="G20" s="89"/>
-      <c r="H20" s="89"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="99"/>
+      <c r="H20" s="99"/>
       <c r="J20" s="39" t="s">
         <v>98</v>
       </c>
       <c r="K20" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="L20" s="104"/>
+      <c r="L20" s="114"/>
       <c r="M20" s="40" t="s">
         <v>145</v>
       </c>
       <c r="N20" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="O20" s="81"/>
+      <c r="O20" s="91"/>
       <c r="P20" s="39" t="s">
         <v>186</v>
       </c>
@@ -2566,31 +2647,31 @@
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="84" t="s">
+      <c r="B21" s="94" t="s">
         <v>234</v>
       </c>
-      <c r="C21" s="84"/>
+      <c r="C21" s="94"/>
       <c r="D21" s="43"/>
       <c r="E21" s="58" t="s">
         <v>117</v>
       </c>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="89"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="99"/>
+      <c r="H21" s="99"/>
       <c r="J21" s="39" t="s">
         <v>93</v>
       </c>
       <c r="K21" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="L21" s="104"/>
+      <c r="L21" s="114"/>
       <c r="M21" s="40" t="s">
         <v>146</v>
       </c>
       <c r="N21" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="O21" s="81"/>
+      <c r="O21" s="91"/>
       <c r="P21" s="44" t="s">
         <v>187</v>
       </c>
@@ -2599,35 +2680,35 @@
       </c>
     </row>
     <row r="22" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="90" t="s">
+      <c r="B22" s="100" t="s">
         <v>134</v>
       </c>
-      <c r="C22" s="91"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="96" t="s">
+      <c r="C22" s="101"/>
+      <c r="D22" s="58">
+        <v>3</v>
+      </c>
+      <c r="E22" s="106" t="s">
         <v>140</v>
       </c>
-      <c r="F22" s="106" t="s">
+      <c r="F22" s="116" t="s">
         <v>141</v>
       </c>
-      <c r="G22" s="106"/>
-      <c r="H22" s="68">
-        <v>2</v>
-      </c>
+      <c r="G22" s="116"/>
+      <c r="H22" s="68"/>
       <c r="J22" s="27" t="s">
         <v>104</v>
       </c>
       <c r="K22" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="L22" s="105"/>
+      <c r="L22" s="115"/>
       <c r="M22" s="40" t="s">
         <v>147</v>
       </c>
       <c r="N22" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="O22" s="81"/>
+      <c r="O22" s="91"/>
       <c r="P22" s="44" t="s">
         <v>188</v>
       </c>
@@ -2636,19 +2717,19 @@
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="92"/>
-      <c r="C23" s="93"/>
+      <c r="B23" s="102"/>
+      <c r="C23" s="103"/>
       <c r="D23" s="58"/>
-      <c r="E23" s="97"/>
-      <c r="F23" s="106"/>
-      <c r="G23" s="106"/>
+      <c r="E23" s="107"/>
+      <c r="F23" s="116"/>
+      <c r="G23" s="116"/>
       <c r="H23" s="68"/>
-      <c r="J23" s="71"/>
-      <c r="K23" s="72"/>
-      <c r="L23" s="72"/>
-      <c r="M23" s="72"/>
-      <c r="N23" s="73"/>
-      <c r="O23" s="81"/>
+      <c r="J23" s="81"/>
+      <c r="K23" s="82"/>
+      <c r="L23" s="82"/>
+      <c r="M23" s="82"/>
+      <c r="N23" s="83"/>
+      <c r="O23" s="91"/>
       <c r="P23" s="44" t="s">
         <v>189</v>
       </c>
@@ -2657,19 +2738,19 @@
       </c>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="92"/>
-      <c r="C24" s="93"/>
+      <c r="B24" s="102"/>
+      <c r="C24" s="103"/>
       <c r="D24" s="58"/>
-      <c r="E24" s="97"/>
-      <c r="F24" s="106"/>
-      <c r="G24" s="106"/>
+      <c r="E24" s="107"/>
+      <c r="F24" s="116"/>
+      <c r="G24" s="116"/>
       <c r="H24" s="68"/>
-      <c r="J24" s="74"/>
-      <c r="K24" s="75"/>
-      <c r="L24" s="75"/>
-      <c r="M24" s="75"/>
-      <c r="N24" s="76"/>
-      <c r="O24" s="81"/>
+      <c r="J24" s="84"/>
+      <c r="K24" s="85"/>
+      <c r="L24" s="85"/>
+      <c r="M24" s="85"/>
+      <c r="N24" s="86"/>
+      <c r="O24" s="91"/>
       <c r="P24" s="27" t="s">
         <v>195</v>
       </c>
@@ -2678,19 +2759,19 @@
       </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B25" s="92"/>
-      <c r="C25" s="93"/>
+      <c r="B25" s="102"/>
+      <c r="C25" s="103"/>
       <c r="D25" s="58"/>
-      <c r="E25" s="97"/>
-      <c r="F25" s="106"/>
-      <c r="G25" s="106"/>
+      <c r="E25" s="107"/>
+      <c r="F25" s="116"/>
+      <c r="G25" s="116"/>
       <c r="H25" s="68"/>
-      <c r="J25" s="74"/>
-      <c r="K25" s="75"/>
-      <c r="L25" s="75"/>
-      <c r="M25" s="75"/>
-      <c r="N25" s="76"/>
-      <c r="O25" s="81"/>
+      <c r="J25" s="84"/>
+      <c r="K25" s="85"/>
+      <c r="L25" s="85"/>
+      <c r="M25" s="85"/>
+      <c r="N25" s="86"/>
+      <c r="O25" s="91"/>
       <c r="P25" s="27" t="s">
         <v>199</v>
       </c>
@@ -2699,19 +2780,19 @@
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="92"/>
-      <c r="C26" s="93"/>
+      <c r="B26" s="102"/>
+      <c r="C26" s="103"/>
       <c r="D26" s="58"/>
-      <c r="E26" s="97"/>
-      <c r="F26" s="106"/>
-      <c r="G26" s="106"/>
+      <c r="E26" s="107"/>
+      <c r="F26" s="116"/>
+      <c r="G26" s="116"/>
       <c r="H26" s="68"/>
-      <c r="J26" s="74"/>
-      <c r="K26" s="75"/>
-      <c r="L26" s="75"/>
-      <c r="M26" s="75"/>
-      <c r="N26" s="76"/>
-      <c r="O26" s="81"/>
+      <c r="J26" s="84"/>
+      <c r="K26" s="85"/>
+      <c r="L26" s="85"/>
+      <c r="M26" s="85"/>
+      <c r="N26" s="86"/>
+      <c r="O26" s="91"/>
       <c r="P26" s="27" t="s">
         <v>200</v>
       </c>
@@ -2720,19 +2801,19 @@
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="92"/>
-      <c r="C27" s="93"/>
+      <c r="B27" s="102"/>
+      <c r="C27" s="103"/>
       <c r="D27" s="58"/>
-      <c r="E27" s="97"/>
-      <c r="F27" s="106"/>
-      <c r="G27" s="106"/>
+      <c r="E27" s="107"/>
+      <c r="F27" s="116"/>
+      <c r="G27" s="116"/>
       <c r="H27" s="68"/>
-      <c r="J27" s="74"/>
-      <c r="K27" s="75"/>
-      <c r="L27" s="75"/>
-      <c r="M27" s="75"/>
-      <c r="N27" s="76"/>
-      <c r="O27" s="81"/>
+      <c r="J27" s="84"/>
+      <c r="K27" s="85"/>
+      <c r="L27" s="85"/>
+      <c r="M27" s="85"/>
+      <c r="N27" s="86"/>
+      <c r="O27" s="91"/>
       <c r="P27" s="27" t="s">
         <v>201</v>
       </c>
@@ -2741,19 +2822,19 @@
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B28" s="92"/>
-      <c r="C28" s="93"/>
+      <c r="B28" s="102"/>
+      <c r="C28" s="103"/>
       <c r="D28" s="58"/>
-      <c r="E28" s="97"/>
-      <c r="F28" s="106"/>
-      <c r="G28" s="106"/>
+      <c r="E28" s="107"/>
+      <c r="F28" s="116"/>
+      <c r="G28" s="116"/>
       <c r="H28" s="68"/>
-      <c r="J28" s="74"/>
-      <c r="K28" s="75"/>
-      <c r="L28" s="75"/>
-      <c r="M28" s="75"/>
-      <c r="N28" s="76"/>
-      <c r="O28" s="81"/>
+      <c r="J28" s="84"/>
+      <c r="K28" s="85"/>
+      <c r="L28" s="85"/>
+      <c r="M28" s="85"/>
+      <c r="N28" s="86"/>
+      <c r="O28" s="91"/>
       <c r="P28" s="27" t="s">
         <v>203</v>
       </c>
@@ -2762,19 +2843,19 @@
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B29" s="94"/>
-      <c r="C29" s="95"/>
+      <c r="B29" s="104"/>
+      <c r="C29" s="105"/>
       <c r="D29" s="58"/>
-      <c r="E29" s="98"/>
-      <c r="F29" s="106"/>
-      <c r="G29" s="106"/>
+      <c r="E29" s="108"/>
+      <c r="F29" s="116"/>
+      <c r="G29" s="116"/>
       <c r="H29" s="68"/>
-      <c r="J29" s="74"/>
-      <c r="K29" s="75"/>
-      <c r="L29" s="75"/>
-      <c r="M29" s="75"/>
-      <c r="N29" s="76"/>
-      <c r="O29" s="81"/>
+      <c r="J29" s="84"/>
+      <c r="K29" s="85"/>
+      <c r="L29" s="85"/>
+      <c r="M29" s="85"/>
+      <c r="N29" s="86"/>
+      <c r="O29" s="91"/>
       <c r="P29" s="27" t="s">
         <v>202</v>
       </c>
@@ -2783,12 +2864,12 @@
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J30" s="74"/>
-      <c r="K30" s="75"/>
-      <c r="L30" s="75"/>
-      <c r="M30" s="75"/>
-      <c r="N30" s="76"/>
-      <c r="O30" s="81"/>
+      <c r="J30" s="84"/>
+      <c r="K30" s="85"/>
+      <c r="L30" s="85"/>
+      <c r="M30" s="85"/>
+      <c r="N30" s="86"/>
+      <c r="O30" s="91"/>
       <c r="P30" s="27" t="s">
         <v>204</v>
       </c>
@@ -2797,12 +2878,12 @@
       </c>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J31" s="74"/>
-      <c r="K31" s="75"/>
-      <c r="L31" s="75"/>
-      <c r="M31" s="75"/>
-      <c r="N31" s="76"/>
-      <c r="O31" s="81"/>
+      <c r="J31" s="84"/>
+      <c r="K31" s="85"/>
+      <c r="L31" s="85"/>
+      <c r="M31" s="85"/>
+      <c r="N31" s="86"/>
+      <c r="O31" s="91"/>
       <c r="P31" s="27" t="s">
         <v>205</v>
       </c>
@@ -2811,12 +2892,12 @@
       </c>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J32" s="74"/>
-      <c r="K32" s="75"/>
-      <c r="L32" s="75"/>
-      <c r="M32" s="75"/>
-      <c r="N32" s="76"/>
-      <c r="O32" s="81"/>
+      <c r="J32" s="84"/>
+      <c r="K32" s="85"/>
+      <c r="L32" s="85"/>
+      <c r="M32" s="85"/>
+      <c r="N32" s="86"/>
+      <c r="O32" s="91"/>
       <c r="P32" s="27" t="s">
         <v>206</v>
       </c>
@@ -2825,12 +2906,12 @@
       </c>
     </row>
     <row r="33" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J33" s="74"/>
-      <c r="K33" s="75"/>
-      <c r="L33" s="75"/>
-      <c r="M33" s="75"/>
-      <c r="N33" s="76"/>
-      <c r="O33" s="81"/>
+      <c r="J33" s="84"/>
+      <c r="K33" s="85"/>
+      <c r="L33" s="85"/>
+      <c r="M33" s="85"/>
+      <c r="N33" s="86"/>
+      <c r="O33" s="91"/>
       <c r="P33" s="27" t="s">
         <v>207</v>
       </c>
@@ -2839,12 +2920,12 @@
       </c>
     </row>
     <row r="34" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J34" s="74"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="75"/>
-      <c r="M34" s="75"/>
-      <c r="N34" s="76"/>
-      <c r="O34" s="81"/>
+      <c r="J34" s="84"/>
+      <c r="K34" s="85"/>
+      <c r="L34" s="85"/>
+      <c r="M34" s="85"/>
+      <c r="N34" s="86"/>
+      <c r="O34" s="91"/>
       <c r="P34" s="27" t="s">
         <v>208</v>
       </c>
@@ -2853,12 +2934,12 @@
       </c>
     </row>
     <row r="35" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J35" s="74"/>
-      <c r="K35" s="75"/>
-      <c r="L35" s="75"/>
-      <c r="M35" s="75"/>
-      <c r="N35" s="76"/>
-      <c r="O35" s="81"/>
+      <c r="J35" s="84"/>
+      <c r="K35" s="85"/>
+      <c r="L35" s="85"/>
+      <c r="M35" s="85"/>
+      <c r="N35" s="86"/>
+      <c r="O35" s="91"/>
       <c r="P35" s="27" t="s">
         <v>209</v>
       </c>
@@ -2867,12 +2948,12 @@
       </c>
     </row>
     <row r="36" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J36" s="74"/>
-      <c r="K36" s="75"/>
-      <c r="L36" s="75"/>
-      <c r="M36" s="75"/>
-      <c r="N36" s="76"/>
-      <c r="O36" s="81"/>
+      <c r="J36" s="84"/>
+      <c r="K36" s="85"/>
+      <c r="L36" s="85"/>
+      <c r="M36" s="85"/>
+      <c r="N36" s="86"/>
+      <c r="O36" s="91"/>
       <c r="P36" s="27" t="s">
         <v>218</v>
       </c>
@@ -2881,12 +2962,12 @@
       </c>
     </row>
     <row r="37" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J37" s="74"/>
-      <c r="K37" s="75"/>
-      <c r="L37" s="75"/>
-      <c r="M37" s="75"/>
-      <c r="N37" s="76"/>
-      <c r="O37" s="81"/>
+      <c r="J37" s="84"/>
+      <c r="K37" s="85"/>
+      <c r="L37" s="85"/>
+      <c r="M37" s="85"/>
+      <c r="N37" s="86"/>
+      <c r="O37" s="91"/>
       <c r="P37" s="27" t="s">
         <v>219</v>
       </c>
@@ -2895,12 +2976,12 @@
       </c>
     </row>
     <row r="38" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J38" s="77"/>
-      <c r="K38" s="78"/>
-      <c r="L38" s="78"/>
-      <c r="M38" s="78"/>
-      <c r="N38" s="79"/>
-      <c r="O38" s="81"/>
+      <c r="J38" s="87"/>
+      <c r="K38" s="88"/>
+      <c r="L38" s="88"/>
+      <c r="M38" s="88"/>
+      <c r="N38" s="89"/>
+      <c r="O38" s="91"/>
       <c r="P38" s="27" t="s">
         <v>220</v>
       </c>
@@ -2959,8 +3040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK193"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U24" sqref="U24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2979,118 +3060,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A1" s="89"/>
-      <c r="B1" s="89"/>
-      <c r="C1" s="84" t="s">
+      <c r="A1" s="99"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84" t="s">
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84" t="s">
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84" t="s">
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84" t="s">
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="94"/>
+      <c r="S1" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
-      <c r="W1" s="84"/>
-      <c r="X1" s="84"/>
-      <c r="Y1" s="84"/>
-      <c r="Z1" s="84"/>
-      <c r="AA1" s="84"/>
-      <c r="AB1" s="84"/>
-      <c r="AC1" s="84"/>
-      <c r="AD1" s="84"/>
-      <c r="AE1" s="84"/>
-      <c r="AF1" s="84"/>
-      <c r="AG1" s="84"/>
-      <c r="AH1" s="84"/>
-      <c r="AI1" s="84"/>
-      <c r="AJ1" s="84"/>
-      <c r="AK1" s="84"/>
+      <c r="T1" s="94"/>
+      <c r="U1" s="94"/>
+      <c r="V1" s="94"/>
+      <c r="W1" s="94"/>
+      <c r="X1" s="94"/>
+      <c r="Y1" s="94"/>
+      <c r="Z1" s="94"/>
+      <c r="AA1" s="94"/>
+      <c r="AB1" s="94"/>
+      <c r="AC1" s="94"/>
+      <c r="AD1" s="94"/>
+      <c r="AE1" s="94"/>
+      <c r="AF1" s="94"/>
+      <c r="AG1" s="94"/>
+      <c r="AH1" s="94"/>
+      <c r="AI1" s="94"/>
+      <c r="AJ1" s="94"/>
+      <c r="AK1" s="94"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="109" t="s">
+      <c r="A2" s="99"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="119" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109" t="s">
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109" t="s">
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="84" t="s">
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84" t="s">
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="106" t="s">
+      <c r="P2" s="94"/>
+      <c r="Q2" s="94"/>
+      <c r="R2" s="116" t="s">
         <v>81</v>
       </c>
-      <c r="S2" s="108" t="s">
-        <v>0</v>
-      </c>
-      <c r="T2" s="109" t="s">
+      <c r="S2" s="118" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="119" t="s">
         <v>88</v>
       </c>
-      <c r="U2" s="109"/>
-      <c r="V2" s="109"/>
-      <c r="W2" s="84" t="s">
+      <c r="U2" s="119"/>
+      <c r="V2" s="119"/>
+      <c r="W2" s="94" t="s">
         <v>86</v>
       </c>
-      <c r="X2" s="84"/>
-      <c r="Y2" s="84"/>
-      <c r="Z2" s="82" t="s">
+      <c r="X2" s="94"/>
+      <c r="Y2" s="94"/>
+      <c r="Z2" s="92" t="s">
         <v>87</v>
       </c>
-      <c r="AA2" s="107"/>
-      <c r="AB2" s="83"/>
-      <c r="AC2" s="84" t="s">
+      <c r="AA2" s="117"/>
+      <c r="AB2" s="93"/>
+      <c r="AC2" s="94" t="s">
         <v>84</v>
       </c>
-      <c r="AD2" s="84"/>
-      <c r="AE2" s="84"/>
-      <c r="AF2" s="84" t="s">
+      <c r="AD2" s="94"/>
+      <c r="AE2" s="94"/>
+      <c r="AF2" s="94" t="s">
         <v>85</v>
       </c>
-      <c r="AG2" s="84"/>
-      <c r="AH2" s="84"/>
-      <c r="AI2" s="84" t="s">
+      <c r="AG2" s="94"/>
+      <c r="AH2" s="94"/>
+      <c r="AI2" s="94" t="s">
         <v>73</v>
       </c>
-      <c r="AJ2" s="84"/>
-      <c r="AK2" s="84"/>
+      <c r="AJ2" s="94"/>
+      <c r="AK2" s="94"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -3144,8 +3225,8 @@
       <c r="Q3" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="R3" s="106"/>
-      <c r="S3" s="108"/>
+      <c r="R3" s="116"/>
+      <c r="S3" s="118"/>
       <c r="T3" s="16" t="s">
         <v>59</v>
       </c>
@@ -3259,13 +3340,13 @@
       <c r="S4" s="61">
         <v>0</v>
       </c>
-      <c r="T4" s="61">
-        <v>0</v>
-      </c>
-      <c r="U4" s="61">
-        <v>0</v>
-      </c>
-      <c r="V4" s="61">
+      <c r="T4" s="76">
+        <v>0</v>
+      </c>
+      <c r="U4" s="76">
+        <v>0</v>
+      </c>
+      <c r="V4" s="76">
         <v>0</v>
       </c>
       <c r="W4" s="69">
@@ -3319,15 +3400,15 @@
         <v>2</v>
       </c>
       <c r="B5" s="70" t="s">
-        <v>249</v>
-      </c>
-      <c r="C5" s="70">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D5" s="70">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E5" s="70">
+        <v>248</v>
+      </c>
+      <c r="C5" s="77">
+        <v>3.5</v>
+      </c>
+      <c r="D5" s="77">
+        <v>0</v>
+      </c>
+      <c r="E5" s="71">
         <v>0</v>
       </c>
       <c r="F5" s="69">
@@ -3348,13 +3429,13 @@
       <c r="K5" s="69">
         <v>0</v>
       </c>
-      <c r="L5" s="69">
-        <v>0</v>
-      </c>
-      <c r="M5" s="69">
-        <v>0</v>
-      </c>
-      <c r="N5" s="69">
+      <c r="L5" s="80">
+        <v>0</v>
+      </c>
+      <c r="M5" s="80">
+        <v>0</v>
+      </c>
+      <c r="N5" s="80">
         <v>0</v>
       </c>
       <c r="O5" s="69">
@@ -3370,11 +3451,17 @@
         <v>0</v>
       </c>
       <c r="S5" s="60">
-        <v>1.4855E-2</v>
-      </c>
-      <c r="T5" s="69"/>
-      <c r="U5" s="60"/>
-      <c r="V5" s="69"/>
+        <v>1.4412200000000001E-5</v>
+      </c>
+      <c r="T5" s="60">
+        <v>7.2455900000000005E-7</v>
+      </c>
+      <c r="U5" s="60">
+        <v>6.8534999999999993E-5</v>
+      </c>
+      <c r="V5" s="60">
+        <v>6.8965000000000001E-5</v>
+      </c>
       <c r="W5" s="69">
         <v>0</v>
       </c>
@@ -3409,7 +3496,7 @@
         <v>0</v>
       </c>
       <c r="AH5" s="28">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AI5" s="69">
         <v>0</v>
@@ -3426,15 +3513,15 @@
         <v>3</v>
       </c>
       <c r="B6" s="70" t="s">
-        <v>250</v>
-      </c>
-      <c r="C6" s="70">
-        <v>0</v>
-      </c>
-      <c r="D6" s="70">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E6" s="70">
+        <v>249</v>
+      </c>
+      <c r="C6" s="77">
+        <v>-14.675000000000001</v>
+      </c>
+      <c r="D6" s="77">
+        <v>-1.135</v>
+      </c>
+      <c r="E6" s="71">
         <v>0</v>
       </c>
       <c r="F6" s="69">
@@ -3455,13 +3542,13 @@
       <c r="K6" s="69">
         <v>0</v>
       </c>
-      <c r="L6" s="69">
-        <v>0</v>
-      </c>
-      <c r="M6" s="69">
-        <v>0</v>
-      </c>
-      <c r="N6" s="69">
+      <c r="L6" s="80">
+        <v>0</v>
+      </c>
+      <c r="M6" s="80">
+        <v>0</v>
+      </c>
+      <c r="N6" s="80">
         <v>0</v>
       </c>
       <c r="O6" s="69">
@@ -3470,16 +3557,24 @@
       <c r="P6" s="69">
         <v>0</v>
       </c>
-      <c r="Q6" s="69">
-        <v>0</v>
-      </c>
-      <c r="R6" s="69">
-        <v>0</v>
-      </c>
-      <c r="S6" s="69"/>
-      <c r="T6" s="60"/>
-      <c r="U6" s="69"/>
-      <c r="V6" s="69"/>
+      <c r="Q6" s="79">
+        <v>0</v>
+      </c>
+      <c r="R6" s="79">
+        <v>0</v>
+      </c>
+      <c r="S6" s="60">
+        <v>3.4377000000000001E-3</v>
+      </c>
+      <c r="T6" s="60">
+        <v>6.64731E-3</v>
+      </c>
+      <c r="U6" s="60">
+        <v>0.62875000000000003</v>
+      </c>
+      <c r="V6" s="60">
+        <v>0.63270769999999998</v>
+      </c>
       <c r="W6" s="69">
         <v>0</v>
       </c>
@@ -3531,15 +3626,15 @@
         <v>4</v>
       </c>
       <c r="B7" s="70" t="s">
-        <v>251</v>
-      </c>
-      <c r="C7" s="70">
-        <v>-5.2040000000000003E-2</v>
-      </c>
-      <c r="D7" s="70">
-        <v>8.2650000000000001E-2</v>
-      </c>
-      <c r="E7" s="70">
+        <v>250</v>
+      </c>
+      <c r="C7" s="77">
+        <v>-29.81</v>
+      </c>
+      <c r="D7" s="77">
+        <v>15.08</v>
+      </c>
+      <c r="E7" s="71">
         <v>0</v>
       </c>
       <c r="F7" s="69">
@@ -3560,13 +3655,13 @@
       <c r="K7" s="69">
         <v>0</v>
       </c>
-      <c r="L7" s="69">
-        <v>0</v>
-      </c>
-      <c r="M7" s="69">
-        <v>0</v>
-      </c>
-      <c r="N7" s="69">
+      <c r="L7" s="80">
+        <v>0</v>
+      </c>
+      <c r="M7" s="80">
+        <v>0</v>
+      </c>
+      <c r="N7" s="80">
         <v>0</v>
       </c>
       <c r="O7" s="69">
@@ -3575,16 +3670,24 @@
       <c r="P7" s="69">
         <v>0</v>
       </c>
-      <c r="Q7" s="69">
-        <v>0</v>
-      </c>
-      <c r="R7" s="69">
-        <v>0</v>
-      </c>
-      <c r="S7" s="69"/>
-      <c r="T7" s="69"/>
-      <c r="U7" s="60"/>
-      <c r="V7" s="69"/>
+      <c r="Q7" s="79">
+        <v>0</v>
+      </c>
+      <c r="R7" s="79">
+        <v>0</v>
+      </c>
+      <c r="S7" s="60">
+        <v>1.7212000000000002E-2</v>
+      </c>
+      <c r="T7" s="60">
+        <v>1.1271199999999999</v>
+      </c>
+      <c r="U7" s="60">
+        <v>0.51659999999999995</v>
+      </c>
+      <c r="V7" s="60">
+        <v>1.57202</v>
+      </c>
       <c r="W7" s="69">
         <v>0</v>
       </c>
@@ -3636,15 +3739,15 @@
         <v>5</v>
       </c>
       <c r="B8" s="70" t="s">
-        <v>252</v>
-      </c>
-      <c r="C8" s="70">
-        <v>-7.4999999999999997E-2</v>
-      </c>
-      <c r="D8" s="70">
-        <v>-2.5000000000000001E-2</v>
-      </c>
-      <c r="E8" s="70">
+        <v>251</v>
+      </c>
+      <c r="C8" s="77">
+        <v>-40.131999999999998</v>
+      </c>
+      <c r="D8" s="77">
+        <v>6.9870000000000001</v>
+      </c>
+      <c r="E8" s="71">
         <v>0</v>
       </c>
       <c r="F8" s="69">
@@ -3665,13 +3768,13 @@
       <c r="K8" s="69">
         <v>0</v>
       </c>
-      <c r="L8" s="69">
-        <v>0</v>
-      </c>
-      <c r="M8" s="69">
-        <v>0</v>
-      </c>
-      <c r="N8" s="69">
+      <c r="L8" s="80">
+        <v>0</v>
+      </c>
+      <c r="M8" s="80">
+        <v>0</v>
+      </c>
+      <c r="N8" s="80">
         <v>0</v>
       </c>
       <c r="O8" s="69">
@@ -3680,16 +3783,24 @@
       <c r="P8" s="69">
         <v>0</v>
       </c>
-      <c r="Q8" s="69">
-        <v>0</v>
-      </c>
-      <c r="R8" s="69">
-        <v>0</v>
-      </c>
-      <c r="S8" s="69"/>
-      <c r="T8" s="60"/>
-      <c r="U8" s="69"/>
-      <c r="V8" s="69"/>
+      <c r="Q8" s="79">
+        <v>0</v>
+      </c>
+      <c r="R8" s="79">
+        <v>0</v>
+      </c>
+      <c r="S8" s="60">
+        <v>3.3609999999999998E-4</v>
+      </c>
+      <c r="T8" s="60">
+        <v>1.3047E-2</v>
+      </c>
+      <c r="U8" s="60">
+        <v>1.379385E-4</v>
+      </c>
+      <c r="V8" s="60">
+        <v>1.3129E-2</v>
+      </c>
       <c r="W8" s="69">
         <v>0</v>
       </c>
@@ -3741,15 +3852,15 @@
         <v>6</v>
       </c>
       <c r="B9" s="70" t="s">
-        <v>254</v>
-      </c>
-      <c r="C9" s="70">
-        <v>-0.15</v>
-      </c>
-      <c r="D9" s="70">
-        <v>-2.5000000000000001E-2</v>
-      </c>
-      <c r="E9" s="70">
+        <v>252</v>
+      </c>
+      <c r="C9" s="77">
+        <v>-56.627000000000002</v>
+      </c>
+      <c r="D9" s="77">
+        <v>6.9870000000000001</v>
+      </c>
+      <c r="E9" s="71">
         <v>0</v>
       </c>
       <c r="F9" s="69">
@@ -3770,13 +3881,13 @@
       <c r="K9" s="69">
         <v>0</v>
       </c>
-      <c r="L9" s="69">
-        <v>0</v>
-      </c>
-      <c r="M9" s="69">
-        <v>0</v>
-      </c>
-      <c r="N9" s="69">
+      <c r="L9" s="80">
+        <v>0</v>
+      </c>
+      <c r="M9" s="80">
+        <v>0</v>
+      </c>
+      <c r="N9" s="80">
         <v>0</v>
       </c>
       <c r="O9" s="69">
@@ -3785,16 +3896,24 @@
       <c r="P9" s="69">
         <v>0</v>
       </c>
-      <c r="Q9" s="69">
-        <v>0</v>
-      </c>
-      <c r="R9" s="69">
-        <v>0</v>
-      </c>
-      <c r="S9" s="69"/>
-      <c r="T9" s="69"/>
-      <c r="U9" s="60"/>
-      <c r="V9" s="69"/>
+      <c r="Q9" s="79">
+        <v>0</v>
+      </c>
+      <c r="R9" s="79">
+        <v>0</v>
+      </c>
+      <c r="S9" s="60">
+        <v>1.30736E-3</v>
+      </c>
+      <c r="T9" s="60">
+        <v>1326.9</v>
+      </c>
+      <c r="U9" s="60">
+        <v>0.12551200000000001</v>
+      </c>
+      <c r="V9" s="60">
+        <v>0.1263</v>
+      </c>
       <c r="W9" s="69">
         <v>0</v>
       </c>
@@ -3848,13 +3967,13 @@
       <c r="B10" s="70" t="s">
         <v>253</v>
       </c>
-      <c r="C10" s="70">
-        <v>-0.15</v>
-      </c>
-      <c r="D10" s="70">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E10" s="70">
+      <c r="C10" s="77">
+        <v>-56.627000000000002</v>
+      </c>
+      <c r="D10" s="77">
+        <v>-11.571999999999999</v>
+      </c>
+      <c r="E10" s="71">
         <v>0</v>
       </c>
       <c r="F10" s="69">
@@ -3875,13 +3994,13 @@
       <c r="K10" s="69">
         <v>0</v>
       </c>
-      <c r="L10" s="69">
-        <v>0</v>
-      </c>
-      <c r="M10" s="69">
-        <v>0</v>
-      </c>
-      <c r="N10" s="69">
+      <c r="L10" s="80">
+        <v>0</v>
+      </c>
+      <c r="M10" s="80">
+        <v>0</v>
+      </c>
+      <c r="N10" s="80">
         <v>0</v>
       </c>
       <c r="O10" s="69">
@@ -3890,12 +4009,24 @@
       <c r="P10" s="69">
         <v>0</v>
       </c>
-      <c r="Q10" s="43"/>
-      <c r="R10" s="43"/>
-      <c r="S10" s="43"/>
-      <c r="T10" s="43"/>
-      <c r="U10" s="43"/>
-      <c r="V10" s="43"/>
+      <c r="Q10" s="79">
+        <v>0</v>
+      </c>
+      <c r="R10" s="79">
+        <v>0</v>
+      </c>
+      <c r="S10" s="60">
+        <v>1.30736E-3</v>
+      </c>
+      <c r="T10" s="60">
+        <v>1326.93</v>
+      </c>
+      <c r="U10" s="60">
+        <v>0.12551200000000001</v>
+      </c>
+      <c r="V10" s="60">
+        <v>0.1263</v>
+      </c>
       <c r="W10" s="69">
         <v>0</v>
       </c>
@@ -3947,15 +4078,15 @@
         <v>8</v>
       </c>
       <c r="B11" s="70" t="s">
-        <v>255</v>
-      </c>
-      <c r="C11" s="70">
-        <v>-7.4999999999999997E-2</v>
-      </c>
-      <c r="D11" s="70">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E11" s="70">
+        <v>254</v>
+      </c>
+      <c r="C11" s="77">
+        <v>-40.131999999999998</v>
+      </c>
+      <c r="D11" s="77">
+        <v>-11.571999999999999</v>
+      </c>
+      <c r="E11" s="71">
         <v>0</v>
       </c>
       <c r="F11" s="69">
@@ -3976,13 +4107,13 @@
       <c r="K11" s="69">
         <v>0</v>
       </c>
-      <c r="L11" s="69">
-        <v>0</v>
-      </c>
-      <c r="M11" s="69">
-        <v>0</v>
-      </c>
-      <c r="N11" s="69">
+      <c r="L11" s="80">
+        <v>0</v>
+      </c>
+      <c r="M11" s="80">
+        <v>0</v>
+      </c>
+      <c r="N11" s="80">
         <v>0</v>
       </c>
       <c r="O11" s="69">
@@ -3991,12 +4122,24 @@
       <c r="P11" s="69">
         <v>0</v>
       </c>
-      <c r="Q11" s="43"/>
-      <c r="R11" s="43"/>
-      <c r="S11" s="43"/>
-      <c r="T11" s="43"/>
-      <c r="U11" s="43"/>
-      <c r="V11" s="43"/>
+      <c r="Q11" s="79">
+        <v>0</v>
+      </c>
+      <c r="R11" s="79">
+        <v>0</v>
+      </c>
+      <c r="S11" s="60">
+        <v>3.3609999999999998E-4</v>
+      </c>
+      <c r="T11" s="60">
+        <v>1.3047E-2</v>
+      </c>
+      <c r="U11" s="60">
+        <v>1.3793799999999999E-4</v>
+      </c>
+      <c r="V11" s="60">
+        <v>1.3129E-2</v>
+      </c>
       <c r="W11" s="69">
         <v>0</v>
       </c>
@@ -6994,10 +7137,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:X69"/>
+  <dimension ref="A1:X72"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7009,6 +7152,7 @@
     <col min="6" max="6" width="11.42578125" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" customWidth="1"/>
     <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="32.85546875" customWidth="1"/>
     <col min="22" max="22" width="15.28515625" customWidth="1"/>
     <col min="23" max="23" width="16.7109375" customWidth="1"/>
@@ -7017,16 +7161,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
@@ -7057,11 +7201,11 @@
       <c r="E2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="112" t="s">
+      <c r="F2" s="122" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -7117,19 +7261,19 @@
       <c r="X4" s="10"/>
     </row>
     <row r="5" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="111" t="s">
+      <c r="A5" s="121" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="111"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="111"/>
-      <c r="H5" s="111"/>
-      <c r="I5" s="111"/>
-      <c r="J5" s="111"/>
-      <c r="K5" s="111"/>
+      <c r="B5" s="121"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="121"/>
+      <c r="H5" s="121"/>
+      <c r="I5" s="121"/>
+      <c r="J5" s="121"/>
+      <c r="K5" s="121"/>
       <c r="R5" s="10"/>
       <c r="S5" s="10"/>
       <c r="T5" s="10"/>
@@ -7154,16 +7298,16 @@
       <c r="E6" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="116" t="s">
+      <c r="F6" s="126" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="117"/>
-      <c r="H6" s="118"/>
-      <c r="I6" s="116" t="s">
+      <c r="G6" s="127"/>
+      <c r="H6" s="128"/>
+      <c r="I6" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="117"/>
-      <c r="K6" s="118"/>
+      <c r="J6" s="127"/>
+      <c r="K6" s="128"/>
       <c r="L6" s="19"/>
       <c r="M6" s="19"/>
       <c r="N6" s="19"/>
@@ -7199,22 +7343,22 @@
       <c r="X7" s="10"/>
     </row>
     <row r="8" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="111" t="s">
+      <c r="A8" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="111"/>
-      <c r="C8" s="111"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="111"/>
-      <c r="G8" s="111"/>
-      <c r="H8" s="111"/>
-      <c r="I8" s="111"/>
-      <c r="J8" s="111"/>
-      <c r="K8" s="111"/>
-      <c r="L8" s="111"/>
-      <c r="M8" s="111"/>
-      <c r="N8" s="111"/>
+      <c r="B8" s="121"/>
+      <c r="C8" s="121"/>
+      <c r="D8" s="121"/>
+      <c r="E8" s="121"/>
+      <c r="F8" s="121"/>
+      <c r="G8" s="121"/>
+      <c r="H8" s="121"/>
+      <c r="I8" s="121"/>
+      <c r="J8" s="121"/>
+      <c r="K8" s="121"/>
+      <c r="L8" s="121"/>
+      <c r="M8" s="121"/>
+      <c r="N8" s="121"/>
       <c r="R8" s="10"/>
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
@@ -7239,21 +7383,21 @@
       <c r="E9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="112" t="s">
+      <c r="F9" s="122" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="112"/>
-      <c r="H9" s="112"/>
-      <c r="I9" s="110" t="s">
+      <c r="G9" s="122"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="120" t="s">
         <v>43</v>
       </c>
-      <c r="J9" s="110"/>
-      <c r="K9" s="110"/>
-      <c r="L9" s="110" t="s">
+      <c r="J9" s="120"/>
+      <c r="K9" s="120"/>
+      <c r="L9" s="120" t="s">
         <v>239</v>
       </c>
-      <c r="M9" s="110"/>
-      <c r="N9" s="110"/>
+      <c r="M9" s="120"/>
+      <c r="N9" s="120"/>
       <c r="R9" s="10"/>
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
@@ -7307,19 +7451,19 @@
       <c r="X11" s="10"/>
     </row>
     <row r="12" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="111" t="s">
+      <c r="A12" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="111"/>
-      <c r="C12" s="111"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="111"/>
-      <c r="G12" s="111"/>
-      <c r="H12" s="111"/>
-      <c r="I12" s="111"/>
-      <c r="J12" s="111"/>
-      <c r="K12" s="111"/>
+      <c r="B12" s="121"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="121"/>
+      <c r="J12" s="121"/>
+      <c r="K12" s="121"/>
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
@@ -7344,16 +7488,16 @@
       <c r="E13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="112" t="s">
+      <c r="F13" s="122" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="112"/>
-      <c r="H13" s="112"/>
-      <c r="I13" s="110" t="s">
+      <c r="G13" s="122"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="120" t="s">
         <v>44</v>
       </c>
-      <c r="J13" s="110"/>
-      <c r="K13" s="110"/>
+      <c r="J13" s="120"/>
+      <c r="K13" s="120"/>
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
@@ -7367,7 +7511,9 @@
       <c r="B14" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="13"/>
+      <c r="C14" s="13" t="s">
+        <v>255</v>
+      </c>
       <c r="D14" s="13">
         <v>1</v>
       </c>
@@ -7383,14 +7529,14 @@
       <c r="H14" s="13">
         <v>0</v>
       </c>
-      <c r="I14" s="13">
-        <v>0</v>
-      </c>
-      <c r="J14" s="13">
+      <c r="I14" s="41">
+        <v>0</v>
+      </c>
+      <c r="J14" s="41">
         <v>0</v>
       </c>
       <c r="K14" s="13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="R14" s="10"/>
       <c r="S14" s="10"/>
@@ -7405,29 +7551,32 @@
       <c r="B15" s="13" t="s">
         <v>12</v>
       </c>
+      <c r="C15" s="13" t="s">
+        <v>256</v>
+      </c>
       <c r="D15" s="13">
         <v>2</v>
       </c>
       <c r="E15" s="13">
         <v>3</v>
       </c>
-      <c r="F15" s="13">
-        <v>0</v>
-      </c>
-      <c r="G15" s="13">
-        <v>1</v>
-      </c>
-      <c r="H15" s="13">
-        <v>0</v>
-      </c>
-      <c r="I15" s="17">
-        <v>0</v>
-      </c>
-      <c r="J15" s="17">
+      <c r="F15" s="41">
+        <v>7</v>
+      </c>
+      <c r="G15" s="41">
+        <v>0</v>
+      </c>
+      <c r="H15" s="41">
+        <v>0</v>
+      </c>
+      <c r="I15" s="41">
+        <v>7</v>
+      </c>
+      <c r="J15" s="41">
         <v>0</v>
       </c>
       <c r="K15" s="17">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="16" spans="1:24" s="41" customFormat="1" x14ac:dyDescent="0.25">
@@ -7435,6 +7584,9 @@
       <c r="B16" s="41" t="s">
         <v>12</v>
       </c>
+      <c r="C16" s="41" t="s">
+        <v>257</v>
+      </c>
       <c r="D16" s="41">
         <v>3</v>
       </c>
@@ -7442,28 +7594,31 @@
         <v>4</v>
       </c>
       <c r="F16" s="41">
-        <v>1</v>
+        <v>-36.35</v>
       </c>
       <c r="G16" s="41">
-        <v>1</v>
+        <v>-2.27</v>
       </c>
       <c r="H16" s="41">
         <v>0</v>
       </c>
-      <c r="I16" s="17">
-        <v>0</v>
-      </c>
-      <c r="J16" s="17">
-        <v>0</v>
+      <c r="I16" s="41">
+        <v>-36.35</v>
+      </c>
+      <c r="J16" s="41">
+        <v>-2.27</v>
       </c>
       <c r="K16" s="17">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B17" s="41" t="s">
         <v>12</v>
       </c>
+      <c r="C17" s="20" t="s">
+        <v>258</v>
+      </c>
       <c r="D17" s="20">
         <v>4</v>
       </c>
@@ -7471,28 +7626,31 @@
         <v>1</v>
       </c>
       <c r="F17" s="41">
-        <v>1</v>
+        <v>-36.35</v>
       </c>
       <c r="G17" s="41">
-        <v>0</v>
+        <v>32.729999999999997</v>
       </c>
       <c r="H17" s="41">
         <v>0</v>
       </c>
       <c r="I17" s="41">
-        <v>0</v>
+        <v>-36.35</v>
       </c>
       <c r="J17" s="41">
-        <v>0</v>
+        <v>32.729999999999997</v>
       </c>
       <c r="K17" s="41">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B18" s="41" t="s">
         <v>12</v>
       </c>
+      <c r="C18" s="20" t="s">
+        <v>259</v>
+      </c>
       <c r="D18" s="20">
         <v>4</v>
       </c>
@@ -7500,28 +7658,31 @@
         <v>5</v>
       </c>
       <c r="F18" s="41">
-        <v>1</v>
+        <v>-36.35</v>
       </c>
       <c r="G18" s="41">
-        <v>1</v>
+        <v>-2.27</v>
       </c>
       <c r="H18" s="41">
         <v>0</v>
       </c>
       <c r="I18" s="41">
-        <v>0</v>
+        <v>-36.35</v>
       </c>
       <c r="J18" s="41">
-        <v>0</v>
+        <v>-2.27</v>
       </c>
       <c r="K18" s="41">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B19" s="41" t="s">
         <v>12</v>
       </c>
+      <c r="C19" s="20" t="s">
+        <v>260</v>
+      </c>
       <c r="D19" s="20">
         <v>5</v>
       </c>
@@ -7529,28 +7690,31 @@
         <v>6</v>
       </c>
       <c r="F19" s="41">
-        <v>2</v>
+        <v>-43.914000000000001</v>
       </c>
       <c r="G19" s="41">
-        <v>1</v>
+        <v>16.244</v>
       </c>
       <c r="H19" s="41">
         <v>0</v>
       </c>
       <c r="I19" s="41">
-        <v>0</v>
+        <v>-43.914000000000001</v>
       </c>
       <c r="J19" s="41">
-        <v>0</v>
+        <v>16.244</v>
       </c>
       <c r="K19" s="41">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B20" s="41" t="s">
         <v>12</v>
       </c>
+      <c r="C20" s="20" t="s">
+        <v>261</v>
+      </c>
       <c r="D20" s="20">
         <v>6</v>
       </c>
@@ -7558,356 +7722,403 @@
         <v>1</v>
       </c>
       <c r="F20" s="41">
-        <v>2</v>
+        <v>-69.34</v>
       </c>
       <c r="G20" s="41">
-        <v>0</v>
+        <v>-2.27</v>
       </c>
       <c r="H20" s="41">
         <v>0</v>
       </c>
       <c r="I20" s="41">
-        <v>0</v>
+        <v>-69.34</v>
       </c>
       <c r="J20" s="41">
-        <v>0</v>
+        <v>-2.27</v>
       </c>
       <c r="K20" s="41">
-        <v>1</v>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B21" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="D21" s="20">
+        <v>6</v>
+      </c>
+      <c r="E21" s="20">
+        <v>7</v>
+      </c>
+      <c r="F21" s="41">
+        <v>-69.34</v>
+      </c>
+      <c r="G21" s="41">
+        <v>-2.27</v>
+      </c>
+      <c r="H21" s="41">
+        <v>0</v>
+      </c>
+      <c r="I21" s="41">
+        <v>-69.34</v>
+      </c>
+      <c r="J21" s="41">
+        <v>-2.27</v>
+      </c>
+      <c r="K21" s="41">
+        <v>0.1</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="10"/>
-      <c r="V22" s="10"/>
-      <c r="W22" s="10"/>
-      <c r="X22" s="10"/>
-    </row>
-    <row r="23" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="111" t="s">
+      <c r="B22" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="D22" s="20">
+        <v>7</v>
+      </c>
+      <c r="E22" s="20">
+        <v>8</v>
+      </c>
+      <c r="F22" s="41">
+        <v>-43.9</v>
+      </c>
+      <c r="G22" s="41">
+        <v>-20.783999999999999</v>
+      </c>
+      <c r="H22" s="41">
+        <v>0</v>
+      </c>
+      <c r="I22" s="41">
+        <v>-43.9</v>
+      </c>
+      <c r="J22" s="41">
+        <v>-20.783999999999999</v>
+      </c>
+      <c r="K22" s="41">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B23" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="D23" s="20">
+        <v>8</v>
+      </c>
+      <c r="E23" s="20">
+        <v>3</v>
+      </c>
+      <c r="F23" s="41">
+        <v>-36.35</v>
+      </c>
+      <c r="G23" s="41">
+        <v>-2.27</v>
+      </c>
+      <c r="H23" s="41">
+        <v>0</v>
+      </c>
+      <c r="I23" s="41">
+        <v>-36.35</v>
+      </c>
+      <c r="J23" s="41">
+        <v>-2.27</v>
+      </c>
+      <c r="K23" s="41">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+    </row>
+    <row r="25" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="111"/>
-      <c r="C23" s="111"/>
-      <c r="D23" s="111"/>
-      <c r="E23" s="111"/>
-      <c r="F23" s="111"/>
-      <c r="G23" s="111"/>
-      <c r="H23" s="111"/>
-      <c r="I23" s="111"/>
-      <c r="J23" s="111"/>
-      <c r="K23" s="111"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="10"/>
-      <c r="V23" s="10"/>
-      <c r="W23" s="10"/>
-      <c r="X23" s="10"/>
-    </row>
-    <row r="24" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
+      <c r="B25" s="121"/>
+      <c r="C25" s="121"/>
+      <c r="D25" s="121"/>
+      <c r="E25" s="121"/>
+      <c r="F25" s="121"/>
+      <c r="G25" s="121"/>
+      <c r="H25" s="121"/>
+      <c r="I25" s="121"/>
+      <c r="J25" s="121"/>
+      <c r="K25" s="121"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+    </row>
+    <row r="26" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B26" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C26" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D26" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="15" t="s">
+      <c r="E26" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="112" t="s">
+      <c r="F26" s="122" t="s">
         <v>42</v>
       </c>
-      <c r="G24" s="112"/>
-      <c r="H24" s="112"/>
-      <c r="I24" s="110" t="s">
+      <c r="G26" s="122"/>
+      <c r="H26" s="122"/>
+      <c r="I26" s="120" t="s">
         <v>43</v>
       </c>
-      <c r="J24" s="110"/>
-      <c r="K24" s="110"/>
-    </row>
-    <row r="25" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-    </row>
-    <row r="26" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="9"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="10"/>
-      <c r="U26" s="10"/>
-      <c r="V26" s="10"/>
-      <c r="W26" s="10"/>
-      <c r="X26" s="10"/>
-    </row>
-    <row r="27" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="111" t="s">
+      <c r="J26" s="120"/>
+      <c r="K26" s="120"/>
+    </row>
+    <row r="27" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+    </row>
+    <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="9"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="10"/>
+      <c r="X28" s="10"/>
+    </row>
+    <row r="29" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="111"/>
-      <c r="C27" s="111"/>
-      <c r="D27" s="111"/>
-      <c r="E27" s="111"/>
-      <c r="F27" s="111"/>
-      <c r="G27" s="111"/>
-      <c r="H27" s="111"/>
-      <c r="I27" s="111"/>
-      <c r="J27" s="111"/>
-      <c r="K27" s="111"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="10"/>
-      <c r="V27" s="10"/>
-      <c r="W27" s="10"/>
-      <c r="X27" s="10"/>
-    </row>
-    <row r="28" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
+      <c r="B29" s="121"/>
+      <c r="C29" s="121"/>
+      <c r="D29" s="121"/>
+      <c r="E29" s="121"/>
+      <c r="F29" s="121"/>
+      <c r="G29" s="121"/>
+      <c r="H29" s="121"/>
+      <c r="I29" s="121"/>
+      <c r="J29" s="121"/>
+      <c r="K29" s="121"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="10"/>
+      <c r="W29" s="10"/>
+      <c r="X29" s="10"/>
+    </row>
+    <row r="30" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B30" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C30" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D30" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="E30" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F28" s="112" t="s">
+      <c r="F30" s="122" t="s">
         <v>42</v>
       </c>
-      <c r="G28" s="112"/>
-      <c r="H28" s="112"/>
-      <c r="I28" s="110" t="s">
+      <c r="G30" s="122"/>
+      <c r="H30" s="122"/>
+      <c r="I30" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="J28" s="110"/>
-      <c r="K28" s="110"/>
-    </row>
-    <row r="29" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:24" s="17" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="111" t="s">
+      <c r="J30" s="120"/>
+      <c r="K30" s="120"/>
+    </row>
+    <row r="31" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:24" s="17" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="121" t="s">
         <v>118</v>
       </c>
-      <c r="B30" s="111"/>
-      <c r="C30" s="111"/>
-      <c r="D30" s="111"/>
-      <c r="E30" s="111"/>
-      <c r="F30" s="111"/>
-      <c r="G30" s="111"/>
-      <c r="H30" s="111"/>
-      <c r="I30" s="111"/>
-      <c r="J30" s="111"/>
-      <c r="K30" s="111"/>
-      <c r="L30" s="111"/>
-      <c r="M30" s="111"/>
-      <c r="N30" s="111"/>
-    </row>
-    <row r="31" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="32" t="s">
+      <c r="B32" s="121"/>
+      <c r="C32" s="121"/>
+      <c r="D32" s="121"/>
+      <c r="E32" s="121"/>
+      <c r="F32" s="121"/>
+      <c r="G32" s="121"/>
+      <c r="H32" s="121"/>
+      <c r="I32" s="121"/>
+      <c r="J32" s="121"/>
+      <c r="K32" s="121"/>
+      <c r="L32" s="121"/>
+      <c r="M32" s="121"/>
+      <c r="N32" s="121"/>
+    </row>
+    <row r="33" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="32" t="s">
+      <c r="B33" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="32" t="s">
+      <c r="C33" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="32" t="s">
+      <c r="D33" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="E31" s="32" t="s">
+      <c r="E33" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="F31" s="112" t="s">
+      <c r="F33" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="G31" s="112"/>
-      <c r="H31" s="112"/>
-      <c r="I31" s="110" t="s">
+      <c r="G33" s="122"/>
+      <c r="H33" s="122"/>
+      <c r="I33" s="120" t="s">
         <v>47</v>
       </c>
-      <c r="J31" s="110"/>
-      <c r="K31" s="110"/>
-      <c r="L31" s="110" t="s">
+      <c r="J33" s="120"/>
+      <c r="K33" s="120"/>
+      <c r="L33" s="120" t="s">
         <v>119</v>
       </c>
-      <c r="M31" s="110"/>
-      <c r="N31" s="110"/>
-    </row>
-    <row r="32" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:24" s="17" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="111" t="s">
+      <c r="M33" s="120"/>
+      <c r="N33" s="120"/>
+    </row>
+    <row r="34" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:24" s="17" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="121" t="s">
         <v>120</v>
       </c>
-      <c r="B34" s="111"/>
-      <c r="C34" s="111"/>
-      <c r="D34" s="111"/>
-      <c r="E34" s="111"/>
-      <c r="F34" s="111"/>
-      <c r="G34" s="111"/>
-      <c r="H34" s="111"/>
-      <c r="I34" s="111"/>
-      <c r="J34" s="111"/>
-      <c r="K34" s="111"/>
-      <c r="L34" s="111"/>
-      <c r="M34" s="111"/>
-      <c r="N34" s="111"/>
-      <c r="O34" s="111"/>
-      <c r="P34" s="111"/>
-      <c r="Q34" s="111"/>
-    </row>
-    <row r="35" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="32" t="s">
+      <c r="B36" s="121"/>
+      <c r="C36" s="121"/>
+      <c r="D36" s="121"/>
+      <c r="E36" s="121"/>
+      <c r="F36" s="121"/>
+      <c r="G36" s="121"/>
+      <c r="H36" s="121"/>
+      <c r="I36" s="121"/>
+      <c r="J36" s="121"/>
+      <c r="K36" s="121"/>
+      <c r="L36" s="121"/>
+      <c r="M36" s="121"/>
+      <c r="N36" s="121"/>
+      <c r="O36" s="121"/>
+      <c r="P36" s="121"/>
+      <c r="Q36" s="121"/>
+    </row>
+    <row r="37" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="32" t="s">
+      <c r="B37" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="32" t="s">
+      <c r="C37" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="32" t="s">
+      <c r="D37" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="E35" s="32" t="s">
+      <c r="E37" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="F35" s="116" t="s">
+      <c r="F37" s="126" t="s">
         <v>46</v>
       </c>
-      <c r="G35" s="117"/>
-      <c r="H35" s="118"/>
-      <c r="I35" s="116" t="s">
+      <c r="G37" s="127"/>
+      <c r="H37" s="128"/>
+      <c r="I37" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="J35" s="117"/>
-      <c r="K35" s="118"/>
-      <c r="L35" s="110" t="s">
+      <c r="J37" s="127"/>
+      <c r="K37" s="128"/>
+      <c r="L37" s="120" t="s">
         <v>121</v>
       </c>
-      <c r="M35" s="110"/>
-      <c r="N35" s="110"/>
-      <c r="O35" s="110" t="s">
+      <c r="M37" s="120"/>
+      <c r="N37" s="120"/>
+      <c r="O37" s="120" t="s">
         <v>122</v>
       </c>
-      <c r="P35" s="110"/>
-      <c r="Q35" s="110"/>
-    </row>
-    <row r="36" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="19"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="19"/>
-      <c r="N36" s="19"/>
-      <c r="O36" s="19"/>
-      <c r="P36" s="19"/>
-      <c r="Q36" s="19"/>
-    </row>
-    <row r="37" spans="1:24" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H37"/>
-      <c r="I37"/>
-      <c r="J37"/>
-      <c r="K37"/>
-      <c r="L37"/>
-      <c r="M37"/>
-      <c r="N37"/>
-      <c r="O37"/>
-      <c r="P37"/>
-      <c r="Q37"/>
-      <c r="R37"/>
-    </row>
-    <row r="38" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="111" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38" s="111"/>
-      <c r="C38" s="111"/>
-      <c r="D38" s="111"/>
-      <c r="E38" s="111"/>
-      <c r="F38" s="111"/>
-      <c r="G38" s="11"/>
-      <c r="S38" s="10"/>
-      <c r="T38" s="10"/>
-      <c r="U38" s="10"/>
-      <c r="V38" s="10"/>
-      <c r="W38" s="10"/>
-      <c r="X38" s="10"/>
-    </row>
-    <row r="39" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" s="12"/>
+      <c r="P37" s="120"/>
+      <c r="Q37" s="120"/>
+    </row>
+    <row r="38" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="19"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="19"/>
+    </row>
+    <row r="39" spans="1:24" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H39"/>
       <c r="I39"/>
       <c r="J39"/>
@@ -7920,209 +8131,204 @@
       <c r="Q39"/>
       <c r="R39"/>
     </row>
-    <row r="40" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="19"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="12"/>
-      <c r="H40"/>
-      <c r="I40"/>
-      <c r="J40"/>
-      <c r="K40"/>
-      <c r="L40"/>
-      <c r="M40"/>
-      <c r="N40"/>
-      <c r="O40"/>
-      <c r="P40"/>
-      <c r="Q40"/>
-      <c r="R40"/>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="S41" s="10"/>
-      <c r="T41" s="10"/>
-      <c r="U41" s="10"/>
-      <c r="V41" s="10"/>
-      <c r="W41" s="10"/>
-      <c r="X41" s="10"/>
-    </row>
-    <row r="42" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="111" t="s">
+    <row r="40" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A40" s="121" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="121"/>
+      <c r="C40" s="121"/>
+      <c r="D40" s="121"/>
+      <c r="E40" s="121"/>
+      <c r="F40" s="121"/>
+      <c r="G40" s="11"/>
+      <c r="S40" s="10"/>
+      <c r="T40" s="10"/>
+      <c r="U40" s="10"/>
+      <c r="V40" s="10"/>
+      <c r="W40" s="10"/>
+      <c r="X40" s="10"/>
+    </row>
+    <row r="41" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" s="12"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41"/>
+      <c r="P41"/>
+      <c r="Q41"/>
+      <c r="R41"/>
+    </row>
+    <row r="42" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="19"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="12"/>
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42"/>
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="M42"/>
+      <c r="N42"/>
+      <c r="O42"/>
+      <c r="P42"/>
+      <c r="Q42"/>
+      <c r="R42"/>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A43" s="7"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="S43" s="10"/>
+      <c r="T43" s="10"/>
+      <c r="U43" s="10"/>
+      <c r="V43" s="10"/>
+      <c r="W43" s="10"/>
+      <c r="X43" s="10"/>
+    </row>
+    <row r="44" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A44" s="121" t="s">
         <v>19</v>
       </c>
-      <c r="B42" s="111"/>
-      <c r="C42" s="111"/>
-      <c r="D42" s="111"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="S42" s="10"/>
-      <c r="T42" s="10"/>
-      <c r="U42" s="10"/>
-      <c r="V42" s="10"/>
-      <c r="W42" s="10"/>
-      <c r="X42" s="10"/>
-    </row>
-    <row r="43" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43"/>
-      <c r="I43"/>
-      <c r="J43"/>
-      <c r="K43"/>
-      <c r="L43"/>
-      <c r="M43"/>
-      <c r="N43"/>
-      <c r="O43"/>
-      <c r="P43"/>
-      <c r="Q43"/>
-      <c r="R43"/>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
-        <v>1</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D44" s="4">
-        <v>1</v>
-      </c>
+      <c r="B44" s="121"/>
+      <c r="C44" s="121"/>
+      <c r="D44" s="121"/>
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-    </row>
-    <row r="46" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A46" s="113" t="s">
+      <c r="S44" s="10"/>
+      <c r="T44" s="10"/>
+      <c r="U44" s="10"/>
+      <c r="V44" s="10"/>
+      <c r="W44" s="10"/>
+      <c r="X44" s="10"/>
+    </row>
+    <row r="45" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45"/>
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45"/>
+      <c r="N45"/>
+      <c r="O45"/>
+      <c r="P45"/>
+      <c r="Q45"/>
+      <c r="R45"/>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>1</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D46" s="4">
+        <v>1</v>
+      </c>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+    </row>
+    <row r="48" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A48" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="B46" s="114"/>
-      <c r="C46" s="114"/>
-      <c r="D46" s="114"/>
-      <c r="E46" s="114"/>
-      <c r="F46" s="114"/>
-      <c r="G46" s="115"/>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A47" s="59" t="s">
+      <c r="B48" s="124"/>
+      <c r="C48" s="124"/>
+      <c r="D48" s="124"/>
+      <c r="E48" s="124"/>
+      <c r="F48" s="124"/>
+      <c r="G48" s="125"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A49" s="59" t="s">
         <v>228</v>
       </c>
-      <c r="B47" s="59" t="s">
+      <c r="B49" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="C47" s="59" t="s">
+      <c r="C49" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="D47" s="59" t="s">
+      <c r="D49" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="E47" s="110" t="s">
+      <c r="E49" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="F47" s="110"/>
-      <c r="G47" s="110"/>
-    </row>
-    <row r="48" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="41"/>
-      <c r="B48" s="41" t="s">
-        <v>235</v>
-      </c>
-      <c r="D48" s="17">
-        <v>2</v>
-      </c>
-      <c r="E48" s="17">
-        <v>0</v>
-      </c>
-      <c r="F48" s="17">
-        <v>0</v>
-      </c>
-      <c r="G48" s="17">
-        <v>0</v>
-      </c>
-      <c r="H48"/>
-      <c r="I48"/>
-      <c r="J48"/>
-      <c r="K48"/>
-      <c r="L48"/>
-      <c r="M48"/>
-      <c r="N48"/>
-      <c r="O48"/>
-      <c r="P48"/>
-      <c r="Q48"/>
-      <c r="R48"/>
-    </row>
-    <row r="49" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="41" t="s">
-        <v>235</v>
-      </c>
-      <c r="D49" s="17">
-        <v>2</v>
-      </c>
-      <c r="E49" s="17">
-        <v>1</v>
-      </c>
-      <c r="F49" s="17">
-        <v>0</v>
-      </c>
-      <c r="G49" s="17">
-        <v>0</v>
-      </c>
-      <c r="H49"/>
-      <c r="I49"/>
-      <c r="J49"/>
-      <c r="K49"/>
-      <c r="L49"/>
-      <c r="M49"/>
-      <c r="N49"/>
-      <c r="O49"/>
-      <c r="P49"/>
-      <c r="Q49"/>
-      <c r="R49"/>
+      <c r="F49" s="120"/>
+      <c r="G49" s="120"/>
     </row>
     <row r="50" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="41"/>
       <c r="B50" s="41" t="s">
         <v>235</v>
       </c>
+      <c r="C50" s="17" t="s">
+        <v>265</v>
+      </c>
       <c r="D50" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E50" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" s="17">
         <v>0</v>
@@ -8142,54 +8348,85 @@
       <c r="Q50"/>
       <c r="R50"/>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="41"/>
+    <row r="51" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="41" t="s">
         <v>235</v>
       </c>
+      <c r="C51" s="17" t="s">
+        <v>266</v>
+      </c>
       <c r="D51" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E51" s="17">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F51" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H51"/>
+      <c r="I51"/>
+      <c r="J51"/>
+      <c r="K51"/>
+      <c r="L51"/>
+      <c r="M51"/>
+      <c r="N51"/>
+      <c r="O51"/>
+      <c r="P51"/>
+      <c r="Q51"/>
+      <c r="R51"/>
+    </row>
+    <row r="52" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="41"/>
       <c r="B52" s="41" t="s">
         <v>235</v>
       </c>
-      <c r="C52" s="10"/>
+      <c r="C52" s="17" t="s">
+        <v>267</v>
+      </c>
       <c r="D52" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E52" s="17">
-        <v>1</v>
+        <v>-36.35</v>
       </c>
       <c r="F52" s="17">
-        <v>0</v>
+        <v>-2.27</v>
       </c>
       <c r="G52" s="17">
         <v>0</v>
       </c>
+      <c r="H52"/>
+      <c r="I52"/>
+      <c r="J52"/>
+      <c r="K52"/>
+      <c r="L52"/>
+      <c r="M52"/>
+      <c r="N52"/>
+      <c r="O52"/>
+      <c r="P52"/>
+      <c r="Q52"/>
+      <c r="R52"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A53" s="41"/>
       <c r="B53" s="41" t="s">
         <v>235</v>
       </c>
+      <c r="C53" s="74" t="s">
+        <v>268</v>
+      </c>
       <c r="D53" s="17">
         <v>4</v>
       </c>
       <c r="E53" s="17">
-        <v>1</v>
+        <v>-36.35</v>
       </c>
       <c r="F53" s="17">
-        <v>1</v>
+        <v>32.729999999999997</v>
       </c>
       <c r="G53" s="17">
         <v>0</v>
@@ -8199,16 +8436,19 @@
       <c r="B54" s="41" t="s">
         <v>235</v>
       </c>
-      <c r="D54" s="41">
-        <v>5</v>
-      </c>
-      <c r="E54" s="41">
-        <v>1</v>
-      </c>
-      <c r="F54" s="41">
-        <v>1</v>
-      </c>
-      <c r="G54" s="41">
+      <c r="C54" s="74" t="s">
+        <v>269</v>
+      </c>
+      <c r="D54" s="74">
+        <v>4</v>
+      </c>
+      <c r="E54" s="17">
+        <v>-16.350000000000001</v>
+      </c>
+      <c r="F54" s="17">
+        <v>14.73</v>
+      </c>
+      <c r="G54" s="17">
         <v>0</v>
       </c>
     </row>
@@ -8216,16 +8456,19 @@
       <c r="B55" s="41" t="s">
         <v>235</v>
       </c>
-      <c r="D55" s="41">
-        <v>5</v>
-      </c>
-      <c r="E55" s="41">
-        <v>2</v>
-      </c>
-      <c r="F55" s="41">
-        <v>1</v>
-      </c>
-      <c r="G55" s="41">
+      <c r="C55" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="D55" s="17">
+        <v>4</v>
+      </c>
+      <c r="E55" s="17">
+        <v>-36.35</v>
+      </c>
+      <c r="F55" s="17">
+        <v>-2.27</v>
+      </c>
+      <c r="G55" s="17">
         <v>0</v>
       </c>
     </row>
@@ -8233,39 +8476,144 @@
       <c r="B56" s="41" t="s">
         <v>235</v>
       </c>
+      <c r="C56" s="17" t="s">
+        <v>270</v>
+      </c>
       <c r="D56" s="41">
-        <v>6</v>
-      </c>
-      <c r="E56" s="41">
-        <v>2</v>
-      </c>
-      <c r="F56" s="41">
-        <v>1</v>
-      </c>
-      <c r="G56" s="41">
+        <v>5</v>
+      </c>
+      <c r="E56" s="17">
+        <v>-43.914000000000001</v>
+      </c>
+      <c r="F56" s="17">
+        <v>16.244</v>
+      </c>
+      <c r="G56" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A57" s="13"/>
       <c r="B57" s="41" t="s">
         <v>235</v>
       </c>
-      <c r="C57" s="13"/>
+      <c r="C57" s="17" t="s">
+        <v>270</v>
+      </c>
       <c r="D57" s="41">
         <v>6</v>
       </c>
-      <c r="E57" s="41">
-        <v>2</v>
-      </c>
-      <c r="F57" s="41">
-        <v>0</v>
-      </c>
-      <c r="G57" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="E57" s="17">
+        <v>-43.914000000000001</v>
+      </c>
+      <c r="F57" s="17">
+        <v>16.244</v>
+      </c>
+      <c r="G57" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B58" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="C58" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="D58" s="41">
+        <v>6</v>
+      </c>
+      <c r="E58" s="17">
+        <v>-69.34</v>
+      </c>
+      <c r="F58" s="17">
+        <v>-2.27</v>
+      </c>
+      <c r="G58" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B59" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="C59" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="D59" s="41">
+        <v>7</v>
+      </c>
+      <c r="E59" s="17">
+        <v>-69.34</v>
+      </c>
+      <c r="F59" s="17">
+        <v>-2.27</v>
+      </c>
+      <c r="G59" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A60" s="13"/>
+      <c r="B60" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="D60" s="41">
+        <v>7</v>
+      </c>
+      <c r="E60" s="17">
+        <v>-43.914000000000001</v>
+      </c>
+      <c r="F60" s="17">
+        <v>-20.783999999999999</v>
+      </c>
+      <c r="G60" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B61" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="C61" s="41" t="s">
+        <v>272</v>
+      </c>
+      <c r="D61" s="41">
+        <v>8</v>
+      </c>
+      <c r="E61" s="17">
+        <v>-43.914000000000001</v>
+      </c>
+      <c r="F61" s="17">
+        <v>-20.783999999999999</v>
+      </c>
+      <c r="G61" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B62" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="C62" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="D62" s="17">
+        <v>8</v>
+      </c>
+      <c r="E62" s="17">
+        <v>-36.35</v>
+      </c>
+      <c r="F62" s="17">
+        <v>-2.27</v>
+      </c>
+      <c r="G62" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="31">
     <mergeCell ref="A1:H1"/>
@@ -8280,36 +8628,36 @@
     <mergeCell ref="A12:K12"/>
     <mergeCell ref="F13:H13"/>
     <mergeCell ref="I13:K13"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="A27:K27"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A46:G46"/>
-    <mergeCell ref="A30:N30"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="A34:Q34"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="L35:N35"/>
-    <mergeCell ref="O35:Q35"/>
+    <mergeCell ref="A25:K25"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="A29:K29"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A48:G48"/>
+    <mergeCell ref="A32:N32"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="A36:Q36"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="L37:N37"/>
+    <mergeCell ref="O37:Q37"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B26" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Spherical,Universal,Revolute,Translation,Cylindrical,Simple,Ground,Driver"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B58:B1040" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B63:B1043" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"Spherical,Universal,Revolute,Cylindrical,Translation,Simple,Driver,Ground,Point"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B48:B57" xr:uid="{BC2F65C6-D0C1-488D-AFE3-0640C585FC3A}">
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B50:B62" xr:uid="{BC2F65C6-D0C1-488D-AFE3-0640C585FC3A}">
       <formula1>"Spherical,Universal,Revolute,Cylindrical,Translation,Simple,Driver,Ground,Point"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8322,8 +8670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4658AC4-6667-4045-B0FE-42E281567C35}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8336,21 +8684,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="129" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120" t="s">
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130" t="s">
         <v>247</v>
       </c>
-      <c r="K1" s="120"/>
+      <c r="K1" s="130"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="62" t="s">
@@ -8368,11 +8716,11 @@
       <c r="E2" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="110" t="s">
+      <c r="F2" s="120" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
       <c r="I2" s="62" t="s">
         <v>244</v>
       </c>
@@ -8385,14 +8733,28 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
-      <c r="B3" s="41"/>
+      <c r="B3" s="41" t="s">
+        <v>130</v>
+      </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="23"/>
+      <c r="D3" s="41">
+        <v>2</v>
+      </c>
+      <c r="E3" s="41">
+        <v>3</v>
+      </c>
+      <c r="F3" s="17">
+        <v>0</v>
+      </c>
+      <c r="G3" s="17">
+        <v>0</v>
+      </c>
+      <c r="H3" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>274</v>
+      </c>
       <c r="J3" s="23"/>
       <c r="K3" s="23"/>
     </row>
@@ -8417,10 +8779,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F55610B-D925-4735-AE3D-EBBD0AD81ACC}">
-  <dimension ref="A1:AG20"/>
+  <dimension ref="A1:AG21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8445,58 +8807,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="129" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
-      <c r="L1" s="120"/>
-      <c r="M1" s="120"/>
-      <c r="N1" s="120"/>
-      <c r="O1" s="120"/>
-      <c r="P1" s="120"/>
-      <c r="Q1" s="120"/>
-      <c r="R1" s="120"/>
-      <c r="S1" s="120"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
+      <c r="N1" s="130"/>
+      <c r="O1" s="130"/>
+      <c r="P1" s="130"/>
+      <c r="Q1" s="130"/>
+      <c r="R1" s="130"/>
+      <c r="S1" s="130"/>
     </row>
     <row r="2" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="111"/>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="121" t="s">
+      <c r="A2" s="121"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="121"/>
+      <c r="M2" s="121"/>
+      <c r="N2" s="131" t="s">
         <v>237</v>
       </c>
-      <c r="O2" s="122"/>
-      <c r="P2" s="122"/>
-      <c r="Q2" s="122"/>
-      <c r="R2" s="122"/>
-      <c r="S2" s="123"/>
-      <c r="AB2" s="135" t="s">
+      <c r="O2" s="132"/>
+      <c r="P2" s="132"/>
+      <c r="Q2" s="132"/>
+      <c r="R2" s="132"/>
+      <c r="S2" s="133"/>
+      <c r="AB2" s="145" t="s">
         <v>115</v>
       </c>
-      <c r="AC2" s="136"/>
-      <c r="AD2" s="136"/>
-      <c r="AE2" s="136"/>
-      <c r="AF2" s="136"/>
-      <c r="AG2" s="137"/>
+      <c r="AC2" s="146"/>
+      <c r="AD2" s="146"/>
+      <c r="AE2" s="146"/>
+      <c r="AF2" s="146"/>
+      <c r="AG2" s="147"/>
     </row>
     <row r="3" spans="1:33" s="30" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="64" t="s">
@@ -8514,16 +8876,16 @@
       <c r="E3" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="130" t="s">
+      <c r="F3" s="140" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="131"/>
-      <c r="H3" s="132"/>
-      <c r="I3" s="124" t="s">
+      <c r="G3" s="141"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="134" t="s">
         <v>47</v>
       </c>
-      <c r="J3" s="125"/>
-      <c r="K3" s="126"/>
+      <c r="J3" s="135"/>
+      <c r="K3" s="136"/>
       <c r="L3" s="57" t="s">
         <v>232</v>
       </c>
@@ -8542,129 +8904,129 @@
       <c r="Q3" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="R3" s="133" t="s">
+      <c r="R3" s="143" t="s">
         <v>114</v>
       </c>
-      <c r="S3" s="133"/>
-      <c r="AB3" s="138"/>
-      <c r="AC3" s="139"/>
-      <c r="AD3" s="139"/>
-      <c r="AE3" s="139"/>
-      <c r="AF3" s="139"/>
-      <c r="AG3" s="140"/>
+      <c r="S3" s="143"/>
+      <c r="AB3" s="148"/>
+      <c r="AC3" s="149"/>
+      <c r="AD3" s="149"/>
+      <c r="AE3" s="149"/>
+      <c r="AF3" s="149"/>
+      <c r="AG3" s="150"/>
     </row>
     <row r="4" spans="1:33" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="146"/>
-      <c r="B4" s="146" t="s">
+      <c r="A4" s="72"/>
+      <c r="B4" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="146"/>
-      <c r="D4" s="146">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72">
+        <v>4</v>
+      </c>
+      <c r="E4" s="72">
         <v>1</v>
       </c>
-      <c r="E4" s="146">
-        <v>4</v>
-      </c>
-      <c r="F4" s="146">
-        <v>0.1</v>
-      </c>
-      <c r="G4" s="146">
-        <v>0.2</v>
-      </c>
-      <c r="H4" s="146">
-        <v>0</v>
-      </c>
-      <c r="I4" s="147">
-        <v>0</v>
-      </c>
-      <c r="J4" s="147">
-        <v>0.1</v>
-      </c>
-      <c r="K4" s="147">
-        <v>0</v>
-      </c>
-      <c r="L4" s="148">
-        <v>7.7850000000000003E-2</v>
-      </c>
-      <c r="M4" s="149">
-        <v>4530</v>
-      </c>
-      <c r="N4" s="146"/>
-      <c r="O4" s="146"/>
-      <c r="P4" s="146"/>
-      <c r="Q4" s="149"/>
-      <c r="R4" s="146"/>
-      <c r="S4" s="146"/>
-      <c r="AB4" s="138"/>
-      <c r="AC4" s="139"/>
-      <c r="AD4" s="139"/>
-      <c r="AE4" s="139"/>
-      <c r="AF4" s="139"/>
-      <c r="AG4" s="140"/>
+      <c r="F4" s="72">
+        <v>-16.350000000000001</v>
+      </c>
+      <c r="G4" s="72">
+        <v>14.73</v>
+      </c>
+      <c r="H4" s="72">
+        <v>0</v>
+      </c>
+      <c r="I4" s="72">
+        <v>14</v>
+      </c>
+      <c r="J4" s="72">
+        <v>72.3</v>
+      </c>
+      <c r="K4" s="72">
+        <v>0</v>
+      </c>
+      <c r="L4" s="72">
+        <v>77.849999999999994</v>
+      </c>
+      <c r="M4" s="73">
+        <v>2</v>
+      </c>
+      <c r="N4" s="72"/>
+      <c r="O4" s="72"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="72"/>
+      <c r="S4" s="72"/>
+      <c r="AB4" s="148"/>
+      <c r="AC4" s="149"/>
+      <c r="AD4" s="149"/>
+      <c r="AE4" s="149"/>
+      <c r="AF4" s="149"/>
+      <c r="AG4" s="150"/>
     </row>
     <row r="5" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AB5" s="138"/>
-      <c r="AC5" s="139"/>
-      <c r="AD5" s="139"/>
-      <c r="AE5" s="139"/>
-      <c r="AF5" s="139"/>
-      <c r="AG5" s="140"/>
+      <c r="AB5" s="148"/>
+      <c r="AC5" s="149"/>
+      <c r="AD5" s="149"/>
+      <c r="AE5" s="149"/>
+      <c r="AF5" s="149"/>
+      <c r="AG5" s="150"/>
     </row>
     <row r="6" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="119" t="s">
+      <c r="A6" s="129" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="120"/>
-      <c r="C6" s="120"/>
-      <c r="D6" s="120"/>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="120"/>
-      <c r="H6" s="120"/>
-      <c r="I6" s="120"/>
-      <c r="J6" s="120"/>
-      <c r="K6" s="120"/>
-      <c r="L6" s="120"/>
-      <c r="M6" s="120"/>
-      <c r="N6" s="120"/>
-      <c r="O6" s="120"/>
-      <c r="P6" s="120"/>
-      <c r="Q6" s="120"/>
-      <c r="R6" s="120"/>
-      <c r="AB6" s="138"/>
-      <c r="AC6" s="139"/>
-      <c r="AD6" s="139"/>
-      <c r="AE6" s="139"/>
-      <c r="AF6" s="139"/>
-      <c r="AG6" s="140"/>
+      <c r="B6" s="130"/>
+      <c r="C6" s="130"/>
+      <c r="D6" s="130"/>
+      <c r="E6" s="130"/>
+      <c r="F6" s="130"/>
+      <c r="G6" s="130"/>
+      <c r="H6" s="130"/>
+      <c r="I6" s="130"/>
+      <c r="J6" s="130"/>
+      <c r="K6" s="130"/>
+      <c r="L6" s="130"/>
+      <c r="M6" s="130"/>
+      <c r="N6" s="130"/>
+      <c r="O6" s="130"/>
+      <c r="P6" s="130"/>
+      <c r="Q6" s="130"/>
+      <c r="R6" s="130"/>
+      <c r="AB6" s="148"/>
+      <c r="AC6" s="149"/>
+      <c r="AD6" s="149"/>
+      <c r="AE6" s="149"/>
+      <c r="AF6" s="149"/>
+      <c r="AG6" s="150"/>
     </row>
     <row r="7" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="111"/>
-      <c r="B7" s="111"/>
-      <c r="C7" s="111"/>
-      <c r="D7" s="111"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="111"/>
-      <c r="G7" s="111"/>
-      <c r="H7" s="111"/>
-      <c r="I7" s="111"/>
-      <c r="J7" s="111"/>
-      <c r="K7" s="111"/>
-      <c r="L7" s="111"/>
-      <c r="M7" s="111"/>
-      <c r="N7" s="134" t="s">
+      <c r="A7" s="121"/>
+      <c r="B7" s="121"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="121"/>
+      <c r="K7" s="121"/>
+      <c r="L7" s="121"/>
+      <c r="M7" s="121"/>
+      <c r="N7" s="144" t="s">
         <v>236</v>
       </c>
-      <c r="O7" s="134"/>
-      <c r="P7" s="134"/>
-      <c r="Q7" s="134"/>
-      <c r="R7" s="134"/>
-      <c r="AB7" s="138"/>
-      <c r="AC7" s="139"/>
-      <c r="AD7" s="139"/>
-      <c r="AE7" s="139"/>
-      <c r="AF7" s="139"/>
-      <c r="AG7" s="140"/>
+      <c r="O7" s="144"/>
+      <c r="P7" s="144"/>
+      <c r="Q7" s="144"/>
+      <c r="R7" s="144"/>
+      <c r="AB7" s="148"/>
+      <c r="AC7" s="149"/>
+      <c r="AD7" s="149"/>
+      <c r="AE7" s="149"/>
+      <c r="AF7" s="149"/>
+      <c r="AG7" s="150"/>
     </row>
     <row r="8" spans="1:33" s="30" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="64" t="s">
@@ -8682,16 +9044,16 @@
       <c r="E8" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="130" t="s">
+      <c r="F8" s="140" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="131"/>
-      <c r="H8" s="132"/>
-      <c r="I8" s="124" t="s">
+      <c r="G8" s="141"/>
+      <c r="H8" s="142"/>
+      <c r="I8" s="134" t="s">
         <v>47</v>
       </c>
-      <c r="J8" s="125"/>
-      <c r="K8" s="126"/>
+      <c r="J8" s="135"/>
+      <c r="K8" s="136"/>
       <c r="L8" s="35" t="s">
         <v>108</v>
       </c>
@@ -8707,172 +9069,196 @@
       <c r="P8" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="Q8" s="130" t="s">
+      <c r="Q8" s="140" t="s">
         <v>113</v>
       </c>
-      <c r="R8" s="132"/>
-      <c r="AB8" s="138"/>
-      <c r="AC8" s="139"/>
-      <c r="AD8" s="139"/>
-      <c r="AE8" s="139"/>
-      <c r="AF8" s="139"/>
-      <c r="AG8" s="140"/>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="Q9" s="41"/>
-      <c r="AB9" s="138"/>
-      <c r="AC9" s="139"/>
-      <c r="AD9" s="139"/>
-      <c r="AE9" s="139"/>
-      <c r="AF9" s="139"/>
-      <c r="AG9" s="140"/>
-    </row>
-    <row r="10" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="119" t="s">
+      <c r="R8" s="142"/>
+      <c r="AB8" s="148"/>
+      <c r="AC8" s="149"/>
+      <c r="AD8" s="149"/>
+      <c r="AE8" s="149"/>
+      <c r="AF8" s="149"/>
+      <c r="AG8" s="150"/>
+    </row>
+    <row r="9" spans="1:33" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="72"/>
+      <c r="B9" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72">
+        <v>4</v>
+      </c>
+      <c r="E9" s="72">
+        <v>1</v>
+      </c>
+      <c r="F9" s="72">
+        <v>-16.350000000000001</v>
+      </c>
+      <c r="G9" s="72">
+        <v>14.73</v>
+      </c>
+      <c r="H9" s="72">
+        <v>0</v>
+      </c>
+      <c r="I9" s="72">
+        <v>14</v>
+      </c>
+      <c r="J9" s="72">
+        <v>72.3</v>
+      </c>
+      <c r="K9" s="72">
+        <v>0</v>
+      </c>
+      <c r="L9" s="73">
+        <v>1</v>
+      </c>
+      <c r="M9" s="72"/>
+      <c r="N9" s="72"/>
+      <c r="O9" s="72"/>
+      <c r="P9" s="73"/>
+      <c r="Q9" s="72"/>
+      <c r="R9" s="72"/>
+      <c r="AB9" s="148"/>
+      <c r="AC9" s="149"/>
+      <c r="AD9" s="149"/>
+      <c r="AE9" s="149"/>
+      <c r="AF9" s="149"/>
+      <c r="AG9" s="150"/>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="Q10" s="41"/>
+      <c r="AB10" s="148"/>
+      <c r="AC10" s="149"/>
+      <c r="AD10" s="149"/>
+      <c r="AE10" s="149"/>
+      <c r="AF10" s="149"/>
+      <c r="AG10" s="150"/>
+    </row>
+    <row r="11" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="129" t="s">
         <v>74</v>
       </c>
-      <c r="B10" s="120"/>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="120"/>
-      <c r="I10" s="120"/>
-      <c r="J10" s="120"/>
-      <c r="K10" s="120"/>
-      <c r="L10" s="120"/>
-      <c r="M10" s="120"/>
-      <c r="N10" s="120"/>
-      <c r="O10" s="120"/>
-      <c r="P10" s="120"/>
-      <c r="Q10" s="120"/>
-      <c r="R10" s="120"/>
-      <c r="S10" s="120"/>
-      <c r="T10" s="120"/>
-      <c r="U10" s="120"/>
-      <c r="V10" s="120"/>
-      <c r="W10" s="120"/>
-      <c r="X10" s="120"/>
-      <c r="Y10" s="120"/>
-      <c r="AB10" s="141"/>
-      <c r="AC10" s="142"/>
-      <c r="AD10" s="142"/>
-      <c r="AE10" s="142"/>
-      <c r="AF10" s="142"/>
-      <c r="AG10" s="143"/>
-    </row>
-    <row r="11" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="113"/>
-      <c r="B11" s="114"/>
-      <c r="C11" s="114"/>
-      <c r="D11" s="114"/>
-      <c r="E11" s="114"/>
-      <c r="F11" s="114"/>
-      <c r="G11" s="114"/>
-      <c r="H11" s="114"/>
-      <c r="I11" s="114"/>
-      <c r="J11" s="114"/>
-      <c r="K11" s="114"/>
-      <c r="L11" s="114"/>
-      <c r="M11" s="114"/>
-      <c r="N11" s="114"/>
-      <c r="O11" s="114"/>
-      <c r="P11" s="114"/>
-      <c r="Q11" s="114"/>
-      <c r="R11" s="114"/>
-      <c r="S11" s="115"/>
-      <c r="T11" s="121" t="s">
+      <c r="B11" s="130"/>
+      <c r="C11" s="130"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="130"/>
+      <c r="F11" s="130"/>
+      <c r="G11" s="130"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="130"/>
+      <c r="J11" s="130"/>
+      <c r="K11" s="130"/>
+      <c r="L11" s="130"/>
+      <c r="M11" s="130"/>
+      <c r="N11" s="130"/>
+      <c r="O11" s="130"/>
+      <c r="P11" s="130"/>
+      <c r="Q11" s="130"/>
+      <c r="R11" s="130"/>
+      <c r="S11" s="130"/>
+      <c r="T11" s="130"/>
+      <c r="U11" s="130"/>
+      <c r="V11" s="130"/>
+      <c r="W11" s="130"/>
+      <c r="X11" s="130"/>
+      <c r="Y11" s="130"/>
+      <c r="AB11" s="151"/>
+      <c r="AC11" s="152"/>
+      <c r="AD11" s="152"/>
+      <c r="AE11" s="152"/>
+      <c r="AF11" s="152"/>
+      <c r="AG11" s="153"/>
+    </row>
+    <row r="12" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="123"/>
+      <c r="B12" s="124"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
+      <c r="F12" s="124"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="124"/>
+      <c r="I12" s="124"/>
+      <c r="J12" s="124"/>
+      <c r="K12" s="124"/>
+      <c r="L12" s="124"/>
+      <c r="M12" s="124"/>
+      <c r="N12" s="124"/>
+      <c r="O12" s="124"/>
+      <c r="P12" s="124"/>
+      <c r="Q12" s="124"/>
+      <c r="R12" s="124"/>
+      <c r="S12" s="125"/>
+      <c r="T12" s="131" t="s">
         <v>238</v>
       </c>
-      <c r="U11" s="122"/>
-      <c r="V11" s="122"/>
-      <c r="W11" s="122"/>
-      <c r="X11" s="122"/>
-      <c r="Y11" s="123"/>
-      <c r="Z11" s="65"/>
-      <c r="AA11" s="65"/>
-    </row>
-    <row r="12" spans="1:33" s="30" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
+      <c r="U12" s="132"/>
+      <c r="V12" s="132"/>
+      <c r="W12" s="132"/>
+      <c r="X12" s="132"/>
+      <c r="Y12" s="133"/>
+      <c r="Z12" s="65"/>
+      <c r="AA12" s="65"/>
+    </row>
+    <row r="13" spans="1:33" s="30" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B13" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C13" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D13" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E13" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="144" t="s">
+      <c r="F13" s="154" t="s">
         <v>240</v>
       </c>
-      <c r="G12" s="144"/>
-      <c r="H12" s="144"/>
-      <c r="I12" s="124" t="s">
+      <c r="G13" s="154"/>
+      <c r="H13" s="154"/>
+      <c r="I13" s="134" t="s">
         <v>241</v>
       </c>
-      <c r="J12" s="125"/>
-      <c r="K12" s="126"/>
-      <c r="L12" s="127" t="s">
+      <c r="J13" s="135"/>
+      <c r="K13" s="136"/>
+      <c r="L13" s="137" t="s">
         <v>242</v>
       </c>
-      <c r="M12" s="128"/>
-      <c r="N12" s="129"/>
-      <c r="O12" s="127" t="s">
+      <c r="M13" s="138"/>
+      <c r="N13" s="139"/>
+      <c r="O13" s="137" t="s">
         <v>243</v>
       </c>
-      <c r="P12" s="128"/>
-      <c r="Q12" s="129"/>
-      <c r="R12" s="35" t="s">
+      <c r="P13" s="138"/>
+      <c r="Q13" s="139"/>
+      <c r="R13" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="S12" s="31" t="s">
+      <c r="S13" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="T12" s="64" t="s">
+      <c r="T13" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="U12" s="64" t="s">
+      <c r="U13" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="V12" s="64" t="s">
+      <c r="V13" s="64" t="s">
         <v>111</v>
       </c>
-      <c r="W12" s="35" t="s">
+      <c r="W13" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="X12" s="130" t="s">
+      <c r="X13" s="140" t="s">
         <v>114</v>
       </c>
-      <c r="Y12" s="132"/>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="41"/>
-      <c r="R13" s="33"/>
-      <c r="S13" s="33"/>
-      <c r="T13" s="33"/>
+      <c r="Y13" s="142"/>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="33"/>
@@ -8891,110 +9277,117 @@
       <c r="N14" s="33"/>
       <c r="O14" s="33"/>
       <c r="P14" s="33"/>
-      <c r="Q14" s="33"/>
+      <c r="Q14" s="41"/>
       <c r="R14" s="33"/>
       <c r="S14" s="33"/>
       <c r="T14" s="33"/>
     </row>
-    <row r="15" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="119" t="s">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="33"/>
+      <c r="S15" s="33"/>
+      <c r="T15" s="33"/>
+    </row>
+    <row r="16" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="129" t="s">
         <v>142</v>
       </c>
-      <c r="B15" s="120"/>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="120"/>
-      <c r="J15" s="120"/>
-      <c r="K15" s="120"/>
-      <c r="L15" s="120"/>
-      <c r="M15" s="120"/>
-      <c r="N15" s="120"/>
-      <c r="O15" s="120"/>
-      <c r="P15" s="120"/>
-      <c r="Q15" s="120"/>
-    </row>
-    <row r="16" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="66"/>
-      <c r="B16" s="67"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="121" t="s">
+      <c r="B16" s="130"/>
+      <c r="C16" s="130"/>
+      <c r="D16" s="130"/>
+      <c r="E16" s="130"/>
+      <c r="F16" s="130"/>
+      <c r="G16" s="130"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="130"/>
+      <c r="J16" s="130"/>
+      <c r="K16" s="130"/>
+      <c r="L16" s="130"/>
+      <c r="M16" s="130"/>
+      <c r="N16" s="130"/>
+      <c r="O16" s="130"/>
+      <c r="P16" s="130"/>
+      <c r="Q16" s="130"/>
+    </row>
+    <row r="17" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="66"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="131" t="s">
         <v>237</v>
       </c>
-      <c r="M16" s="122"/>
-      <c r="N16" s="122"/>
-      <c r="O16" s="122"/>
-      <c r="P16" s="122"/>
-      <c r="Q16" s="123"/>
-    </row>
-    <row r="17" spans="1:17" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="63" t="s">
+      <c r="M17" s="132"/>
+      <c r="N17" s="132"/>
+      <c r="O17" s="132"/>
+      <c r="P17" s="132"/>
+      <c r="Q17" s="133"/>
+    </row>
+    <row r="18" spans="1:17" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="63" t="s">
+      <c r="B18" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="63" t="s">
+      <c r="C18" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="63" t="s">
+      <c r="D18" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="63" t="s">
+      <c r="E18" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="144" t="s">
+      <c r="F18" s="154" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="144"/>
-      <c r="H17" s="144"/>
-      <c r="I17" s="127" t="s">
+      <c r="G18" s="154"/>
+      <c r="H18" s="154"/>
+      <c r="I18" s="137" t="s">
         <v>151</v>
       </c>
-      <c r="J17" s="128"/>
-      <c r="K17" s="129"/>
-      <c r="L17" s="64" t="s">
+      <c r="J18" s="138"/>
+      <c r="K18" s="139"/>
+      <c r="L18" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="M17" s="64" t="s">
+      <c r="M18" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="N17" s="64" t="s">
+      <c r="N18" s="64" t="s">
         <v>111</v>
       </c>
-      <c r="O17" s="35" t="s">
+      <c r="O18" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="P17" s="130" t="s">
+      <c r="P18" s="140" t="s">
         <v>114</v>
       </c>
-      <c r="Q17" s="132"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="41"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41"/>
+      <c r="Q18" s="142"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="41"/>
@@ -9026,25 +9419,40 @@
       <c r="L20" s="41"/>
       <c r="M20" s="41"/>
     </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="41"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
+    </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="L16:Q16"/>
-    <mergeCell ref="A15:Q15"/>
-    <mergeCell ref="AB2:AG10"/>
-    <mergeCell ref="A10:Y10"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="T11:Y11"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="A11:S11"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="L17:Q17"/>
+    <mergeCell ref="A16:Q16"/>
+    <mergeCell ref="AB2:AG11"/>
+    <mergeCell ref="A11:Y11"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="T12:Y12"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="A12:S12"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I18:K18"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="N2:S2"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="L13:N13"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="R3:S3"/>
     <mergeCell ref="A7:M7"/>
@@ -9064,7 +9472,7 @@
   <dimension ref="A1:X44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M20" sqref="M20:X26"/>
+      <selection activeCell="J13" sqref="J13:K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9076,21 +9484,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="121" t="s">
         <v>226</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="F1" s="100" t="s">
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="F1" s="110" t="s">
         <v>148</v>
       </c>
-      <c r="G1" s="102"/>
-      <c r="I1" s="100" t="s">
+      <c r="G1" s="112"/>
+      <c r="I1" s="110" t="s">
         <v>230</v>
       </c>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="102"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="112"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="54" t="s">
@@ -9108,12 +9516,12 @@
       <c r="G2" s="54" t="s">
         <v>125</v>
       </c>
-      <c r="I2" s="145" t="s">
+      <c r="I2" s="155" t="s">
         <v>229</v>
       </c>
-      <c r="J2" s="145"/>
-      <c r="K2" s="145"/>
-      <c r="L2" s="145"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
+      <c r="L2" s="155"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="54"/>
@@ -9125,10 +9533,10 @@
       <c r="G3" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="I3" s="145"/>
-      <c r="J3" s="145"/>
-      <c r="K3" s="145"/>
-      <c r="L3" s="145"/>
+      <c r="I3" s="155"/>
+      <c r="J3" s="155"/>
+      <c r="K3" s="155"/>
+      <c r="L3" s="155"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="54"/>
@@ -9140,10 +9548,10 @@
       <c r="G4" s="55" t="s">
         <v>157</v>
       </c>
-      <c r="I4" s="145"/>
-      <c r="J4" s="145"/>
-      <c r="K4" s="145"/>
-      <c r="L4" s="145"/>
+      <c r="I4" s="155"/>
+      <c r="J4" s="155"/>
+      <c r="K4" s="155"/>
+      <c r="L4" s="155"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="54"/>
@@ -9155,10 +9563,10 @@
       <c r="G5" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="I5" s="145"/>
-      <c r="J5" s="145"/>
-      <c r="K5" s="145"/>
-      <c r="L5" s="145"/>
+      <c r="I5" s="155"/>
+      <c r="J5" s="155"/>
+      <c r="K5" s="155"/>
+      <c r="L5" s="155"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="54"/>
@@ -9170,10 +9578,10 @@
       <c r="G6" s="55" t="s">
         <v>161</v>
       </c>
-      <c r="I6" s="145"/>
-      <c r="J6" s="145"/>
-      <c r="K6" s="145"/>
-      <c r="L6" s="145"/>
+      <c r="I6" s="155"/>
+      <c r="J6" s="155"/>
+      <c r="K6" s="155"/>
+      <c r="L6" s="155"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="54"/>
@@ -9255,6 +9663,12 @@
       <c r="G13" s="55" t="s">
         <v>176</v>
       </c>
+      <c r="J13" s="79">
+        <v>1</v>
+      </c>
+      <c r="K13" s="79">
+        <v>0.48230000000000001</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="54"/>
@@ -9266,6 +9680,12 @@
       <c r="G14" s="55" t="s">
         <v>177</v>
       </c>
+      <c r="J14" s="79">
+        <v>0</v>
+      </c>
+      <c r="K14" s="79">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="54"/>
@@ -9277,6 +9697,12 @@
       <c r="G15" s="55" t="s">
         <v>182</v>
       </c>
+      <c r="J15" s="79">
+        <v>1</v>
+      </c>
+      <c r="K15" s="79">
+        <v>1.9570000000000001</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="54"/>
@@ -9288,6 +9714,12 @@
       <c r="G16" s="55" t="s">
         <v>183</v>
       </c>
+      <c r="J16" s="79">
+        <v>1</v>
+      </c>
+      <c r="K16" s="79">
+        <v>-1.9570000000000001</v>
+      </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="54"/>
@@ -9299,6 +9731,12 @@
       <c r="G17" s="55" t="s">
         <v>184</v>
       </c>
+      <c r="J17" s="79">
+        <v>1</v>
+      </c>
+      <c r="K17" s="79">
+        <v>0.16669999999999999</v>
+      </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="54"/>
@@ -9309,6 +9747,12 @@
       </c>
       <c r="G18" s="55" t="s">
         <v>185</v>
+      </c>
+      <c r="J18" s="79">
+        <v>1</v>
+      </c>
+      <c r="K18" s="79">
+        <v>-0.16669999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">

--- a/mbs-EP-v.1.0.6 - eq mot/Excel Files/andrew_mechanism/andrew_mechanism.xlsx
+++ b/mbs-EP-v.1.0.6 - eq mot/Excel Files/andrew_mechanism/andrew_mechanism.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago_Serralha\Desktop\Thesis-Project\mbs-EP-v.1.0.6 - eq mot\Excel Files\andrew_mechanism\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2620ADB-7E76-4855-AEFA-706D0B62DDC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9151797F-C9A5-41B4-A6C2-D43FD07016A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12600" yWindow="4215" windowWidth="16200" windowHeight="11385" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SimParam" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="274">
   <si>
     <t>Mass</t>
   </si>
@@ -357,9 +357,6 @@
   </si>
   <si>
     <t>mm*s^-2</t>
-  </si>
-  <si>
-    <t>Linear - Spring Stiffness [N/mm]</t>
   </si>
   <si>
     <t>Linear - Damping Coefficient</t>
@@ -849,42 +846,9 @@
     <t>GA</t>
   </si>
   <si>
-    <t>GH</t>
-  </si>
-  <si>
     <t>HE</t>
   </si>
   <si>
-    <t>Ground - OF</t>
-  </si>
-  <si>
-    <t>OF - FE</t>
-  </si>
-  <si>
-    <t>FE - Plate</t>
-  </si>
-  <si>
-    <t>Plate - Ground (B)</t>
-  </si>
-  <si>
-    <t>Plate - EG</t>
-  </si>
-  <si>
-    <t>EG - GA</t>
-  </si>
-  <si>
-    <t>GA - Ground</t>
-  </si>
-  <si>
-    <t>GA - AH</t>
-  </si>
-  <si>
-    <t>AH - HE</t>
-  </si>
-  <si>
-    <t>HE - FE</t>
-  </si>
-  <si>
     <t>O</t>
   </si>
   <si>
@@ -909,10 +873,43 @@
     <t>H</t>
   </si>
   <si>
-    <t>mmks</t>
-  </si>
-  <si>
-    <t>@(t) 1000*t</t>
+    <t>OF-FE</t>
+  </si>
+  <si>
+    <t>Ground-OF</t>
+  </si>
+  <si>
+    <t>FE-Plate</t>
+  </si>
+  <si>
+    <t>Plate-Ground</t>
+  </si>
+  <si>
+    <t>EG-GA</t>
+  </si>
+  <si>
+    <t>GA-Ground</t>
+  </si>
+  <si>
+    <t>GH-HE</t>
+  </si>
+  <si>
+    <t>HE-FE</t>
+  </si>
+  <si>
+    <t>AH</t>
+  </si>
+  <si>
+    <t>Ground-GH</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>Linear - Spring Stiffness [N/m]</t>
+  </si>
+  <si>
+    <t>Plate-EG</t>
   </si>
 </sst>
 </file>
@@ -1188,7 +1185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1346,9 +1343,6 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1390,16 +1384,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2061,7 +2094,7 @@
   <dimension ref="B2:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2080,58 +2113,58 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="122" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="112"/>
-      <c r="J2" s="109" t="s">
-        <v>148</v>
-      </c>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="124"/>
+      <c r="J2" s="121" t="s">
+        <v>147</v>
+      </c>
+      <c r="K2" s="121"/>
+      <c r="L2" s="121"/>
+      <c r="M2" s="121"/>
+      <c r="N2" s="121"/>
+      <c r="O2" s="121"/>
+      <c r="P2" s="121"/>
+      <c r="Q2" s="121"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="96"/>
+      <c r="C3" s="108"/>
       <c r="D3" s="45">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="E3" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="97" t="s">
+      <c r="J3" s="109" t="s">
         <v>100</v>
       </c>
-      <c r="K3" s="98"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="97" t="s">
-        <v>123</v>
-      </c>
-      <c r="N3" s="98"/>
-      <c r="O3" s="90"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="109" t="s">
+        <v>122</v>
+      </c>
+      <c r="N3" s="110"/>
+      <c r="O3" s="102"/>
       <c r="P3" s="39" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Q3" s="39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="96"/>
-      <c r="D4" s="45">
-        <v>1E-4</v>
+      <c r="C4" s="108"/>
+      <c r="D4" s="76">
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="E4" s="45" t="s">
         <v>22</v>
@@ -2142,26 +2175,26 @@
       <c r="K4" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="L4" s="114"/>
+      <c r="L4" s="126"/>
       <c r="M4" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="N4" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="N4" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="O4" s="91"/>
+      <c r="O4" s="103"/>
       <c r="P4" s="39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q4" s="55" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="95" t="s">
+      <c r="B5" s="107" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="96"/>
+      <c r="C5" s="108"/>
       <c r="D5" s="45" t="s">
         <v>79</v>
       </c>
@@ -2174,26 +2207,26 @@
       <c r="K5" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="L5" s="114"/>
+      <c r="L5" s="126"/>
       <c r="M5" s="39" t="s">
         <v>5</v>
       </c>
       <c r="N5" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="91"/>
+      <c r="O5" s="103"/>
       <c r="P5" s="39" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q5" s="55" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="95" t="s">
+      <c r="B6" s="107" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="96"/>
+      <c r="C6" s="108"/>
       <c r="D6" s="45"/>
       <c r="E6" s="45" t="s">
         <v>77</v>
@@ -2204,27 +2237,27 @@
       <c r="K6" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="L6" s="114"/>
+      <c r="L6" s="126"/>
       <c r="M6" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="N6" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="N6" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="O6" s="91"/>
+      <c r="O6" s="103"/>
       <c r="P6" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q6" s="55" t="s">
         <v>159</v>
       </c>
-      <c r="Q6" s="55" t="s">
-        <v>160</v>
-      </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="107" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="96"/>
-      <c r="D7" s="78"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="76"/>
       <c r="E7" s="46" t="s">
         <v>103</v>
       </c>
@@ -2234,28 +2267,28 @@
       <c r="K7" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="114"/>
+      <c r="L7" s="126"/>
       <c r="M7" s="39" t="s">
         <v>10</v>
       </c>
       <c r="N7" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="91"/>
+      <c r="O7" s="103"/>
       <c r="P7" s="39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q7" s="55" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="95" t="s">
+      <c r="B8" s="107" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="96"/>
+      <c r="C8" s="108"/>
       <c r="D8" s="45" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E8" s="46" t="s">
         <v>83</v>
@@ -2266,29 +2299,29 @@
       <c r="K8" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="L8" s="114"/>
+      <c r="L8" s="126"/>
       <c r="M8" s="39" t="s">
         <v>12</v>
       </c>
       <c r="N8" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="O8" s="91"/>
+      <c r="O8" s="103"/>
       <c r="P8" s="39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q8" s="55" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="95" t="s">
-        <v>116</v>
-      </c>
-      <c r="C9" s="96"/>
+      <c r="B9" s="107" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="108"/>
       <c r="D9" s="45"/>
       <c r="E9" s="46" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J9" s="39" t="s">
         <v>93</v>
@@ -2296,19 +2329,19 @@
       <c r="K9" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="L9" s="114"/>
+      <c r="L9" s="126"/>
       <c r="M9" s="39" t="s">
         <v>13</v>
       </c>
       <c r="N9" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="O9" s="91"/>
+      <c r="O9" s="103"/>
       <c r="P9" s="39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q9" s="55" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
@@ -2318,683 +2351,675 @@
       <c r="K10" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="L10" s="114"/>
+      <c r="L10" s="126"/>
       <c r="M10" s="39" t="s">
         <v>14</v>
       </c>
       <c r="N10" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="O10" s="91"/>
+      <c r="O10" s="103"/>
       <c r="P10" s="44" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q10" s="55" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="J11" s="48"/>
       <c r="K11" s="49"/>
-      <c r="L11" s="114"/>
+      <c r="L11" s="126"/>
       <c r="M11" s="39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N11" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="O11" s="91"/>
+        <v>127</v>
+      </c>
+      <c r="O11" s="103"/>
       <c r="P11" s="44" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q11" s="55" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="109" t="s">
-        <v>132</v>
-      </c>
-      <c r="C12" s="109"/>
-      <c r="D12" s="109"/>
-      <c r="E12" s="109"/>
-      <c r="F12" s="109"/>
-      <c r="G12" s="109"/>
-      <c r="H12" s="109"/>
+      <c r="B12" s="121" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="121"/>
       <c r="J12" s="50"/>
       <c r="K12" s="51"/>
-      <c r="L12" s="114"/>
+      <c r="L12" s="126"/>
       <c r="M12" s="39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N12" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="O12" s="91"/>
+        <v>128</v>
+      </c>
+      <c r="O12" s="103"/>
       <c r="P12" s="39" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q12" s="55" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C13" s="94"/>
+      <c r="B13" s="106" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" s="106"/>
       <c r="D13" s="58" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E13" s="58" t="s">
-        <v>117</v>
-      </c>
-      <c r="F13" s="99"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="99"/>
+        <v>116</v>
+      </c>
+      <c r="F13" s="111"/>
+      <c r="G13" s="111"/>
+      <c r="H13" s="111"/>
       <c r="J13" s="50"/>
       <c r="K13" s="51"/>
-      <c r="L13" s="114"/>
+      <c r="L13" s="126"/>
       <c r="M13" s="39" t="s">
         <v>19</v>
       </c>
       <c r="N13" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="O13" s="91"/>
+      <c r="O13" s="103"/>
       <c r="P13" s="44" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q13" s="55" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="94" t="s">
-        <v>136</v>
-      </c>
-      <c r="C14" s="94"/>
-      <c r="D14" s="75" t="s">
-        <v>231</v>
-      </c>
+      <c r="B14" s="106" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" s="106"/>
+      <c r="D14" s="74"/>
       <c r="E14" s="58" t="s">
-        <v>117</v>
-      </c>
-      <c r="F14" s="99"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="99"/>
+        <v>116</v>
+      </c>
+      <c r="F14" s="111"/>
+      <c r="G14" s="111"/>
+      <c r="H14" s="111"/>
       <c r="J14" s="52"/>
       <c r="K14" s="53"/>
-      <c r="L14" s="114"/>
+      <c r="L14" s="126"/>
       <c r="M14" s="39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N14" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="O14" s="91"/>
+        <v>129</v>
+      </c>
+      <c r="O14" s="103"/>
       <c r="P14" s="44" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Q14" s="55" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="94" t="s">
-        <v>137</v>
-      </c>
-      <c r="C15" s="94"/>
-      <c r="D15" s="75" t="s">
-        <v>231</v>
-      </c>
+      <c r="B15" s="106" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" s="106"/>
+      <c r="D15" s="74"/>
       <c r="E15" s="58" t="s">
-        <v>117</v>
-      </c>
-      <c r="F15" s="99"/>
-      <c r="G15" s="99"/>
-      <c r="H15" s="99"/>
-      <c r="J15" s="97" t="s">
+        <v>116</v>
+      </c>
+      <c r="F15" s="111"/>
+      <c r="G15" s="111"/>
+      <c r="H15" s="111"/>
+      <c r="J15" s="109" t="s">
         <v>89</v>
       </c>
-      <c r="K15" s="98"/>
-      <c r="L15" s="114"/>
+      <c r="K15" s="110"/>
+      <c r="L15" s="126"/>
       <c r="M15" s="39" t="s">
         <v>15</v>
       </c>
       <c r="N15" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="O15" s="91"/>
+      <c r="O15" s="103"/>
       <c r="P15" s="44" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q15" s="55" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="94" t="s">
-        <v>139</v>
-      </c>
-      <c r="C16" s="94"/>
-      <c r="D16" s="75" t="s">
-        <v>231</v>
-      </c>
+      <c r="B16" s="106" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16" s="106"/>
+      <c r="D16" s="74"/>
       <c r="E16" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="F16" s="99"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="99"/>
+        <v>116</v>
+      </c>
+      <c r="F16" s="111"/>
+      <c r="G16" s="111"/>
+      <c r="H16" s="111"/>
       <c r="J16" s="39" t="s">
         <v>90</v>
       </c>
       <c r="K16" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="L16" s="114"/>
+      <c r="L16" s="126"/>
       <c r="M16" s="39" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N16" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="O16" s="91"/>
+        <v>130</v>
+      </c>
+      <c r="O16" s="103"/>
       <c r="P16" s="39" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q16" s="55" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="94" t="s">
-        <v>138</v>
-      </c>
-      <c r="C17" s="94"/>
-      <c r="D17" s="75" t="s">
-        <v>231</v>
-      </c>
+      <c r="B17" s="106" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" s="106"/>
+      <c r="D17" s="74"/>
       <c r="E17" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="F17" s="99"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="99"/>
+        <v>116</v>
+      </c>
+      <c r="F17" s="111"/>
+      <c r="G17" s="111"/>
+      <c r="H17" s="111"/>
       <c r="J17" s="39" t="s">
         <v>0</v>
       </c>
       <c r="K17" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="L17" s="114"/>
-      <c r="M17" s="97" t="s">
-        <v>143</v>
-      </c>
-      <c r="N17" s="98"/>
-      <c r="O17" s="91"/>
+      <c r="L17" s="126"/>
+      <c r="M17" s="109" t="s">
+        <v>142</v>
+      </c>
+      <c r="N17" s="110"/>
+      <c r="O17" s="103"/>
       <c r="P17" s="44" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Q17" s="55" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="92" t="s">
-        <v>135</v>
-      </c>
-      <c r="C18" s="93"/>
-      <c r="D18" s="75" t="s">
-        <v>231</v>
-      </c>
+      <c r="B18" s="104" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" s="105"/>
+      <c r="D18" s="74"/>
       <c r="E18" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="99"/>
+        <v>116</v>
+      </c>
+      <c r="F18" s="111"/>
+      <c r="G18" s="111"/>
+      <c r="H18" s="111"/>
       <c r="J18" s="39" t="s">
         <v>91</v>
       </c>
       <c r="K18" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="L18" s="114"/>
+      <c r="L18" s="126"/>
       <c r="M18" s="47" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N18" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="O18" s="91"/>
+        <v>124</v>
+      </c>
+      <c r="O18" s="103"/>
       <c r="P18" s="44" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q18" s="55" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="92" t="s">
+      <c r="B19" s="104" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="93"/>
-      <c r="D19" s="75" t="s">
-        <v>231</v>
+      <c r="C19" s="105"/>
+      <c r="D19" s="74" t="s">
+        <v>230</v>
       </c>
       <c r="E19" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="F19" s="99"/>
-      <c r="G19" s="99"/>
-      <c r="H19" s="99"/>
+        <v>116</v>
+      </c>
+      <c r="F19" s="111"/>
+      <c r="G19" s="111"/>
+      <c r="H19" s="111"/>
       <c r="J19" s="39" t="s">
         <v>92</v>
       </c>
       <c r="K19" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="L19" s="114"/>
+      <c r="L19" s="126"/>
       <c r="M19" s="40" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N19" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="O19" s="91"/>
+      <c r="O19" s="103"/>
       <c r="P19" s="44" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Q19" s="55" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="81" t="s">
-        <v>233</v>
-      </c>
-      <c r="C20" s="83"/>
-      <c r="D20" s="75" t="s">
-        <v>231</v>
+      <c r="B20" s="93" t="s">
+        <v>232</v>
+      </c>
+      <c r="C20" s="95"/>
+      <c r="D20" s="74" t="s">
+        <v>230</v>
       </c>
       <c r="E20" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="F20" s="99"/>
-      <c r="G20" s="99"/>
-      <c r="H20" s="99"/>
+        <v>116</v>
+      </c>
+      <c r="F20" s="111"/>
+      <c r="G20" s="111"/>
+      <c r="H20" s="111"/>
       <c r="J20" s="39" t="s">
         <v>98</v>
       </c>
       <c r="K20" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="L20" s="114"/>
+      <c r="L20" s="126"/>
       <c r="M20" s="40" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N20" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="O20" s="91"/>
+      <c r="O20" s="103"/>
       <c r="P20" s="39" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q20" s="55" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="94" t="s">
-        <v>234</v>
-      </c>
-      <c r="C21" s="94"/>
+      <c r="B21" s="106" t="s">
+        <v>233</v>
+      </c>
+      <c r="C21" s="106"/>
       <c r="D21" s="43"/>
       <c r="E21" s="58" t="s">
-        <v>117</v>
-      </c>
-      <c r="F21" s="99"/>
-      <c r="G21" s="99"/>
-      <c r="H21" s="99"/>
+        <v>116</v>
+      </c>
+      <c r="F21" s="111"/>
+      <c r="G21" s="111"/>
+      <c r="H21" s="111"/>
       <c r="J21" s="39" t="s">
         <v>93</v>
       </c>
       <c r="K21" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="L21" s="114"/>
+      <c r="L21" s="126"/>
       <c r="M21" s="40" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N21" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="O21" s="91"/>
+        <v>149</v>
+      </c>
+      <c r="O21" s="103"/>
       <c r="P21" s="44" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q21" s="55" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="100" t="s">
-        <v>134</v>
-      </c>
-      <c r="C22" s="101"/>
-      <c r="D22" s="58">
-        <v>3</v>
-      </c>
-      <c r="E22" s="106" t="s">
+      <c r="B22" s="112" t="s">
+        <v>133</v>
+      </c>
+      <c r="C22" s="113"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="118" t="s">
+        <v>139</v>
+      </c>
+      <c r="F22" s="128" t="s">
         <v>140</v>
       </c>
-      <c r="F22" s="116" t="s">
-        <v>141</v>
-      </c>
-      <c r="G22" s="116"/>
-      <c r="H22" s="68"/>
+      <c r="G22" s="128"/>
+      <c r="H22" s="89">
+        <v>2</v>
+      </c>
       <c r="J22" s="27" t="s">
         <v>104</v>
       </c>
       <c r="K22" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="L22" s="115"/>
+      <c r="L22" s="127"/>
       <c r="M22" s="40" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N22" s="39" t="s">
-        <v>149</v>
-      </c>
-      <c r="O22" s="91"/>
+        <v>148</v>
+      </c>
+      <c r="O22" s="103"/>
       <c r="P22" s="44" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q22" s="55" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B23" s="114"/>
+      <c r="C23" s="115"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="128"/>
+      <c r="G23" s="128"/>
+      <c r="H23" s="67">
+        <v>3</v>
+      </c>
+      <c r="J23" s="93"/>
+      <c r="K23" s="94"/>
+      <c r="L23" s="94"/>
+      <c r="M23" s="94"/>
+      <c r="N23" s="95"/>
+      <c r="O23" s="103"/>
+      <c r="P23" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="Q22" s="55" t="s">
+      <c r="Q23" s="56" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="102"/>
-      <c r="C23" s="103"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="107"/>
-      <c r="F23" s="116"/>
-      <c r="G23" s="116"/>
-      <c r="H23" s="68"/>
-      <c r="J23" s="81"/>
-      <c r="K23" s="82"/>
-      <c r="L23" s="82"/>
-      <c r="M23" s="82"/>
-      <c r="N23" s="83"/>
-      <c r="O23" s="91"/>
-      <c r="P23" s="44" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q23" s="56" t="s">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B24" s="114"/>
+      <c r="C24" s="115"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="119"/>
+      <c r="F24" s="128"/>
+      <c r="G24" s="128"/>
+      <c r="H24" s="67"/>
+      <c r="J24" s="96"/>
+      <c r="K24" s="97"/>
+      <c r="L24" s="97"/>
+      <c r="M24" s="97"/>
+      <c r="N24" s="98"/>
+      <c r="O24" s="103"/>
+      <c r="P24" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q24" s="56" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="102"/>
-      <c r="C24" s="103"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="107"/>
-      <c r="F24" s="116"/>
-      <c r="G24" s="116"/>
-      <c r="H24" s="68"/>
-      <c r="J24" s="84"/>
-      <c r="K24" s="85"/>
-      <c r="L24" s="85"/>
-      <c r="M24" s="85"/>
-      <c r="N24" s="86"/>
-      <c r="O24" s="91"/>
-      <c r="P24" s="27" t="s">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B25" s="114"/>
+      <c r="C25" s="115"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="119"/>
+      <c r="F25" s="128"/>
+      <c r="G25" s="128"/>
+      <c r="H25" s="67"/>
+      <c r="J25" s="96"/>
+      <c r="K25" s="97"/>
+      <c r="L25" s="97"/>
+      <c r="M25" s="97"/>
+      <c r="N25" s="98"/>
+      <c r="O25" s="103"/>
+      <c r="P25" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q25" s="56" t="s">
         <v>195</v>
       </c>
-      <c r="Q24" s="56" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B25" s="102"/>
-      <c r="C25" s="103"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="107"/>
-      <c r="F25" s="116"/>
-      <c r="G25" s="116"/>
-      <c r="H25" s="68"/>
-      <c r="J25" s="84"/>
-      <c r="K25" s="85"/>
-      <c r="L25" s="85"/>
-      <c r="M25" s="85"/>
-      <c r="N25" s="86"/>
-      <c r="O25" s="91"/>
-      <c r="P25" s="27" t="s">
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B26" s="114"/>
+      <c r="C26" s="115"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="119"/>
+      <c r="F26" s="128"/>
+      <c r="G26" s="128"/>
+      <c r="H26" s="67"/>
+      <c r="J26" s="96"/>
+      <c r="K26" s="97"/>
+      <c r="L26" s="97"/>
+      <c r="M26" s="97"/>
+      <c r="N26" s="98"/>
+      <c r="O26" s="103"/>
+      <c r="P26" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="Q25" s="56" t="s">
+      <c r="Q26" s="56" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="102"/>
-      <c r="C26" s="103"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="107"/>
-      <c r="F26" s="116"/>
-      <c r="G26" s="116"/>
-      <c r="H26" s="68"/>
-      <c r="J26" s="84"/>
-      <c r="K26" s="85"/>
-      <c r="L26" s="85"/>
-      <c r="M26" s="85"/>
-      <c r="N26" s="86"/>
-      <c r="O26" s="91"/>
-      <c r="P26" s="27" t="s">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B27" s="114"/>
+      <c r="C27" s="115"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="119"/>
+      <c r="F27" s="128"/>
+      <c r="G27" s="128"/>
+      <c r="H27" s="67"/>
+      <c r="J27" s="96"/>
+      <c r="K27" s="97"/>
+      <c r="L27" s="97"/>
+      <c r="M27" s="97"/>
+      <c r="N27" s="98"/>
+      <c r="O27" s="103"/>
+      <c r="P27" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="Q26" s="56" t="s">
+      <c r="Q27" s="56" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="102"/>
-      <c r="C27" s="103"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="107"/>
-      <c r="F27" s="116"/>
-      <c r="G27" s="116"/>
-      <c r="H27" s="68"/>
-      <c r="J27" s="84"/>
-      <c r="K27" s="85"/>
-      <c r="L27" s="85"/>
-      <c r="M27" s="85"/>
-      <c r="N27" s="86"/>
-      <c r="O27" s="91"/>
-      <c r="P27" s="27" t="s">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B28" s="114"/>
+      <c r="C28" s="115"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="119"/>
+      <c r="F28" s="128"/>
+      <c r="G28" s="128"/>
+      <c r="H28" s="67"/>
+      <c r="J28" s="96"/>
+      <c r="K28" s="97"/>
+      <c r="L28" s="97"/>
+      <c r="M28" s="97"/>
+      <c r="N28" s="98"/>
+      <c r="O28" s="103"/>
+      <c r="P28" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q28" s="56" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B29" s="116"/>
+      <c r="C29" s="117"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="120"/>
+      <c r="F29" s="128"/>
+      <c r="G29" s="128"/>
+      <c r="H29" s="67"/>
+      <c r="J29" s="96"/>
+      <c r="K29" s="97"/>
+      <c r="L29" s="97"/>
+      <c r="M29" s="97"/>
+      <c r="N29" s="98"/>
+      <c r="O29" s="103"/>
+      <c r="P29" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="Q27" s="56" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B28" s="102"/>
-      <c r="C28" s="103"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="107"/>
-      <c r="F28" s="116"/>
-      <c r="G28" s="116"/>
-      <c r="H28" s="68"/>
-      <c r="J28" s="84"/>
-      <c r="K28" s="85"/>
-      <c r="L28" s="85"/>
-      <c r="M28" s="85"/>
-      <c r="N28" s="86"/>
-      <c r="O28" s="91"/>
-      <c r="P28" s="27" t="s">
+      <c r="Q29" s="56" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J30" s="96"/>
+      <c r="K30" s="97"/>
+      <c r="L30" s="97"/>
+      <c r="M30" s="97"/>
+      <c r="N30" s="98"/>
+      <c r="O30" s="103"/>
+      <c r="P30" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="Q28" s="56" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B29" s="104"/>
-      <c r="C29" s="105"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="108"/>
-      <c r="F29" s="116"/>
-      <c r="G29" s="116"/>
-      <c r="H29" s="68"/>
-      <c r="J29" s="84"/>
-      <c r="K29" s="85"/>
-      <c r="L29" s="85"/>
-      <c r="M29" s="85"/>
-      <c r="N29" s="86"/>
-      <c r="O29" s="91"/>
-      <c r="P29" s="27" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q29" s="56" t="s">
+      <c r="Q30" s="56" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J30" s="84"/>
-      <c r="K30" s="85"/>
-      <c r="L30" s="85"/>
-      <c r="M30" s="85"/>
-      <c r="N30" s="86"/>
-      <c r="O30" s="91"/>
-      <c r="P30" s="27" t="s">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J31" s="96"/>
+      <c r="K31" s="97"/>
+      <c r="L31" s="97"/>
+      <c r="M31" s="97"/>
+      <c r="N31" s="98"/>
+      <c r="O31" s="103"/>
+      <c r="P31" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="Q30" s="56" t="s">
+      <c r="Q31" s="56" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J31" s="84"/>
-      <c r="K31" s="85"/>
-      <c r="L31" s="85"/>
-      <c r="M31" s="85"/>
-      <c r="N31" s="86"/>
-      <c r="O31" s="91"/>
-      <c r="P31" s="27" t="s">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J32" s="96"/>
+      <c r="K32" s="97"/>
+      <c r="L32" s="97"/>
+      <c r="M32" s="97"/>
+      <c r="N32" s="98"/>
+      <c r="O32" s="103"/>
+      <c r="P32" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="Q31" s="56" t="s">
+      <c r="Q32" s="56" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J32" s="84"/>
-      <c r="K32" s="85"/>
-      <c r="L32" s="85"/>
-      <c r="M32" s="85"/>
-      <c r="N32" s="86"/>
-      <c r="O32" s="91"/>
-      <c r="P32" s="27" t="s">
+    <row r="33" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J33" s="96"/>
+      <c r="K33" s="97"/>
+      <c r="L33" s="97"/>
+      <c r="M33" s="97"/>
+      <c r="N33" s="98"/>
+      <c r="O33" s="103"/>
+      <c r="P33" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="Q32" s="56" t="s">
+      <c r="Q33" s="56" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="33" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J33" s="84"/>
-      <c r="K33" s="85"/>
-      <c r="L33" s="85"/>
-      <c r="M33" s="85"/>
-      <c r="N33" s="86"/>
-      <c r="O33" s="91"/>
-      <c r="P33" s="27" t="s">
+    <row r="34" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J34" s="96"/>
+      <c r="K34" s="97"/>
+      <c r="L34" s="97"/>
+      <c r="M34" s="97"/>
+      <c r="N34" s="98"/>
+      <c r="O34" s="103"/>
+      <c r="P34" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="Q33" s="56" t="s">
+      <c r="Q34" s="56" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="34" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J34" s="84"/>
-      <c r="K34" s="85"/>
-      <c r="L34" s="85"/>
-      <c r="M34" s="85"/>
-      <c r="N34" s="86"/>
-      <c r="O34" s="91"/>
-      <c r="P34" s="27" t="s">
+    <row r="35" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J35" s="96"/>
+      <c r="K35" s="97"/>
+      <c r="L35" s="97"/>
+      <c r="M35" s="97"/>
+      <c r="N35" s="98"/>
+      <c r="O35" s="103"/>
+      <c r="P35" s="27" t="s">
         <v>208</v>
       </c>
-      <c r="Q34" s="56" t="s">
+      <c r="Q35" s="56" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="35" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J35" s="84"/>
-      <c r="K35" s="85"/>
-      <c r="L35" s="85"/>
-      <c r="M35" s="85"/>
-      <c r="N35" s="86"/>
-      <c r="O35" s="91"/>
-      <c r="P35" s="27" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q35" s="56" t="s">
+    <row r="36" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J36" s="96"/>
+      <c r="K36" s="97"/>
+      <c r="L36" s="97"/>
+      <c r="M36" s="97"/>
+      <c r="N36" s="98"/>
+      <c r="O36" s="103"/>
+      <c r="P36" s="27" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="36" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J36" s="84"/>
-      <c r="K36" s="85"/>
-      <c r="L36" s="85"/>
-      <c r="M36" s="85"/>
-      <c r="N36" s="86"/>
-      <c r="O36" s="91"/>
-      <c r="P36" s="27" t="s">
+      <c r="Q36" s="56" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J37" s="96"/>
+      <c r="K37" s="97"/>
+      <c r="L37" s="97"/>
+      <c r="M37" s="97"/>
+      <c r="N37" s="98"/>
+      <c r="O37" s="103"/>
+      <c r="P37" s="27" t="s">
         <v>218</v>
       </c>
-      <c r="Q36" s="56" t="s">
+      <c r="Q37" s="56" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="37" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J37" s="84"/>
-      <c r="K37" s="85"/>
-      <c r="L37" s="85"/>
-      <c r="M37" s="85"/>
-      <c r="N37" s="86"/>
-      <c r="O37" s="91"/>
-      <c r="P37" s="27" t="s">
+    <row r="38" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J38" s="99"/>
+      <c r="K38" s="100"/>
+      <c r="L38" s="100"/>
+      <c r="M38" s="100"/>
+      <c r="N38" s="101"/>
+      <c r="O38" s="103"/>
+      <c r="P38" s="27" t="s">
         <v>219</v>
       </c>
-      <c r="Q37" s="56" t="s">
+      <c r="Q38" s="56" t="s">
         <v>223</v>
-      </c>
-    </row>
-    <row r="38" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J38" s="87"/>
-      <c r="K38" s="88"/>
-      <c r="L38" s="88"/>
-      <c r="M38" s="88"/>
-      <c r="N38" s="89"/>
-      <c r="O38" s="91"/>
-      <c r="P38" s="27" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q38" s="56" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="39" spans="10:17" x14ac:dyDescent="0.25">
       <c r="P39" s="27" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Q39" s="56" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -3040,8 +3065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK193"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" topLeftCell="I4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3056,122 +3081,123 @@
     <col min="9" max="9" width="8" customWidth="1"/>
     <col min="10" max="10" width="7.42578125" customWidth="1"/>
     <col min="11" max="11" width="6.5703125" customWidth="1"/>
+    <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
     <col min="20" max="37" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A1" s="99"/>
-      <c r="B1" s="99"/>
-      <c r="C1" s="94" t="s">
+      <c r="A1" s="111"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94" t="s">
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94" t="s">
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94" t="s">
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="94"/>
-      <c r="S1" s="94" t="s">
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="106"/>
+      <c r="S1" s="106" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="94"/>
-      <c r="U1" s="94"/>
-      <c r="V1" s="94"/>
-      <c r="W1" s="94"/>
-      <c r="X1" s="94"/>
-      <c r="Y1" s="94"/>
-      <c r="Z1" s="94"/>
-      <c r="AA1" s="94"/>
-      <c r="AB1" s="94"/>
-      <c r="AC1" s="94"/>
-      <c r="AD1" s="94"/>
-      <c r="AE1" s="94"/>
-      <c r="AF1" s="94"/>
-      <c r="AG1" s="94"/>
-      <c r="AH1" s="94"/>
-      <c r="AI1" s="94"/>
-      <c r="AJ1" s="94"/>
-      <c r="AK1" s="94"/>
+      <c r="T1" s="106"/>
+      <c r="U1" s="106"/>
+      <c r="V1" s="106"/>
+      <c r="W1" s="106"/>
+      <c r="X1" s="106"/>
+      <c r="Y1" s="106"/>
+      <c r="Z1" s="106"/>
+      <c r="AA1" s="106"/>
+      <c r="AB1" s="106"/>
+      <c r="AC1" s="106"/>
+      <c r="AD1" s="106"/>
+      <c r="AE1" s="106"/>
+      <c r="AF1" s="106"/>
+      <c r="AG1" s="106"/>
+      <c r="AH1" s="106"/>
+      <c r="AI1" s="106"/>
+      <c r="AJ1" s="106"/>
+      <c r="AK1" s="106"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A2" s="99"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="119" t="s">
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="131" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119" t="s">
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119" t="s">
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="94" t="s">
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="106" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="94" t="s">
+      <c r="M2" s="106"/>
+      <c r="N2" s="106"/>
+      <c r="O2" s="106" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="94"/>
-      <c r="Q2" s="94"/>
-      <c r="R2" s="116" t="s">
+      <c r="P2" s="106"/>
+      <c r="Q2" s="106"/>
+      <c r="R2" s="128" t="s">
         <v>81</v>
       </c>
-      <c r="S2" s="118" t="s">
-        <v>0</v>
-      </c>
-      <c r="T2" s="119" t="s">
+      <c r="S2" s="130" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="131" t="s">
         <v>88</v>
       </c>
-      <c r="U2" s="119"/>
-      <c r="V2" s="119"/>
-      <c r="W2" s="94" t="s">
+      <c r="U2" s="131"/>
+      <c r="V2" s="131"/>
+      <c r="W2" s="106" t="s">
         <v>86</v>
       </c>
-      <c r="X2" s="94"/>
-      <c r="Y2" s="94"/>
-      <c r="Z2" s="92" t="s">
+      <c r="X2" s="106"/>
+      <c r="Y2" s="106"/>
+      <c r="Z2" s="104" t="s">
         <v>87</v>
       </c>
-      <c r="AA2" s="117"/>
-      <c r="AB2" s="93"/>
-      <c r="AC2" s="94" t="s">
+      <c r="AA2" s="129"/>
+      <c r="AB2" s="105"/>
+      <c r="AC2" s="106" t="s">
         <v>84</v>
       </c>
-      <c r="AD2" s="94"/>
-      <c r="AE2" s="94"/>
-      <c r="AF2" s="94" t="s">
+      <c r="AD2" s="106"/>
+      <c r="AE2" s="106"/>
+      <c r="AF2" s="106" t="s">
         <v>85</v>
       </c>
-      <c r="AG2" s="94"/>
-      <c r="AH2" s="94"/>
-      <c r="AI2" s="94" t="s">
+      <c r="AG2" s="106"/>
+      <c r="AH2" s="106"/>
+      <c r="AI2" s="106" t="s">
         <v>73</v>
       </c>
-      <c r="AJ2" s="94"/>
-      <c r="AK2" s="94"/>
+      <c r="AJ2" s="106"/>
+      <c r="AK2" s="106"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -3225,8 +3251,8 @@
       <c r="Q3" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="R3" s="116"/>
-      <c r="S3" s="118"/>
+      <c r="R3" s="128"/>
+      <c r="S3" s="130"/>
       <c r="T3" s="16" t="s">
         <v>59</v>
       </c>
@@ -3283,88 +3309,88 @@
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A4" s="70">
+      <c r="A4" s="69">
         <v>1</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="70">
-        <v>0</v>
-      </c>
-      <c r="D4" s="70">
-        <v>0</v>
-      </c>
-      <c r="E4" s="70">
-        <v>0</v>
-      </c>
-      <c r="F4" s="69">
-        <v>0</v>
-      </c>
-      <c r="G4" s="69">
-        <v>0</v>
-      </c>
-      <c r="H4" s="69">
-        <v>0</v>
-      </c>
-      <c r="I4" s="69">
-        <v>0</v>
-      </c>
-      <c r="J4" s="69">
-        <v>0</v>
-      </c>
-      <c r="K4" s="69">
-        <v>0</v>
-      </c>
-      <c r="L4" s="69">
-        <v>0</v>
-      </c>
-      <c r="M4" s="69">
-        <v>0</v>
-      </c>
-      <c r="N4" s="69">
-        <v>0</v>
-      </c>
-      <c r="O4" s="69">
-        <v>0</v>
-      </c>
-      <c r="P4" s="69">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="69">
-        <v>0</v>
-      </c>
-      <c r="R4" s="69">
-        <v>0</v>
-      </c>
-      <c r="S4" s="61">
-        <v>0</v>
-      </c>
-      <c r="T4" s="76">
-        <v>0</v>
-      </c>
-      <c r="U4" s="76">
-        <v>0</v>
-      </c>
-      <c r="V4" s="76">
-        <v>0</v>
-      </c>
-      <c r="W4" s="69">
-        <v>0</v>
-      </c>
-      <c r="X4" s="69">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="69">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="69">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="69">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="69">
+      <c r="C4" s="69">
+        <v>0</v>
+      </c>
+      <c r="D4" s="69">
+        <v>0</v>
+      </c>
+      <c r="E4" s="69">
+        <v>0</v>
+      </c>
+      <c r="F4" s="68">
+        <v>0</v>
+      </c>
+      <c r="G4" s="68">
+        <v>0</v>
+      </c>
+      <c r="H4" s="68">
+        <v>0</v>
+      </c>
+      <c r="I4" s="68">
+        <v>0</v>
+      </c>
+      <c r="J4" s="68">
+        <v>0</v>
+      </c>
+      <c r="K4" s="68">
+        <v>0</v>
+      </c>
+      <c r="L4" s="68">
+        <v>0</v>
+      </c>
+      <c r="M4" s="68">
+        <v>0</v>
+      </c>
+      <c r="N4" s="68">
+        <v>0</v>
+      </c>
+      <c r="O4" s="68">
+        <v>0</v>
+      </c>
+      <c r="P4" s="68">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="68">
+        <v>0</v>
+      </c>
+      <c r="R4" s="68">
+        <v>0</v>
+      </c>
+      <c r="S4" s="85">
+        <v>0</v>
+      </c>
+      <c r="T4" s="75">
+        <v>0</v>
+      </c>
+      <c r="U4" s="75">
+        <v>0</v>
+      </c>
+      <c r="V4" s="75">
+        <v>0</v>
+      </c>
+      <c r="W4" s="68">
+        <v>0</v>
+      </c>
+      <c r="X4" s="68">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="68">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="68">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="68">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="68">
         <v>0</v>
       </c>
       <c r="AC4" s="28">
@@ -3385,726 +3411,726 @@
       <c r="AH4" s="28">
         <v>0</v>
       </c>
-      <c r="AI4" s="69">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="69">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="69">
+      <c r="AI4" s="68">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="68">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="68">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A5" s="70">
+      <c r="A5" s="69">
         <v>2</v>
       </c>
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="69" t="s">
+        <v>247</v>
+      </c>
+      <c r="C5" s="87">
+        <v>9.1819999999999998E-4</v>
+      </c>
+      <c r="D5" s="87">
+        <v>-5.7000000000000003E-5</v>
+      </c>
+      <c r="E5" s="70">
+        <v>0</v>
+      </c>
+      <c r="F5" s="77">
+        <v>0</v>
+      </c>
+      <c r="G5" s="77">
+        <v>0</v>
+      </c>
+      <c r="H5" s="77">
+        <v>0</v>
+      </c>
+      <c r="I5" s="77">
+        <v>0</v>
+      </c>
+      <c r="J5" s="77">
+        <v>0</v>
+      </c>
+      <c r="K5" s="77">
+        <v>0</v>
+      </c>
+      <c r="L5" s="80">
+        <v>0</v>
+      </c>
+      <c r="M5" s="80">
+        <v>0</v>
+      </c>
+      <c r="N5" s="80">
+        <v>0</v>
+      </c>
+      <c r="O5" s="68">
+        <v>0</v>
+      </c>
+      <c r="P5" s="68">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="88">
+        <v>0</v>
+      </c>
+      <c r="R5" s="88">
+        <v>0</v>
+      </c>
+      <c r="S5" s="60">
+        <v>4.3249999999999997E-2</v>
+      </c>
+      <c r="T5" s="80">
+        <v>0</v>
+      </c>
+      <c r="U5" s="86">
+        <v>0</v>
+      </c>
+      <c r="V5" s="60">
+        <v>2.1940000000000001E-6</v>
+      </c>
+      <c r="W5" s="68">
+        <v>0</v>
+      </c>
+      <c r="X5" s="68">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="68">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="68">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="68">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="68">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="28">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="28">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="28">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="84">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="AI5" s="68">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="68">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A6" s="69">
+        <v>3</v>
+      </c>
+      <c r="B6" s="69" t="s">
         <v>248</v>
       </c>
-      <c r="C5" s="77">
-        <v>3.5</v>
-      </c>
-      <c r="D5" s="77">
-        <v>0</v>
-      </c>
-      <c r="E5" s="71">
-        <v>0</v>
-      </c>
-      <c r="F5" s="69">
-        <v>0</v>
-      </c>
-      <c r="G5" s="69">
-        <v>0</v>
-      </c>
-      <c r="H5" s="69">
-        <v>0</v>
-      </c>
-      <c r="I5" s="69">
-        <v>0</v>
-      </c>
-      <c r="J5" s="69">
-        <v>0</v>
-      </c>
-      <c r="K5" s="69">
-        <v>0</v>
-      </c>
-      <c r="L5" s="80">
-        <v>0</v>
-      </c>
-      <c r="M5" s="80">
-        <v>0</v>
-      </c>
-      <c r="N5" s="80">
-        <v>0</v>
-      </c>
-      <c r="O5" s="69">
-        <v>0</v>
-      </c>
-      <c r="P5" s="69">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="69">
-        <v>0</v>
-      </c>
-      <c r="R5" s="69">
-        <v>0</v>
-      </c>
-      <c r="S5" s="60">
-        <v>1.4412200000000001E-5</v>
-      </c>
-      <c r="T5" s="60">
-        <v>7.2455900000000005E-7</v>
-      </c>
-      <c r="U5" s="60">
-        <v>6.8534999999999993E-5</v>
-      </c>
-      <c r="V5" s="60">
-        <v>6.8965000000000001E-5</v>
-      </c>
-      <c r="W5" s="69">
-        <v>0</v>
-      </c>
-      <c r="X5" s="69">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="69">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="69">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="69">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="69">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="28">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="28">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="28">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="28">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="28">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="28">
-        <v>12</v>
-      </c>
-      <c r="AI5" s="69">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="69">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A6" s="70">
-        <v>3</v>
-      </c>
-      <c r="B6" s="70" t="s">
+      <c r="C6" s="90">
+        <v>-4.4910000000000002E-3</v>
+      </c>
+      <c r="D6" s="90">
+        <v>2.788E-4</v>
+      </c>
+      <c r="E6" s="78">
+        <v>0</v>
+      </c>
+      <c r="F6" s="77">
+        <v>0</v>
+      </c>
+      <c r="G6" s="77">
+        <v>0</v>
+      </c>
+      <c r="H6" s="77">
+        <v>0</v>
+      </c>
+      <c r="I6" s="77">
+        <v>0</v>
+      </c>
+      <c r="J6" s="77">
+        <v>0</v>
+      </c>
+      <c r="K6" s="77">
+        <v>0</v>
+      </c>
+      <c r="L6" s="80">
+        <v>0</v>
+      </c>
+      <c r="M6" s="80">
+        <v>0</v>
+      </c>
+      <c r="N6" s="80">
+        <v>0</v>
+      </c>
+      <c r="O6" s="77">
+        <v>0</v>
+      </c>
+      <c r="P6" s="77">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="88">
+        <v>0</v>
+      </c>
+      <c r="R6" s="88">
+        <v>0</v>
+      </c>
+      <c r="S6" s="60">
+        <v>3.65E-3</v>
+      </c>
+      <c r="T6" s="80">
+        <v>0</v>
+      </c>
+      <c r="U6" s="86">
+        <v>0</v>
+      </c>
+      <c r="V6" s="60">
+        <v>4.4099999999999999E-7</v>
+      </c>
+      <c r="W6" s="68">
+        <v>0</v>
+      </c>
+      <c r="X6" s="68">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="68">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="68">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="68">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="68">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="28">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="28">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="28">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="28">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="68">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="68">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A7" s="69">
+        <v>4</v>
+      </c>
+      <c r="B7" s="69" t="s">
         <v>249</v>
       </c>
-      <c r="C6" s="77">
-        <v>-14.675000000000001</v>
-      </c>
-      <c r="D6" s="77">
-        <v>-1.135</v>
-      </c>
-      <c r="E6" s="71">
-        <v>0</v>
-      </c>
-      <c r="F6" s="69">
-        <v>0</v>
-      </c>
-      <c r="G6" s="69">
-        <v>0</v>
-      </c>
-      <c r="H6" s="69">
-        <v>0</v>
-      </c>
-      <c r="I6" s="69">
-        <v>0</v>
-      </c>
-      <c r="J6" s="69">
-        <v>0</v>
-      </c>
-      <c r="K6" s="69">
-        <v>0</v>
-      </c>
-      <c r="L6" s="80">
-        <v>0</v>
-      </c>
-      <c r="M6" s="80">
-        <v>0</v>
-      </c>
-      <c r="N6" s="80">
-        <v>0</v>
-      </c>
-      <c r="O6" s="69">
-        <v>0</v>
-      </c>
-      <c r="P6" s="69">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="79">
-        <v>0</v>
-      </c>
-      <c r="R6" s="79">
-        <v>0</v>
-      </c>
-      <c r="S6" s="60">
-        <v>3.4377000000000001E-3</v>
-      </c>
-      <c r="T6" s="60">
-        <v>6.64731E-3</v>
-      </c>
-      <c r="U6" s="60">
-        <v>0.62875000000000003</v>
-      </c>
-      <c r="V6" s="60">
-        <v>0.63270769999999998</v>
-      </c>
-      <c r="W6" s="69">
-        <v>0</v>
-      </c>
-      <c r="X6" s="69">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="69">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="69">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="69">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="69">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="28">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="28">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="28">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="28">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="28">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="28">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="69">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="69">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A7" s="70">
-        <v>4</v>
-      </c>
-      <c r="B7" s="70" t="s">
+      <c r="C7" s="91">
+        <v>-1.874E-2</v>
+      </c>
+      <c r="D7" s="92">
+        <v>2.0480000000000002E-2</v>
+      </c>
+      <c r="E7" s="78">
+        <v>0</v>
+      </c>
+      <c r="F7" s="77">
+        <v>0</v>
+      </c>
+      <c r="G7" s="77">
+        <v>0</v>
+      </c>
+      <c r="H7" s="77">
+        <v>0</v>
+      </c>
+      <c r="I7" s="77">
+        <v>0</v>
+      </c>
+      <c r="J7" s="77">
+        <v>0</v>
+      </c>
+      <c r="K7" s="77">
+        <v>0</v>
+      </c>
+      <c r="L7" s="80">
+        <v>0</v>
+      </c>
+      <c r="M7" s="80">
+        <v>0</v>
+      </c>
+      <c r="N7" s="80">
+        <v>0</v>
+      </c>
+      <c r="O7" s="77">
+        <v>0</v>
+      </c>
+      <c r="P7" s="77">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="88">
+        <v>0</v>
+      </c>
+      <c r="R7" s="88">
+        <v>0</v>
+      </c>
+      <c r="S7" s="60">
+        <v>2.3730000000000001E-2</v>
+      </c>
+      <c r="T7" s="80">
+        <v>0</v>
+      </c>
+      <c r="U7" s="86">
+        <v>0</v>
+      </c>
+      <c r="V7" s="60">
+        <v>5.2549999999999997E-6</v>
+      </c>
+      <c r="W7" s="68">
+        <v>0</v>
+      </c>
+      <c r="X7" s="68">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="68">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="68">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="68">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="68">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="28">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="28">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="28">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="28">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="68">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="68">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A8" s="69">
+        <v>5</v>
+      </c>
+      <c r="B8" s="69" t="s">
         <v>250</v>
       </c>
-      <c r="C7" s="77">
-        <v>-29.81</v>
-      </c>
-      <c r="D7" s="77">
-        <v>15.08</v>
-      </c>
-      <c r="E7" s="71">
-        <v>0</v>
-      </c>
-      <c r="F7" s="69">
-        <v>0</v>
-      </c>
-      <c r="G7" s="69">
-        <v>0</v>
-      </c>
-      <c r="H7" s="69">
-        <v>0</v>
-      </c>
-      <c r="I7" s="69">
-        <v>0</v>
-      </c>
-      <c r="J7" s="69">
-        <v>0</v>
-      </c>
-      <c r="K7" s="69">
-        <v>0</v>
-      </c>
-      <c r="L7" s="80">
-        <v>0</v>
-      </c>
-      <c r="M7" s="80">
-        <v>0</v>
-      </c>
-      <c r="N7" s="80">
-        <v>0</v>
-      </c>
-      <c r="O7" s="69">
-        <v>0</v>
-      </c>
-      <c r="P7" s="69">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="79">
-        <v>0</v>
-      </c>
-      <c r="R7" s="79">
-        <v>0</v>
-      </c>
-      <c r="S7" s="60">
-        <v>1.7212000000000002E-2</v>
-      </c>
-      <c r="T7" s="60">
-        <v>1.1271199999999999</v>
-      </c>
-      <c r="U7" s="60">
-        <v>0.51659999999999995</v>
-      </c>
-      <c r="V7" s="60">
-        <v>1.57202</v>
-      </c>
-      <c r="W7" s="69">
-        <v>0</v>
-      </c>
-      <c r="X7" s="69">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="69">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="69">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="69">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="69">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="28">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="28">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="28">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="28">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="28">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="28">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="69">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="69">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A8" s="70">
-        <v>5</v>
-      </c>
-      <c r="B8" s="70" t="s">
+      <c r="C8" s="87">
+        <v>-3.022E-2</v>
+      </c>
+      <c r="D8" s="87">
+        <v>1.2070000000000001E-2</v>
+      </c>
+      <c r="E8" s="70">
+        <v>0</v>
+      </c>
+      <c r="F8" s="77">
+        <v>0</v>
+      </c>
+      <c r="G8" s="77">
+        <v>0</v>
+      </c>
+      <c r="H8" s="77">
+        <v>0</v>
+      </c>
+      <c r="I8" s="77">
+        <v>0</v>
+      </c>
+      <c r="J8" s="77">
+        <v>0</v>
+      </c>
+      <c r="K8" s="77">
+        <v>0</v>
+      </c>
+      <c r="L8" s="80">
+        <v>0</v>
+      </c>
+      <c r="M8" s="80">
+        <v>0</v>
+      </c>
+      <c r="N8" s="80">
+        <v>0</v>
+      </c>
+      <c r="O8" s="77">
+        <v>0</v>
+      </c>
+      <c r="P8" s="77">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="88">
+        <v>0</v>
+      </c>
+      <c r="R8" s="88">
+        <v>0</v>
+      </c>
+      <c r="S8" s="85">
+        <v>7.0600000000000003E-3</v>
+      </c>
+      <c r="T8" s="80">
+        <v>0</v>
+      </c>
+      <c r="U8" s="86">
+        <v>0</v>
+      </c>
+      <c r="V8" s="60">
+        <v>5.6670000000000001E-7</v>
+      </c>
+      <c r="W8" s="68">
+        <v>0</v>
+      </c>
+      <c r="X8" s="68">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="68">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="68">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="68">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="68">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="28">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="28">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="28">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="28">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="68">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="68">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A9" s="69">
+        <v>6</v>
+      </c>
+      <c r="B9" s="69" t="s">
         <v>251</v>
       </c>
-      <c r="C8" s="77">
-        <v>-40.131999999999998</v>
-      </c>
-      <c r="D8" s="77">
-        <v>6.9870000000000001</v>
-      </c>
-      <c r="E8" s="71">
-        <v>0</v>
-      </c>
-      <c r="F8" s="69">
-        <v>0</v>
-      </c>
-      <c r="G8" s="69">
-        <v>0</v>
-      </c>
-      <c r="H8" s="69">
-        <v>0</v>
-      </c>
-      <c r="I8" s="69">
-        <v>0</v>
-      </c>
-      <c r="J8" s="69">
-        <v>0</v>
-      </c>
-      <c r="K8" s="69">
-        <v>0</v>
-      </c>
-      <c r="L8" s="80">
-        <v>0</v>
-      </c>
-      <c r="M8" s="80">
-        <v>0</v>
-      </c>
-      <c r="N8" s="80">
-        <v>0</v>
-      </c>
-      <c r="O8" s="69">
-        <v>0</v>
-      </c>
-      <c r="P8" s="69">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="79">
-        <v>0</v>
-      </c>
-      <c r="R8" s="79">
-        <v>0</v>
-      </c>
-      <c r="S8" s="60">
-        <v>3.3609999999999998E-4</v>
-      </c>
-      <c r="T8" s="60">
-        <v>1.3047E-2</v>
-      </c>
-      <c r="U8" s="60">
-        <v>1.379385E-4</v>
-      </c>
-      <c r="V8" s="60">
-        <v>1.3129E-2</v>
-      </c>
-      <c r="W8" s="69">
-        <v>0</v>
-      </c>
-      <c r="X8" s="69">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="69">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="69">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="69">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="69">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="28">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="28">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="28">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="28">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="28">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="28">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="69">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="69">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A9" s="70">
-        <v>6</v>
-      </c>
-      <c r="B9" s="70" t="s">
+      <c r="C9" s="87">
+        <v>-5.3240000000000003E-2</v>
+      </c>
+      <c r="D9" s="87">
+        <v>1.6629999999999999E-2</v>
+      </c>
+      <c r="E9" s="70">
+        <v>0</v>
+      </c>
+      <c r="F9" s="77">
+        <v>0</v>
+      </c>
+      <c r="G9" s="77">
+        <v>0</v>
+      </c>
+      <c r="H9" s="77">
+        <v>0</v>
+      </c>
+      <c r="I9" s="77">
+        <v>0</v>
+      </c>
+      <c r="J9" s="77">
+        <v>0</v>
+      </c>
+      <c r="K9" s="77">
+        <v>0</v>
+      </c>
+      <c r="L9" s="80">
+        <v>0</v>
+      </c>
+      <c r="M9" s="80">
+        <v>0</v>
+      </c>
+      <c r="N9" s="80">
+        <v>0</v>
+      </c>
+      <c r="O9" s="77">
+        <v>0</v>
+      </c>
+      <c r="P9" s="77">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="88">
+        <v>0</v>
+      </c>
+      <c r="R9" s="88">
+        <v>0</v>
+      </c>
+      <c r="S9" s="85">
+        <v>7.0499999999999993E-2</v>
+      </c>
+      <c r="T9" s="80">
+        <v>0</v>
+      </c>
+      <c r="U9" s="86">
+        <v>0</v>
+      </c>
+      <c r="V9" s="60">
+        <v>1.169E-5</v>
+      </c>
+      <c r="W9" s="68">
+        <v>0</v>
+      </c>
+      <c r="X9" s="68">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="68">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="68">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="68">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="68">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="28">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="28">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="28">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="28">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="68">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="68">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A10" s="69">
+        <v>7</v>
+      </c>
+      <c r="B10" s="69" t="s">
+        <v>269</v>
+      </c>
+      <c r="C10" s="81">
+        <v>-5.926E-2</v>
+      </c>
+      <c r="D10" s="81">
+        <v>-1.06E-2</v>
+      </c>
+      <c r="E10" s="70">
+        <v>0</v>
+      </c>
+      <c r="F10" s="77">
+        <v>0</v>
+      </c>
+      <c r="G10" s="77">
+        <v>0</v>
+      </c>
+      <c r="H10" s="77">
+        <v>0</v>
+      </c>
+      <c r="I10" s="77">
+        <v>0</v>
+      </c>
+      <c r="J10" s="77">
+        <v>0</v>
+      </c>
+      <c r="K10" s="77">
+        <v>0</v>
+      </c>
+      <c r="L10" s="80">
+        <v>0</v>
+      </c>
+      <c r="M10" s="80">
+        <v>0</v>
+      </c>
+      <c r="N10" s="80">
+        <v>0</v>
+      </c>
+      <c r="O10" s="77">
+        <v>0</v>
+      </c>
+      <c r="P10" s="77">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="88">
+        <v>0</v>
+      </c>
+      <c r="R10" s="88">
+        <v>0</v>
+      </c>
+      <c r="S10" s="85">
+        <v>5.4980000000000001E-2</v>
+      </c>
+      <c r="T10" s="80">
+        <v>0</v>
+      </c>
+      <c r="U10" s="86">
+        <v>0</v>
+      </c>
+      <c r="V10" s="60">
+        <v>1.912E-5</v>
+      </c>
+      <c r="W10" s="68">
+        <v>0</v>
+      </c>
+      <c r="X10" s="68">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="68">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="68">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="68">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="68">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="28">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="28">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="28">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="28">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="68">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="68">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A11" s="69">
+        <v>8</v>
+      </c>
+      <c r="B11" s="69" t="s">
         <v>252</v>
       </c>
-      <c r="C9" s="77">
-        <v>-56.627000000000002</v>
-      </c>
-      <c r="D9" s="77">
-        <v>6.9870000000000001</v>
-      </c>
-      <c r="E9" s="71">
-        <v>0</v>
-      </c>
-      <c r="F9" s="69">
-        <v>0</v>
-      </c>
-      <c r="G9" s="69">
-        <v>0</v>
-      </c>
-      <c r="H9" s="69">
-        <v>0</v>
-      </c>
-      <c r="I9" s="69">
-        <v>0</v>
-      </c>
-      <c r="J9" s="69">
-        <v>0</v>
-      </c>
-      <c r="K9" s="69">
-        <v>0</v>
-      </c>
-      <c r="L9" s="80">
-        <v>0</v>
-      </c>
-      <c r="M9" s="80">
-        <v>0</v>
-      </c>
-      <c r="N9" s="80">
-        <v>0</v>
-      </c>
-      <c r="O9" s="69">
-        <v>0</v>
-      </c>
-      <c r="P9" s="69">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="79">
-        <v>0</v>
-      </c>
-      <c r="R9" s="79">
-        <v>0</v>
-      </c>
-      <c r="S9" s="60">
-        <v>1.30736E-3</v>
-      </c>
-      <c r="T9" s="60">
-        <v>1326.9</v>
-      </c>
-      <c r="U9" s="60">
-        <v>0.12551200000000001</v>
-      </c>
-      <c r="V9" s="60">
-        <v>0.1263</v>
-      </c>
-      <c r="W9" s="69">
-        <v>0</v>
-      </c>
-      <c r="X9" s="69">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="69">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="69">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="69">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="69">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="28">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="28">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="28">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="28">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="28">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="28">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="69">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="69">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A10" s="70">
-        <v>7</v>
-      </c>
-      <c r="B10" s="70" t="s">
-        <v>253</v>
-      </c>
-      <c r="C10" s="77">
-        <v>-56.627000000000002</v>
-      </c>
-      <c r="D10" s="77">
-        <v>-11.571999999999999</v>
-      </c>
-      <c r="E10" s="71">
-        <v>0</v>
-      </c>
-      <c r="F10" s="69">
-        <v>0</v>
-      </c>
-      <c r="G10" s="69">
-        <v>0</v>
-      </c>
-      <c r="H10" s="69">
-        <v>0</v>
-      </c>
-      <c r="I10" s="69">
-        <v>0</v>
-      </c>
-      <c r="J10" s="69">
-        <v>0</v>
-      </c>
-      <c r="K10" s="69">
-        <v>0</v>
-      </c>
-      <c r="L10" s="80">
-        <v>0</v>
-      </c>
-      <c r="M10" s="80">
-        <v>0</v>
-      </c>
-      <c r="N10" s="80">
-        <v>0</v>
-      </c>
-      <c r="O10" s="69">
-        <v>0</v>
-      </c>
-      <c r="P10" s="69">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="79">
-        <v>0</v>
-      </c>
-      <c r="R10" s="79">
-        <v>0</v>
-      </c>
-      <c r="S10" s="60">
-        <v>1.30736E-3</v>
-      </c>
-      <c r="T10" s="60">
-        <v>1326.93</v>
-      </c>
-      <c r="U10" s="60">
-        <v>0.12551200000000001</v>
-      </c>
-      <c r="V10" s="60">
-        <v>0.1263</v>
-      </c>
-      <c r="W10" s="69">
-        <v>0</v>
-      </c>
-      <c r="X10" s="69">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="69">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="69">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="69">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="69">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="28">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="28">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="28">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="28">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="28">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="28">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="69">
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="69">
-        <v>0</v>
-      </c>
-      <c r="AK10" s="69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A11" s="70">
-        <v>8</v>
-      </c>
-      <c r="B11" s="70" t="s">
-        <v>254</v>
-      </c>
-      <c r="C11" s="77">
-        <v>-40.131999999999998</v>
-      </c>
-      <c r="D11" s="77">
-        <v>-11.571999999999999</v>
-      </c>
-      <c r="E11" s="71">
-        <v>0</v>
-      </c>
-      <c r="F11" s="69">
-        <v>0</v>
-      </c>
-      <c r="G11" s="69">
-        <v>0</v>
-      </c>
-      <c r="H11" s="69">
-        <v>0</v>
-      </c>
-      <c r="I11" s="69">
-        <v>0</v>
-      </c>
-      <c r="J11" s="69">
-        <v>0</v>
-      </c>
-      <c r="K11" s="69">
+      <c r="C11" s="81">
+        <v>-2.8539999999999999E-2</v>
+      </c>
+      <c r="D11" s="81">
+        <v>-1.072E-2</v>
+      </c>
+      <c r="E11" s="70">
+        <v>0</v>
+      </c>
+      <c r="F11" s="77">
+        <v>0</v>
+      </c>
+      <c r="G11" s="77">
+        <v>0</v>
+      </c>
+      <c r="H11" s="77">
+        <v>0</v>
+      </c>
+      <c r="I11" s="77">
+        <v>0</v>
+      </c>
+      <c r="J11" s="77">
+        <v>0</v>
+      </c>
+      <c r="K11" s="77">
         <v>0</v>
       </c>
       <c r="L11" s="80">
@@ -4116,46 +4142,46 @@
       <c r="N11" s="80">
         <v>0</v>
       </c>
-      <c r="O11" s="69">
-        <v>0</v>
-      </c>
-      <c r="P11" s="69">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="79">
-        <v>0</v>
-      </c>
-      <c r="R11" s="79">
-        <v>0</v>
-      </c>
-      <c r="S11" s="60">
-        <v>3.3609999999999998E-4</v>
-      </c>
-      <c r="T11" s="60">
-        <v>1.3047E-2</v>
-      </c>
-      <c r="U11" s="60">
-        <v>1.3793799999999999E-4</v>
+      <c r="O11" s="77">
+        <v>0</v>
+      </c>
+      <c r="P11" s="77">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="88">
+        <v>0</v>
+      </c>
+      <c r="R11" s="88">
+        <v>0</v>
+      </c>
+      <c r="S11" s="80">
+        <v>7.0600000000000003E-3</v>
+      </c>
+      <c r="T11" s="80">
+        <v>0</v>
+      </c>
+      <c r="U11" s="86">
+        <v>0</v>
       </c>
       <c r="V11" s="60">
-        <v>1.3129E-2</v>
-      </c>
-      <c r="W11" s="69">
-        <v>0</v>
-      </c>
-      <c r="X11" s="69">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="69">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="69">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="69">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="69">
+        <v>5.6670000000000001E-7</v>
+      </c>
+      <c r="W11" s="68">
+        <v>0</v>
+      </c>
+      <c r="X11" s="68">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="68">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="68">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="68">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="68">
         <v>0</v>
       </c>
       <c r="AC11" s="28">
@@ -4176,13 +4202,13 @@
       <c r="AH11" s="28">
         <v>0</v>
       </c>
-      <c r="AI11" s="69">
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="69">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="69">
+      <c r="AI11" s="68">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="68">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="68">
         <v>0</v>
       </c>
     </row>
@@ -4270,223 +4296,66 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="3"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="3"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="3"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="3"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="3"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="3"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="3"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="3"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C30" s="1"/>
@@ -7139,8 +7008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X72"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:XFD52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7161,16 +7030,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
@@ -7201,11 +7070,11 @@
       <c r="E2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="122" t="s">
+      <c r="F2" s="134" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -7261,19 +7130,19 @@
       <c r="X4" s="10"/>
     </row>
     <row r="5" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="121" t="s">
+      <c r="A5" s="133" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="121"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
-      <c r="H5" s="121"/>
-      <c r="I5" s="121"/>
-      <c r="J5" s="121"/>
-      <c r="K5" s="121"/>
+      <c r="B5" s="133"/>
+      <c r="C5" s="133"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="133"/>
+      <c r="G5" s="133"/>
+      <c r="H5" s="133"/>
+      <c r="I5" s="133"/>
+      <c r="J5" s="133"/>
+      <c r="K5" s="133"/>
       <c r="R5" s="10"/>
       <c r="S5" s="10"/>
       <c r="T5" s="10"/>
@@ -7298,16 +7167,16 @@
       <c r="E6" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="126" t="s">
+      <c r="F6" s="138" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="127"/>
-      <c r="H6" s="128"/>
-      <c r="I6" s="126" t="s">
+      <c r="G6" s="139"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="138" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="127"/>
-      <c r="K6" s="128"/>
+      <c r="J6" s="139"/>
+      <c r="K6" s="140"/>
       <c r="L6" s="19"/>
       <c r="M6" s="19"/>
       <c r="N6" s="19"/>
@@ -7343,22 +7212,22 @@
       <c r="X7" s="10"/>
     </row>
     <row r="8" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="121" t="s">
+      <c r="A8" s="133" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="121"/>
-      <c r="C8" s="121"/>
-      <c r="D8" s="121"/>
-      <c r="E8" s="121"/>
-      <c r="F8" s="121"/>
-      <c r="G8" s="121"/>
-      <c r="H8" s="121"/>
-      <c r="I8" s="121"/>
-      <c r="J8" s="121"/>
-      <c r="K8" s="121"/>
-      <c r="L8" s="121"/>
-      <c r="M8" s="121"/>
-      <c r="N8" s="121"/>
+      <c r="B8" s="133"/>
+      <c r="C8" s="133"/>
+      <c r="D8" s="133"/>
+      <c r="E8" s="133"/>
+      <c r="F8" s="133"/>
+      <c r="G8" s="133"/>
+      <c r="H8" s="133"/>
+      <c r="I8" s="133"/>
+      <c r="J8" s="133"/>
+      <c r="K8" s="133"/>
+      <c r="L8" s="133"/>
+      <c r="M8" s="133"/>
+      <c r="N8" s="133"/>
       <c r="R8" s="10"/>
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
@@ -7383,21 +7252,21 @@
       <c r="E9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="122" t="s">
+      <c r="F9" s="134" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="122"/>
-      <c r="H9" s="122"/>
-      <c r="I9" s="120" t="s">
+      <c r="G9" s="134"/>
+      <c r="H9" s="134"/>
+      <c r="I9" s="132" t="s">
         <v>43</v>
       </c>
-      <c r="J9" s="120"/>
-      <c r="K9" s="120"/>
-      <c r="L9" s="120" t="s">
-        <v>239</v>
-      </c>
-      <c r="M9" s="120"/>
-      <c r="N9" s="120"/>
+      <c r="J9" s="132"/>
+      <c r="K9" s="132"/>
+      <c r="L9" s="132" t="s">
+        <v>238</v>
+      </c>
+      <c r="M9" s="132"/>
+      <c r="N9" s="132"/>
       <c r="R9" s="10"/>
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
@@ -7451,19 +7320,19 @@
       <c r="X11" s="10"/>
     </row>
     <row r="12" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="121" t="s">
+      <c r="A12" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="121"/>
-      <c r="C12" s="121"/>
-      <c r="D12" s="121"/>
-      <c r="E12" s="121"/>
-      <c r="F12" s="121"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="121"/>
-      <c r="J12" s="121"/>
-      <c r="K12" s="121"/>
+      <c r="B12" s="133"/>
+      <c r="C12" s="133"/>
+      <c r="D12" s="133"/>
+      <c r="E12" s="133"/>
+      <c r="F12" s="133"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="133"/>
+      <c r="I12" s="133"/>
+      <c r="J12" s="133"/>
+      <c r="K12" s="133"/>
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
@@ -7488,16 +7357,16 @@
       <c r="E13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="122" t="s">
+      <c r="F13" s="134" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="122"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="120" t="s">
+      <c r="G13" s="134"/>
+      <c r="H13" s="134"/>
+      <c r="I13" s="132" t="s">
         <v>44</v>
       </c>
-      <c r="J13" s="120"/>
-      <c r="K13" s="120"/>
+      <c r="J13" s="132"/>
+      <c r="K13" s="132"/>
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
@@ -7507,12 +7376,14 @@
       <c r="X13" s="10"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
+      <c r="A14" s="13">
+        <v>1</v>
+      </c>
       <c r="B14" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="D14" s="13">
         <v>1</v>
@@ -7547,12 +7418,14 @@
       <c r="X14" s="10"/>
     </row>
     <row r="15" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
+      <c r="A15" s="17">
+        <v>2</v>
+      </c>
       <c r="B15" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="D15" s="13">
         <v>2</v>
@@ -7561,31 +7434,33 @@
         <v>3</v>
       </c>
       <c r="F15" s="41">
-        <v>7</v>
+        <v>6.9899999999999997E-3</v>
       </c>
       <c r="G15" s="41">
-        <v>0</v>
+        <v>-4.2999999999999999E-4</v>
       </c>
       <c r="H15" s="41">
         <v>0</v>
       </c>
       <c r="I15" s="41">
-        <v>7</v>
+        <v>6.9899999999999997E-3</v>
       </c>
       <c r="J15" s="41">
-        <v>0</v>
+        <v>-4.2999999999999999E-4</v>
       </c>
       <c r="K15" s="17">
         <v>0.1</v>
       </c>
     </row>
     <row r="16" spans="1:24" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
+      <c r="A16" s="17">
+        <v>3</v>
+      </c>
       <c r="B16" s="41" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="D16" s="41">
         <v>3</v>
@@ -7594,30 +7469,33 @@
         <v>4</v>
       </c>
       <c r="F16" s="41">
-        <v>-36.35</v>
+        <v>-2.0959999999999999E-2</v>
       </c>
       <c r="G16" s="41">
-        <v>-2.27</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="H16" s="41">
         <v>0</v>
       </c>
       <c r="I16" s="41">
-        <v>-36.35</v>
+        <v>-2.0959999999999999E-2</v>
       </c>
       <c r="J16" s="41">
-        <v>-2.27</v>
-      </c>
-      <c r="K16" s="17">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="K16" s="41">
         <v>0.1</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" s="73">
+        <v>4</v>
+      </c>
       <c r="B17" s="41" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="D17" s="20">
         <v>4</v>
@@ -7626,30 +7504,33 @@
         <v>1</v>
       </c>
       <c r="F17" s="41">
-        <v>-36.35</v>
+        <v>-3.635E-2</v>
       </c>
       <c r="G17" s="41">
-        <v>32.729999999999997</v>
+        <v>3.2730000000000002E-2</v>
       </c>
       <c r="H17" s="41">
         <v>0</v>
       </c>
       <c r="I17" s="41">
-        <v>-36.35</v>
+        <v>-3.635E-2</v>
       </c>
       <c r="J17" s="41">
-        <v>32.729999999999997</v>
+        <v>3.2730000000000002E-2</v>
       </c>
       <c r="K17" s="41">
         <v>0.1</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18" s="73">
+        <v>5</v>
+      </c>
       <c r="B18" s="41" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="D18" s="20">
         <v>4</v>
@@ -7658,30 +7539,33 @@
         <v>5</v>
       </c>
       <c r="F18" s="41">
-        <v>-36.35</v>
+        <v>-2.0959999999999999E-2</v>
       </c>
       <c r="G18" s="41">
-        <v>-2.27</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="H18" s="41">
         <v>0</v>
       </c>
       <c r="I18" s="41">
-        <v>-36.35</v>
+        <v>-2.0959999999999999E-2</v>
       </c>
       <c r="J18" s="41">
-        <v>-2.27</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="K18" s="41">
         <v>0.1</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19" s="73">
+        <v>6</v>
+      </c>
       <c r="B19" s="41" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="D19" s="20">
         <v>5</v>
@@ -7690,30 +7574,33 @@
         <v>6</v>
       </c>
       <c r="F19" s="41">
-        <v>-43.914000000000001</v>
+        <v>-3.4000000000000002E-2</v>
       </c>
       <c r="G19" s="41">
-        <v>16.244</v>
+        <v>1.6459999999999999E-2</v>
       </c>
       <c r="H19" s="41">
         <v>0</v>
       </c>
       <c r="I19" s="41">
-        <v>-43.914000000000001</v>
+        <v>-3.4000000000000002E-2</v>
       </c>
       <c r="J19" s="41">
-        <v>16.244</v>
+        <v>1.6459999999999999E-2</v>
       </c>
       <c r="K19" s="41">
         <v>0.1</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20" s="73">
+        <v>7</v>
+      </c>
       <c r="B20" s="41" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="D20" s="20">
         <v>6</v>
@@ -7722,62 +7609,68 @@
         <v>1</v>
       </c>
       <c r="F20" s="41">
-        <v>-69.34</v>
+        <v>-6.9339999999999999E-2</v>
       </c>
       <c r="G20" s="41">
-        <v>-2.27</v>
+        <v>-2.2699999999999999E-3</v>
       </c>
       <c r="H20" s="41">
         <v>0</v>
       </c>
       <c r="I20" s="41">
-        <v>-69.34</v>
+        <v>-6.9339999999999999E-2</v>
       </c>
       <c r="J20" s="41">
-        <v>-2.27</v>
+        <v>-2.2699999999999999E-3</v>
       </c>
       <c r="K20" s="41">
         <v>0.1</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21" s="73">
+        <v>8</v>
+      </c>
       <c r="B21" s="41" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="D21" s="20">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E21" s="20">
         <v>7</v>
       </c>
       <c r="F21" s="41">
-        <v>-69.34</v>
+        <v>-6.9339999999999999E-2</v>
       </c>
       <c r="G21" s="41">
-        <v>-2.27</v>
+        <v>-2.2699999999999999E-3</v>
       </c>
       <c r="H21" s="41">
         <v>0</v>
       </c>
       <c r="I21" s="41">
-        <v>-69.34</v>
+        <v>-6.9339999999999999E-2</v>
       </c>
       <c r="J21" s="41">
-        <v>-2.27</v>
+        <v>-2.2699999999999999E-3</v>
       </c>
       <c r="K21" s="41">
         <v>0.1</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A22" s="73">
+        <v>9</v>
+      </c>
       <c r="B22" s="41" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D22" s="20">
         <v>7</v>
@@ -7786,30 +7679,33 @@
         <v>8</v>
       </c>
       <c r="F22" s="41">
-        <v>-43.9</v>
+        <v>-3.1629999999999998E-2</v>
       </c>
       <c r="G22" s="41">
-        <v>-20.783999999999999</v>
+        <v>-1.562E-2</v>
       </c>
       <c r="H22" s="41">
         <v>0</v>
       </c>
       <c r="I22" s="41">
-        <v>-43.9</v>
+        <v>-3.1629999999999998E-2</v>
       </c>
       <c r="J22" s="41">
-        <v>-20.783999999999999</v>
+        <v>-1.562E-2</v>
       </c>
       <c r="K22" s="41">
         <v>0.1</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A23" s="73">
+        <v>10</v>
+      </c>
       <c r="B23" s="41" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D23" s="20">
         <v>8</v>
@@ -7818,19 +7714,19 @@
         <v>3</v>
       </c>
       <c r="F23" s="41">
-        <v>-36.35</v>
+        <v>-2.0959999999999999E-2</v>
       </c>
       <c r="G23" s="41">
-        <v>-2.27</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="H23" s="41">
         <v>0</v>
       </c>
       <c r="I23" s="41">
-        <v>-36.35</v>
+        <v>-2.0959999999999999E-2</v>
       </c>
       <c r="J23" s="41">
-        <v>-2.27</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="K23" s="41">
         <v>0.1</v>
@@ -7845,8 +7741,8 @@
       <c r="F24" s="19"/>
       <c r="G24" s="19"/>
       <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
+      <c r="I24" s="82"/>
+      <c r="J24" s="82"/>
       <c r="K24" s="19"/>
       <c r="R24" s="10"/>
       <c r="S24" s="10"/>
@@ -7857,19 +7753,19 @@
       <c r="X24" s="10"/>
     </row>
     <row r="25" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="121" t="s">
+      <c r="A25" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="121"/>
-      <c r="C25" s="121"/>
-      <c r="D25" s="121"/>
-      <c r="E25" s="121"/>
-      <c r="F25" s="121"/>
-      <c r="G25" s="121"/>
-      <c r="H25" s="121"/>
-      <c r="I25" s="121"/>
-      <c r="J25" s="121"/>
-      <c r="K25" s="121"/>
+      <c r="B25" s="133"/>
+      <c r="C25" s="133"/>
+      <c r="D25" s="133"/>
+      <c r="E25" s="133"/>
+      <c r="F25" s="133"/>
+      <c r="G25" s="133"/>
+      <c r="H25" s="133"/>
+      <c r="I25" s="133"/>
+      <c r="J25" s="133"/>
+      <c r="K25" s="133"/>
       <c r="R25" s="10"/>
       <c r="S25" s="10"/>
       <c r="T25" s="10"/>
@@ -7894,16 +7790,16 @@
       <c r="E26" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="122" t="s">
+      <c r="F26" s="134" t="s">
         <v>42</v>
       </c>
-      <c r="G26" s="122"/>
-      <c r="H26" s="122"/>
-      <c r="I26" s="120" t="s">
+      <c r="G26" s="134"/>
+      <c r="H26" s="134"/>
+      <c r="I26" s="132" t="s">
         <v>43</v>
       </c>
-      <c r="J26" s="120"/>
-      <c r="K26" s="120"/>
+      <c r="J26" s="132"/>
+      <c r="K26" s="132"/>
     </row>
     <row r="27" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17"/>
@@ -7940,19 +7836,19 @@
       <c r="X28" s="10"/>
     </row>
     <row r="29" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="121" t="s">
+      <c r="A29" s="133" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="121"/>
-      <c r="C29" s="121"/>
-      <c r="D29" s="121"/>
-      <c r="E29" s="121"/>
-      <c r="F29" s="121"/>
-      <c r="G29" s="121"/>
-      <c r="H29" s="121"/>
-      <c r="I29" s="121"/>
-      <c r="J29" s="121"/>
-      <c r="K29" s="121"/>
+      <c r="B29" s="133"/>
+      <c r="C29" s="133"/>
+      <c r="D29" s="133"/>
+      <c r="E29" s="133"/>
+      <c r="F29" s="133"/>
+      <c r="G29" s="133"/>
+      <c r="H29" s="133"/>
+      <c r="I29" s="133"/>
+      <c r="J29" s="133"/>
+      <c r="K29" s="133"/>
       <c r="R29" s="10"/>
       <c r="S29" s="10"/>
       <c r="T29" s="10"/>
@@ -7977,35 +7873,35 @@
       <c r="E30" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F30" s="122" t="s">
+      <c r="F30" s="134" t="s">
         <v>42</v>
       </c>
-      <c r="G30" s="122"/>
-      <c r="H30" s="122"/>
-      <c r="I30" s="120" t="s">
+      <c r="G30" s="134"/>
+      <c r="H30" s="134"/>
+      <c r="I30" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="J30" s="120"/>
-      <c r="K30" s="120"/>
+      <c r="J30" s="132"/>
+      <c r="K30" s="132"/>
     </row>
     <row r="31" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:24" s="17" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="121" t="s">
-        <v>118</v>
-      </c>
-      <c r="B32" s="121"/>
-      <c r="C32" s="121"/>
-      <c r="D32" s="121"/>
-      <c r="E32" s="121"/>
-      <c r="F32" s="121"/>
-      <c r="G32" s="121"/>
-      <c r="H32" s="121"/>
-      <c r="I32" s="121"/>
-      <c r="J32" s="121"/>
-      <c r="K32" s="121"/>
-      <c r="L32" s="121"/>
-      <c r="M32" s="121"/>
-      <c r="N32" s="121"/>
+      <c r="A32" s="133" t="s">
+        <v>117</v>
+      </c>
+      <c r="B32" s="133"/>
+      <c r="C32" s="133"/>
+      <c r="D32" s="133"/>
+      <c r="E32" s="133"/>
+      <c r="F32" s="133"/>
+      <c r="G32" s="133"/>
+      <c r="H32" s="133"/>
+      <c r="I32" s="133"/>
+      <c r="J32" s="133"/>
+      <c r="K32" s="133"/>
+      <c r="L32" s="133"/>
+      <c r="M32" s="133"/>
+      <c r="N32" s="133"/>
     </row>
     <row r="33" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="32" t="s">
@@ -8023,44 +7919,44 @@
       <c r="E33" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="F33" s="122" t="s">
+      <c r="F33" s="134" t="s">
         <v>46</v>
       </c>
-      <c r="G33" s="122"/>
-      <c r="H33" s="122"/>
-      <c r="I33" s="120" t="s">
+      <c r="G33" s="134"/>
+      <c r="H33" s="134"/>
+      <c r="I33" s="132" t="s">
         <v>47</v>
       </c>
-      <c r="J33" s="120"/>
-      <c r="K33" s="120"/>
-      <c r="L33" s="120" t="s">
-        <v>119</v>
-      </c>
-      <c r="M33" s="120"/>
-      <c r="N33" s="120"/>
+      <c r="J33" s="132"/>
+      <c r="K33" s="132"/>
+      <c r="L33" s="132" t="s">
+        <v>118</v>
+      </c>
+      <c r="M33" s="132"/>
+      <c r="N33" s="132"/>
     </row>
     <row r="34" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="1:24" s="17" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="121" t="s">
-        <v>120</v>
-      </c>
-      <c r="B36" s="121"/>
-      <c r="C36" s="121"/>
-      <c r="D36" s="121"/>
-      <c r="E36" s="121"/>
-      <c r="F36" s="121"/>
-      <c r="G36" s="121"/>
-      <c r="H36" s="121"/>
-      <c r="I36" s="121"/>
-      <c r="J36" s="121"/>
-      <c r="K36" s="121"/>
-      <c r="L36" s="121"/>
-      <c r="M36" s="121"/>
-      <c r="N36" s="121"/>
-      <c r="O36" s="121"/>
-      <c r="P36" s="121"/>
-      <c r="Q36" s="121"/>
+      <c r="A36" s="133" t="s">
+        <v>119</v>
+      </c>
+      <c r="B36" s="133"/>
+      <c r="C36" s="133"/>
+      <c r="D36" s="133"/>
+      <c r="E36" s="133"/>
+      <c r="F36" s="133"/>
+      <c r="G36" s="133"/>
+      <c r="H36" s="133"/>
+      <c r="I36" s="133"/>
+      <c r="J36" s="133"/>
+      <c r="K36" s="133"/>
+      <c r="L36" s="133"/>
+      <c r="M36" s="133"/>
+      <c r="N36" s="133"/>
+      <c r="O36" s="133"/>
+      <c r="P36" s="133"/>
+      <c r="Q36" s="133"/>
     </row>
     <row r="37" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="32" t="s">
@@ -8078,26 +7974,26 @@
       <c r="E37" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="F37" s="126" t="s">
+      <c r="F37" s="138" t="s">
         <v>46</v>
       </c>
-      <c r="G37" s="127"/>
-      <c r="H37" s="128"/>
-      <c r="I37" s="126" t="s">
+      <c r="G37" s="139"/>
+      <c r="H37" s="140"/>
+      <c r="I37" s="138" t="s">
         <v>47</v>
       </c>
-      <c r="J37" s="127"/>
-      <c r="K37" s="128"/>
-      <c r="L37" s="120" t="s">
+      <c r="J37" s="139"/>
+      <c r="K37" s="140"/>
+      <c r="L37" s="132" t="s">
+        <v>120</v>
+      </c>
+      <c r="M37" s="132"/>
+      <c r="N37" s="132"/>
+      <c r="O37" s="132" t="s">
         <v>121</v>
       </c>
-      <c r="M37" s="120"/>
-      <c r="N37" s="120"/>
-      <c r="O37" s="120" t="s">
-        <v>122</v>
-      </c>
-      <c r="P37" s="120"/>
-      <c r="Q37" s="120"/>
+      <c r="P37" s="132"/>
+      <c r="Q37" s="132"/>
     </row>
     <row r="38" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="19"/>
@@ -8132,14 +8028,14 @@
       <c r="R39"/>
     </row>
     <row r="40" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A40" s="121" t="s">
+      <c r="A40" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="B40" s="121"/>
-      <c r="C40" s="121"/>
-      <c r="D40" s="121"/>
-      <c r="E40" s="121"/>
-      <c r="F40" s="121"/>
+      <c r="B40" s="133"/>
+      <c r="C40" s="133"/>
+      <c r="D40" s="133"/>
+      <c r="E40" s="133"/>
+      <c r="F40" s="133"/>
       <c r="G40" s="11"/>
       <c r="S40" s="10"/>
       <c r="T40" s="10"/>
@@ -8216,12 +8112,12 @@
       <c r="X43" s="10"/>
     </row>
     <row r="44" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="121" t="s">
+      <c r="A44" s="133" t="s">
         <v>19</v>
       </c>
-      <c r="B44" s="121"/>
-      <c r="C44" s="121"/>
-      <c r="D44" s="121"/>
+      <c r="B44" s="133"/>
+      <c r="C44" s="133"/>
+      <c r="D44" s="133"/>
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
@@ -8287,19 +8183,19 @@
       <c r="G47" s="11"/>
     </row>
     <row r="48" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A48" s="123" t="s">
+      <c r="A48" s="135" t="s">
         <v>20</v>
       </c>
-      <c r="B48" s="124"/>
-      <c r="C48" s="124"/>
-      <c r="D48" s="124"/>
-      <c r="E48" s="124"/>
-      <c r="F48" s="124"/>
-      <c r="G48" s="125"/>
+      <c r="B48" s="136"/>
+      <c r="C48" s="136"/>
+      <c r="D48" s="136"/>
+      <c r="E48" s="136"/>
+      <c r="F48" s="136"/>
+      <c r="G48" s="137"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B49" s="59" t="s">
         <v>6</v>
@@ -8310,19 +8206,19 @@
       <c r="D49" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="E49" s="120" t="s">
+      <c r="E49" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="F49" s="120"/>
-      <c r="G49" s="120"/>
+      <c r="F49" s="132"/>
+      <c r="G49" s="132"/>
     </row>
     <row r="50" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="41"/>
       <c r="B50" s="41" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="D50" s="17">
         <v>1</v>
@@ -8350,19 +8246,19 @@
     </row>
     <row r="51" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="41" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="D51" s="17">
         <v>2</v>
       </c>
       <c r="E51" s="17">
-        <v>7</v>
+        <v>6.9899999999999997E-3</v>
       </c>
       <c r="F51" s="17">
-        <v>0</v>
+        <v>-4.2999999999999999E-4</v>
       </c>
       <c r="G51" s="17">
         <v>0</v>
@@ -8382,19 +8278,19 @@
     <row r="52" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="41"/>
       <c r="B52" s="41" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="D52" s="17">
         <v>3</v>
       </c>
       <c r="E52" s="17">
-        <v>-36.35</v>
+        <v>-2.0959999999999999E-2</v>
       </c>
       <c r="F52" s="17">
-        <v>-2.27</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="G52" s="17">
         <v>0</v>
@@ -8414,19 +8310,19 @@
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="41"/>
       <c r="B53" s="41" t="s">
-        <v>235</v>
-      </c>
-      <c r="C53" s="74" t="s">
-        <v>268</v>
+        <v>234</v>
+      </c>
+      <c r="C53" s="17" t="s">
+        <v>256</v>
       </c>
       <c r="D53" s="17">
         <v>4</v>
       </c>
       <c r="E53" s="17">
-        <v>-36.35</v>
+        <v>-3.635E-2</v>
       </c>
       <c r="F53" s="17">
-        <v>32.729999999999997</v>
+        <v>3.2730000000000002E-2</v>
       </c>
       <c r="G53" s="17">
         <v>0</v>
@@ -8434,19 +8330,19 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B54" s="41" t="s">
-        <v>235</v>
-      </c>
-      <c r="C54" s="74" t="s">
-        <v>269</v>
-      </c>
-      <c r="D54" s="74">
+        <v>234</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="D54" s="17">
         <v>4</v>
       </c>
       <c r="E54" s="17">
-        <v>-16.350000000000001</v>
+        <v>-1.047E-2</v>
       </c>
       <c r="F54" s="17">
-        <v>14.73</v>
+        <v>2.5360000000000001E-2</v>
       </c>
       <c r="G54" s="17">
         <v>0</v>
@@ -8454,19 +8350,19 @@
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B55" s="41" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="D55" s="17">
         <v>4</v>
       </c>
       <c r="E55" s="17">
-        <v>-36.35</v>
+        <v>-2.0959999999999999E-2</v>
       </c>
       <c r="F55" s="17">
-        <v>-2.27</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="G55" s="17">
         <v>0</v>
@@ -8474,19 +8370,19 @@
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B56" s="41" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="D56" s="41">
         <v>5</v>
       </c>
       <c r="E56" s="17">
-        <v>-43.914000000000001</v>
+        <v>-3.4000000000000002E-2</v>
       </c>
       <c r="F56" s="17">
-        <v>16.244</v>
+        <v>1.6459999999999999E-2</v>
       </c>
       <c r="G56" s="17">
         <v>0</v>
@@ -8494,19 +8390,19 @@
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B57" s="41" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="D57" s="41">
         <v>6</v>
       </c>
       <c r="E57" s="17">
-        <v>-43.914000000000001</v>
+        <v>-3.4000000000000002E-2</v>
       </c>
       <c r="F57" s="17">
-        <v>16.244</v>
+        <v>1.6459999999999999E-2</v>
       </c>
       <c r="G57" s="17">
         <v>0</v>
@@ -8514,19 +8410,19 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B58" s="41" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="D58" s="41">
         <v>6</v>
       </c>
       <c r="E58" s="17">
-        <v>-69.34</v>
+        <v>-6.9339999999999999E-2</v>
       </c>
       <c r="F58" s="17">
-        <v>-2.27</v>
+        <v>-2.2699999999999999E-3</v>
       </c>
       <c r="G58" s="17">
         <v>0</v>
@@ -8534,19 +8430,19 @@
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B59" s="41" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="D59" s="41">
         <v>7</v>
       </c>
       <c r="E59" s="17">
-        <v>-69.34</v>
+        <v>-6.9339999999999999E-2</v>
       </c>
       <c r="F59" s="17">
-        <v>-2.27</v>
+        <v>-2.2699999999999999E-3</v>
       </c>
       <c r="G59" s="17">
         <v>0</v>
@@ -8555,19 +8451,19 @@
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="13"/>
       <c r="B60" s="41" t="s">
-        <v>235</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>272</v>
+        <v>234</v>
+      </c>
+      <c r="C60" s="41" t="s">
+        <v>260</v>
       </c>
       <c r="D60" s="41">
         <v>7</v>
       </c>
       <c r="E60" s="17">
-        <v>-43.914000000000001</v>
+        <v>-3.1629999999999998E-2</v>
       </c>
       <c r="F60" s="17">
-        <v>-20.783999999999999</v>
+        <v>-1.562E-2</v>
       </c>
       <c r="G60" s="17">
         <v>0</v>
@@ -8575,19 +8471,19 @@
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B61" s="41" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C61" s="41" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="D61" s="41">
         <v>8</v>
       </c>
       <c r="E61" s="17">
-        <v>-43.914000000000001</v>
+        <v>-3.1629999999999998E-2</v>
       </c>
       <c r="F61" s="17">
-        <v>-20.783999999999999</v>
+        <v>-1.562E-2</v>
       </c>
       <c r="G61" s="17">
         <v>0</v>
@@ -8595,19 +8491,19 @@
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B62" s="41" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="D62" s="17">
         <v>8</v>
       </c>
       <c r="E62" s="17">
-        <v>-36.35</v>
+        <v>-2.0959999999999999E-2</v>
       </c>
       <c r="F62" s="17">
-        <v>-2.27</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="G62" s="17">
         <v>0</v>
@@ -8657,7 +8553,7 @@
       <formula1>"Spherical,Universal,Revolute,Cylindrical,Translation,Simple,Driver,Ground,Point"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B50:B62" xr:uid="{BC2F65C6-D0C1-488D-AFE3-0640C585FC3A}">
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B50:B62" xr:uid="{C51A7782-ABB9-4BC4-98BA-56AE9F29FE2F}">
       <formula1>"Spherical,Universal,Revolute,Cylindrical,Translation,Simple,Driver,Ground,Point"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8668,10 +8564,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4658AC4-6667-4045-B0FE-42E281567C35}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8684,82 +8580,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="141" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130" t="s">
-        <v>247</v>
-      </c>
-      <c r="K1" s="130"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142" t="s">
+        <v>246</v>
+      </c>
+      <c r="K1" s="142"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="62" t="s">
+      <c r="D2" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="62" t="s">
+      <c r="E2" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="120" t="s">
+      <c r="F2" s="132" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="62" t="s">
+      <c r="G2" s="132"/>
+      <c r="H2" s="132"/>
+      <c r="I2" s="61" t="s">
+        <v>243</v>
+      </c>
+      <c r="J2" s="24" t="s">
         <v>244</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="K2" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="K2" s="24" t="s">
-        <v>246</v>
-      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41">
-        <v>2</v>
-      </c>
-      <c r="E3" s="41">
-        <v>3</v>
-      </c>
-      <c r="F3" s="17">
-        <v>0</v>
-      </c>
-      <c r="G3" s="17">
-        <v>0</v>
-      </c>
-      <c r="H3" s="17">
-        <v>0.1</v>
-      </c>
-      <c r="I3" s="23" t="s">
-        <v>274</v>
-      </c>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I4" s="23"/>
+      <c r="I3" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8767,22 +8636,16 @@
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="J1:K1"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{C29CF91F-D32A-47CE-8C1A-1D1B33C14C9E}">
-      <formula1>"Spherical,Universal,Revolute,Translation,Cylindrical,Simple,Ground,Driver"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F55610B-D925-4735-AE3D-EBBD0AD81ACC}">
-  <dimension ref="A1:AG21"/>
+  <dimension ref="A1:AG20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8807,458 +8670,434 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="141" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
-      <c r="L1" s="130"/>
-      <c r="M1" s="130"/>
-      <c r="N1" s="130"/>
-      <c r="O1" s="130"/>
-      <c r="P1" s="130"/>
-      <c r="Q1" s="130"/>
-      <c r="R1" s="130"/>
-      <c r="S1" s="130"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="142"/>
+      <c r="N1" s="142"/>
+      <c r="O1" s="142"/>
+      <c r="P1" s="142"/>
+      <c r="Q1" s="142"/>
+      <c r="R1" s="142"/>
+      <c r="S1" s="142"/>
     </row>
     <row r="2" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="121"/>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="121"/>
-      <c r="M2" s="121"/>
-      <c r="N2" s="131" t="s">
+      <c r="A2" s="133"/>
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
+      <c r="L2" s="133"/>
+      <c r="M2" s="133"/>
+      <c r="N2" s="143" t="s">
+        <v>236</v>
+      </c>
+      <c r="O2" s="144"/>
+      <c r="P2" s="144"/>
+      <c r="Q2" s="144"/>
+      <c r="R2" s="144"/>
+      <c r="S2" s="145"/>
+      <c r="AB2" s="157" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC2" s="158"/>
+      <c r="AD2" s="158"/>
+      <c r="AE2" s="158"/>
+      <c r="AF2" s="158"/>
+      <c r="AG2" s="159"/>
+    </row>
+    <row r="3" spans="1:33" s="30" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="152" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="153"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="146" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="147"/>
+      <c r="K3" s="148"/>
+      <c r="L3" s="57" t="s">
+        <v>231</v>
+      </c>
+      <c r="M3" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="N3" s="63" t="s">
+        <v>108</v>
+      </c>
+      <c r="O3" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="P3" s="63" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q3" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="R3" s="155" t="s">
+        <v>113</v>
+      </c>
+      <c r="S3" s="155"/>
+      <c r="AB3" s="160"/>
+      <c r="AC3" s="161"/>
+      <c r="AD3" s="161"/>
+      <c r="AE3" s="161"/>
+      <c r="AF3" s="161"/>
+      <c r="AG3" s="162"/>
+    </row>
+    <row r="4" spans="1:33" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="71"/>
+      <c r="B4" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71">
+        <v>1</v>
+      </c>
+      <c r="E4" s="71">
+        <v>4</v>
+      </c>
+      <c r="F4" s="83">
+        <v>1.4E-2</v>
+      </c>
+      <c r="G4" s="83">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="H4" s="71">
+        <v>0</v>
+      </c>
+      <c r="I4" s="83">
+        <v>-1.047E-2</v>
+      </c>
+      <c r="J4" s="83">
+        <v>2.5360000000000001E-2</v>
+      </c>
+      <c r="K4" s="71">
+        <v>0</v>
+      </c>
+      <c r="L4" s="83">
+        <v>7.7850000000000003E-2</v>
+      </c>
+      <c r="M4" s="79">
+        <v>4530</v>
+      </c>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
+      <c r="P4" s="71"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="71"/>
+      <c r="S4" s="71"/>
+      <c r="AB4" s="160"/>
+      <c r="AC4" s="161"/>
+      <c r="AD4" s="161"/>
+      <c r="AE4" s="161"/>
+      <c r="AF4" s="161"/>
+      <c r="AG4" s="162"/>
+    </row>
+    <row r="5" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB5" s="160"/>
+      <c r="AC5" s="161"/>
+      <c r="AD5" s="161"/>
+      <c r="AE5" s="161"/>
+      <c r="AF5" s="161"/>
+      <c r="AG5" s="162"/>
+    </row>
+    <row r="6" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="141" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="142"/>
+      <c r="C6" s="142"/>
+      <c r="D6" s="142"/>
+      <c r="E6" s="142"/>
+      <c r="F6" s="142"/>
+      <c r="G6" s="142"/>
+      <c r="H6" s="142"/>
+      <c r="I6" s="142"/>
+      <c r="J6" s="142"/>
+      <c r="K6" s="142"/>
+      <c r="L6" s="142"/>
+      <c r="M6" s="142"/>
+      <c r="N6" s="142"/>
+      <c r="O6" s="142"/>
+      <c r="P6" s="142"/>
+      <c r="Q6" s="142"/>
+      <c r="R6" s="142"/>
+      <c r="AB6" s="160"/>
+      <c r="AC6" s="161"/>
+      <c r="AD6" s="161"/>
+      <c r="AE6" s="161"/>
+      <c r="AF6" s="161"/>
+      <c r="AG6" s="162"/>
+    </row>
+    <row r="7" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="133"/>
+      <c r="B7" s="133"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="133"/>
+      <c r="G7" s="133"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="133"/>
+      <c r="J7" s="133"/>
+      <c r="K7" s="133"/>
+      <c r="L7" s="133"/>
+      <c r="M7" s="133"/>
+      <c r="N7" s="156" t="s">
+        <v>235</v>
+      </c>
+      <c r="O7" s="156"/>
+      <c r="P7" s="156"/>
+      <c r="Q7" s="156"/>
+      <c r="R7" s="156"/>
+      <c r="AB7" s="160"/>
+      <c r="AC7" s="161"/>
+      <c r="AD7" s="161"/>
+      <c r="AE7" s="161"/>
+      <c r="AF7" s="161"/>
+      <c r="AG7" s="162"/>
+    </row>
+    <row r="8" spans="1:33" s="30" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="152" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="153"/>
+      <c r="H8" s="154"/>
+      <c r="I8" s="146" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="147"/>
+      <c r="K8" s="148"/>
+      <c r="L8" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="M8" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="N8" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="O8" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="P8" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q8" s="152" t="s">
+        <v>112</v>
+      </c>
+      <c r="R8" s="154"/>
+      <c r="AB8" s="160"/>
+      <c r="AC8" s="161"/>
+      <c r="AD8" s="161"/>
+      <c r="AE8" s="161"/>
+      <c r="AF8" s="161"/>
+      <c r="AG8" s="162"/>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="Q9" s="41"/>
+      <c r="AB9" s="160"/>
+      <c r="AC9" s="161"/>
+      <c r="AD9" s="161"/>
+      <c r="AE9" s="161"/>
+      <c r="AF9" s="161"/>
+      <c r="AG9" s="162"/>
+    </row>
+    <row r="10" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="141" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="142"/>
+      <c r="C10" s="142"/>
+      <c r="D10" s="142"/>
+      <c r="E10" s="142"/>
+      <c r="F10" s="142"/>
+      <c r="G10" s="142"/>
+      <c r="H10" s="142"/>
+      <c r="I10" s="142"/>
+      <c r="J10" s="142"/>
+      <c r="K10" s="142"/>
+      <c r="L10" s="142"/>
+      <c r="M10" s="142"/>
+      <c r="N10" s="142"/>
+      <c r="O10" s="142"/>
+      <c r="P10" s="142"/>
+      <c r="Q10" s="142"/>
+      <c r="R10" s="142"/>
+      <c r="S10" s="142"/>
+      <c r="T10" s="142"/>
+      <c r="U10" s="142"/>
+      <c r="V10" s="142"/>
+      <c r="W10" s="142"/>
+      <c r="X10" s="142"/>
+      <c r="Y10" s="142"/>
+      <c r="AB10" s="163"/>
+      <c r="AC10" s="164"/>
+      <c r="AD10" s="164"/>
+      <c r="AE10" s="164"/>
+      <c r="AF10" s="164"/>
+      <c r="AG10" s="165"/>
+    </row>
+    <row r="11" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="135"/>
+      <c r="B11" s="136"/>
+      <c r="C11" s="136"/>
+      <c r="D11" s="136"/>
+      <c r="E11" s="136"/>
+      <c r="F11" s="136"/>
+      <c r="G11" s="136"/>
+      <c r="H11" s="136"/>
+      <c r="I11" s="136"/>
+      <c r="J11" s="136"/>
+      <c r="K11" s="136"/>
+      <c r="L11" s="136"/>
+      <c r="M11" s="136"/>
+      <c r="N11" s="136"/>
+      <c r="O11" s="136"/>
+      <c r="P11" s="136"/>
+      <c r="Q11" s="136"/>
+      <c r="R11" s="136"/>
+      <c r="S11" s="137"/>
+      <c r="T11" s="143" t="s">
         <v>237</v>
       </c>
-      <c r="O2" s="132"/>
-      <c r="P2" s="132"/>
-      <c r="Q2" s="132"/>
-      <c r="R2" s="132"/>
-      <c r="S2" s="133"/>
-      <c r="AB2" s="145" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC2" s="146"/>
-      <c r="AD2" s="146"/>
-      <c r="AE2" s="146"/>
-      <c r="AF2" s="146"/>
-      <c r="AG2" s="147"/>
-    </row>
-    <row r="3" spans="1:33" s="30" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="U11" s="144"/>
+      <c r="V11" s="144"/>
+      <c r="W11" s="144"/>
+      <c r="X11" s="144"/>
+      <c r="Y11" s="145"/>
+      <c r="Z11" s="64"/>
+      <c r="AA11" s="64"/>
+    </row>
+    <row r="12" spans="1:33" s="30" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B12" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C12" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="64" t="s">
+      <c r="D12" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="64" t="s">
+      <c r="E12" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="140" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="141"/>
-      <c r="H3" s="142"/>
-      <c r="I3" s="134" t="s">
-        <v>47</v>
-      </c>
-      <c r="J3" s="135"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="57" t="s">
-        <v>232</v>
-      </c>
-      <c r="M3" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="N3" s="64" t="s">
+      <c r="F12" s="166" t="s">
+        <v>239</v>
+      </c>
+      <c r="G12" s="166"/>
+      <c r="H12" s="166"/>
+      <c r="I12" s="146" t="s">
+        <v>240</v>
+      </c>
+      <c r="J12" s="147"/>
+      <c r="K12" s="148"/>
+      <c r="L12" s="149" t="s">
+        <v>241</v>
+      </c>
+      <c r="M12" s="150"/>
+      <c r="N12" s="151"/>
+      <c r="O12" s="149" t="s">
+        <v>242</v>
+      </c>
+      <c r="P12" s="150"/>
+      <c r="Q12" s="151"/>
+      <c r="R12" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="S12" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="T12" s="63" t="s">
+        <v>108</v>
+      </c>
+      <c r="U12" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="O3" s="64" t="s">
+      <c r="V12" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="P3" s="64" t="s">
+      <c r="W12" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="Q3" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="R3" s="143" t="s">
-        <v>114</v>
-      </c>
-      <c r="S3" s="143"/>
-      <c r="AB3" s="148"/>
-      <c r="AC3" s="149"/>
-      <c r="AD3" s="149"/>
-      <c r="AE3" s="149"/>
-      <c r="AF3" s="149"/>
-      <c r="AG3" s="150"/>
-    </row>
-    <row r="4" spans="1:33" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72"/>
-      <c r="B4" s="72" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72">
-        <v>4</v>
-      </c>
-      <c r="E4" s="72">
-        <v>1</v>
-      </c>
-      <c r="F4" s="72">
-        <v>-16.350000000000001</v>
-      </c>
-      <c r="G4" s="72">
-        <v>14.73</v>
-      </c>
-      <c r="H4" s="72">
-        <v>0</v>
-      </c>
-      <c r="I4" s="72">
-        <v>14</v>
-      </c>
-      <c r="J4" s="72">
-        <v>72.3</v>
-      </c>
-      <c r="K4" s="72">
-        <v>0</v>
-      </c>
-      <c r="L4" s="72">
-        <v>77.849999999999994</v>
-      </c>
-      <c r="M4" s="73">
-        <v>2</v>
-      </c>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="72"/>
-      <c r="S4" s="72"/>
-      <c r="AB4" s="148"/>
-      <c r="AC4" s="149"/>
-      <c r="AD4" s="149"/>
-      <c r="AE4" s="149"/>
-      <c r="AF4" s="149"/>
-      <c r="AG4" s="150"/>
-    </row>
-    <row r="5" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AB5" s="148"/>
-      <c r="AC5" s="149"/>
-      <c r="AD5" s="149"/>
-      <c r="AE5" s="149"/>
-      <c r="AF5" s="149"/>
-      <c r="AG5" s="150"/>
-    </row>
-    <row r="6" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="129" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="130"/>
-      <c r="C6" s="130"/>
-      <c r="D6" s="130"/>
-      <c r="E6" s="130"/>
-      <c r="F6" s="130"/>
-      <c r="G6" s="130"/>
-      <c r="H6" s="130"/>
-      <c r="I6" s="130"/>
-      <c r="J6" s="130"/>
-      <c r="K6" s="130"/>
-      <c r="L6" s="130"/>
-      <c r="M6" s="130"/>
-      <c r="N6" s="130"/>
-      <c r="O6" s="130"/>
-      <c r="P6" s="130"/>
-      <c r="Q6" s="130"/>
-      <c r="R6" s="130"/>
-      <c r="AB6" s="148"/>
-      <c r="AC6" s="149"/>
-      <c r="AD6" s="149"/>
-      <c r="AE6" s="149"/>
-      <c r="AF6" s="149"/>
-      <c r="AG6" s="150"/>
-    </row>
-    <row r="7" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="121"/>
-      <c r="B7" s="121"/>
-      <c r="C7" s="121"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="121"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="121"/>
-      <c r="H7" s="121"/>
-      <c r="I7" s="121"/>
-      <c r="J7" s="121"/>
-      <c r="K7" s="121"/>
-      <c r="L7" s="121"/>
-      <c r="M7" s="121"/>
-      <c r="N7" s="144" t="s">
-        <v>236</v>
-      </c>
-      <c r="O7" s="144"/>
-      <c r="P7" s="144"/>
-      <c r="Q7" s="144"/>
-      <c r="R7" s="144"/>
-      <c r="AB7" s="148"/>
-      <c r="AC7" s="149"/>
-      <c r="AD7" s="149"/>
-      <c r="AE7" s="149"/>
-      <c r="AF7" s="149"/>
-      <c r="AG7" s="150"/>
-    </row>
-    <row r="8" spans="1:33" s="30" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="64" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="64" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="64" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="64" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="64" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="140" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="141"/>
-      <c r="H8" s="142"/>
-      <c r="I8" s="134" t="s">
-        <v>47</v>
-      </c>
-      <c r="J8" s="135"/>
-      <c r="K8" s="136"/>
-      <c r="L8" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="M8" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="N8" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="O8" s="36" t="s">
-        <v>111</v>
-      </c>
-      <c r="P8" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q8" s="140" t="s">
+      <c r="X12" s="152" t="s">
         <v>113</v>
       </c>
-      <c r="R8" s="142"/>
-      <c r="AB8" s="148"/>
-      <c r="AC8" s="149"/>
-      <c r="AD8" s="149"/>
-      <c r="AE8" s="149"/>
-      <c r="AF8" s="149"/>
-      <c r="AG8" s="150"/>
-    </row>
-    <row r="9" spans="1:33" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="72"/>
-      <c r="B9" s="72" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72">
-        <v>4</v>
-      </c>
-      <c r="E9" s="72">
-        <v>1</v>
-      </c>
-      <c r="F9" s="72">
-        <v>-16.350000000000001</v>
-      </c>
-      <c r="G9" s="72">
-        <v>14.73</v>
-      </c>
-      <c r="H9" s="72">
-        <v>0</v>
-      </c>
-      <c r="I9" s="72">
-        <v>14</v>
-      </c>
-      <c r="J9" s="72">
-        <v>72.3</v>
-      </c>
-      <c r="K9" s="72">
-        <v>0</v>
-      </c>
-      <c r="L9" s="73">
-        <v>1</v>
-      </c>
-      <c r="M9" s="72"/>
-      <c r="N9" s="72"/>
-      <c r="O9" s="72"/>
-      <c r="P9" s="73"/>
-      <c r="Q9" s="72"/>
-      <c r="R9" s="72"/>
-      <c r="AB9" s="148"/>
-      <c r="AC9" s="149"/>
-      <c r="AD9" s="149"/>
-      <c r="AE9" s="149"/>
-      <c r="AF9" s="149"/>
-      <c r="AG9" s="150"/>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="Q10" s="41"/>
-      <c r="AB10" s="148"/>
-      <c r="AC10" s="149"/>
-      <c r="AD10" s="149"/>
-      <c r="AE10" s="149"/>
-      <c r="AF10" s="149"/>
-      <c r="AG10" s="150"/>
-    </row>
-    <row r="11" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="129" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" s="130"/>
-      <c r="C11" s="130"/>
-      <c r="D11" s="130"/>
-      <c r="E11" s="130"/>
-      <c r="F11" s="130"/>
-      <c r="G11" s="130"/>
-      <c r="H11" s="130"/>
-      <c r="I11" s="130"/>
-      <c r="J11" s="130"/>
-      <c r="K11" s="130"/>
-      <c r="L11" s="130"/>
-      <c r="M11" s="130"/>
-      <c r="N11" s="130"/>
-      <c r="O11" s="130"/>
-      <c r="P11" s="130"/>
-      <c r="Q11" s="130"/>
-      <c r="R11" s="130"/>
-      <c r="S11" s="130"/>
-      <c r="T11" s="130"/>
-      <c r="U11" s="130"/>
-      <c r="V11" s="130"/>
-      <c r="W11" s="130"/>
-      <c r="X11" s="130"/>
-      <c r="Y11" s="130"/>
-      <c r="AB11" s="151"/>
-      <c r="AC11" s="152"/>
-      <c r="AD11" s="152"/>
-      <c r="AE11" s="152"/>
-      <c r="AF11" s="152"/>
-      <c r="AG11" s="153"/>
-    </row>
-    <row r="12" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="123"/>
-      <c r="B12" s="124"/>
-      <c r="C12" s="124"/>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
-      <c r="F12" s="124"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="124"/>
-      <c r="I12" s="124"/>
-      <c r="J12" s="124"/>
-      <c r="K12" s="124"/>
-      <c r="L12" s="124"/>
-      <c r="M12" s="124"/>
-      <c r="N12" s="124"/>
-      <c r="O12" s="124"/>
-      <c r="P12" s="124"/>
-      <c r="Q12" s="124"/>
-      <c r="R12" s="124"/>
-      <c r="S12" s="125"/>
-      <c r="T12" s="131" t="s">
-        <v>238</v>
-      </c>
-      <c r="U12" s="132"/>
-      <c r="V12" s="132"/>
-      <c r="W12" s="132"/>
-      <c r="X12" s="132"/>
-      <c r="Y12" s="133"/>
-      <c r="Z12" s="65"/>
-      <c r="AA12" s="65"/>
-    </row>
-    <row r="13" spans="1:33" s="30" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="154" t="s">
-        <v>240</v>
-      </c>
-      <c r="G13" s="154"/>
-      <c r="H13" s="154"/>
-      <c r="I13" s="134" t="s">
-        <v>241</v>
-      </c>
-      <c r="J13" s="135"/>
-      <c r="K13" s="136"/>
-      <c r="L13" s="137" t="s">
-        <v>242</v>
-      </c>
-      <c r="M13" s="138"/>
-      <c r="N13" s="139"/>
-      <c r="O13" s="137" t="s">
-        <v>243</v>
-      </c>
-      <c r="P13" s="138"/>
-      <c r="Q13" s="139"/>
-      <c r="R13" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="S13" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="T13" s="64" t="s">
-        <v>109</v>
-      </c>
-      <c r="U13" s="64" t="s">
-        <v>110</v>
-      </c>
-      <c r="V13" s="64" t="s">
-        <v>111</v>
-      </c>
-      <c r="W13" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="X13" s="140" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y13" s="142"/>
+      <c r="Y12" s="154"/>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A13" s="33"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="33"/>
+      <c r="S13" s="33"/>
+      <c r="T13" s="33"/>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="33"/>
@@ -9277,117 +9116,107 @@
       <c r="N14" s="33"/>
       <c r="O14" s="33"/>
       <c r="P14" s="33"/>
-      <c r="Q14" s="41"/>
+      <c r="Q14" s="33"/>
       <c r="R14" s="33"/>
       <c r="S14" s="33"/>
       <c r="T14" s="33"/>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="33"/>
-      <c r="S15" s="33"/>
-      <c r="T15" s="33"/>
+    <row r="15" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="141" t="s">
+        <v>141</v>
+      </c>
+      <c r="B15" s="142"/>
+      <c r="C15" s="142"/>
+      <c r="D15" s="142"/>
+      <c r="E15" s="142"/>
+      <c r="F15" s="142"/>
+      <c r="G15" s="142"/>
+      <c r="H15" s="142"/>
+      <c r="I15" s="142"/>
+      <c r="J15" s="142"/>
+      <c r="K15" s="142"/>
+      <c r="L15" s="142"/>
+      <c r="M15" s="142"/>
+      <c r="N15" s="142"/>
+      <c r="O15" s="142"/>
+      <c r="P15" s="142"/>
+      <c r="Q15" s="142"/>
     </row>
     <row r="16" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="129" t="s">
-        <v>142</v>
-      </c>
-      <c r="B16" s="130"/>
-      <c r="C16" s="130"/>
-      <c r="D16" s="130"/>
-      <c r="E16" s="130"/>
-      <c r="F16" s="130"/>
-      <c r="G16" s="130"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="130"/>
-      <c r="J16" s="130"/>
-      <c r="K16" s="130"/>
-      <c r="L16" s="130"/>
-      <c r="M16" s="130"/>
-      <c r="N16" s="130"/>
-      <c r="O16" s="130"/>
-      <c r="P16" s="130"/>
-      <c r="Q16" s="130"/>
-    </row>
-    <row r="17" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="66"/>
-      <c r="B17" s="67"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="131" t="s">
-        <v>237</v>
-      </c>
-      <c r="M17" s="132"/>
-      <c r="N17" s="132"/>
-      <c r="O17" s="132"/>
-      <c r="P17" s="132"/>
-      <c r="Q17" s="133"/>
-    </row>
-    <row r="18" spans="1:17" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="63" t="s">
+      <c r="A16" s="65"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="143" t="s">
+        <v>236</v>
+      </c>
+      <c r="M16" s="144"/>
+      <c r="N16" s="144"/>
+      <c r="O16" s="144"/>
+      <c r="P16" s="144"/>
+      <c r="Q16" s="145"/>
+    </row>
+    <row r="17" spans="1:17" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="63" t="s">
+      <c r="B17" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="63" t="s">
+      <c r="C17" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="63" t="s">
+      <c r="D17" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="63" t="s">
+      <c r="E17" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="154" t="s">
+      <c r="F17" s="166" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="154"/>
-      <c r="H18" s="154"/>
-      <c r="I18" s="137" t="s">
-        <v>151</v>
-      </c>
-      <c r="J18" s="138"/>
-      <c r="K18" s="139"/>
-      <c r="L18" s="64" t="s">
+      <c r="G17" s="166"/>
+      <c r="H17" s="166"/>
+      <c r="I17" s="149" t="s">
+        <v>150</v>
+      </c>
+      <c r="J17" s="150"/>
+      <c r="K17" s="151"/>
+      <c r="L17" s="63" t="s">
+        <v>108</v>
+      </c>
+      <c r="M17" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="M18" s="64" t="s">
+      <c r="N17" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="N18" s="64" t="s">
+      <c r="O17" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="O18" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="P18" s="140" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q18" s="142"/>
+      <c r="P17" s="152" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q17" s="154"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="41"/>
@@ -9410,49 +9239,31 @@
       <c r="C20" s="41"/>
       <c r="D20" s="41"/>
       <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
       <c r="I20" s="41"/>
       <c r="J20" s="41"/>
       <c r="K20" s="41"/>
       <c r="L20" s="41"/>
       <c r="M20" s="41"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="41"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="41"/>
-      <c r="M21" s="41"/>
-    </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="L17:Q17"/>
-    <mergeCell ref="A16:Q16"/>
-    <mergeCell ref="AB2:AG11"/>
-    <mergeCell ref="A11:Y11"/>
-    <mergeCell ref="X13:Y13"/>
-    <mergeCell ref="T12:Y12"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="A12:S12"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="L16:Q16"/>
+    <mergeCell ref="A15:Q15"/>
+    <mergeCell ref="AB2:AG10"/>
+    <mergeCell ref="A10:Y10"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="T11:Y11"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="A11:S11"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I17:K17"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="N2:S2"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="L12:N12"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="R3:S3"/>
     <mergeCell ref="A7:M7"/>
@@ -9472,7 +9283,7 @@
   <dimension ref="A1:X44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13:K18"/>
+      <selection activeCell="N18" sqref="N17:N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9484,104 +9295,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="121" t="s">
-        <v>226</v>
-      </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="F1" s="110" t="s">
-        <v>148</v>
-      </c>
-      <c r="G1" s="112"/>
-      <c r="I1" s="110" t="s">
-        <v>230</v>
-      </c>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="112"/>
+      <c r="A1" s="133" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="F1" s="122" t="s">
+        <v>147</v>
+      </c>
+      <c r="G1" s="124"/>
+      <c r="I1" s="122" t="s">
+        <v>229</v>
+      </c>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="124"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="54" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C2" s="54" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="54" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G2" s="54" t="s">
-        <v>125</v>
-      </c>
-      <c r="I2" s="155" t="s">
-        <v>229</v>
-      </c>
-      <c r="J2" s="155"/>
-      <c r="K2" s="155"/>
-      <c r="L2" s="155"/>
+        <v>124</v>
+      </c>
+      <c r="I2" s="167" t="s">
+        <v>228</v>
+      </c>
+      <c r="J2" s="167"/>
+      <c r="K2" s="167"/>
+      <c r="L2" s="167"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="54"/>
       <c r="B3" s="54"/>
       <c r="C3" s="54"/>
       <c r="F3" s="54" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G3" s="55" t="s">
-        <v>156</v>
-      </c>
-      <c r="I3" s="155"/>
-      <c r="J3" s="155"/>
-      <c r="K3" s="155"/>
-      <c r="L3" s="155"/>
+        <v>155</v>
+      </c>
+      <c r="I3" s="167"/>
+      <c r="J3" s="167"/>
+      <c r="K3" s="167"/>
+      <c r="L3" s="167"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="54"/>
       <c r="B4" s="54"/>
       <c r="C4" s="54"/>
       <c r="F4" s="54" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G4" s="55" t="s">
-        <v>157</v>
-      </c>
-      <c r="I4" s="155"/>
-      <c r="J4" s="155"/>
-      <c r="K4" s="155"/>
-      <c r="L4" s="155"/>
+        <v>156</v>
+      </c>
+      <c r="I4" s="167"/>
+      <c r="J4" s="167"/>
+      <c r="K4" s="167"/>
+      <c r="L4" s="167"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="54"/>
       <c r="B5" s="54"/>
       <c r="C5" s="54"/>
       <c r="F5" s="54" t="s">
+        <v>158</v>
+      </c>
+      <c r="G5" s="55" t="s">
         <v>159</v>
       </c>
-      <c r="G5" s="55" t="s">
-        <v>160</v>
-      </c>
-      <c r="I5" s="155"/>
-      <c r="J5" s="155"/>
-      <c r="K5" s="155"/>
-      <c r="L5" s="155"/>
+      <c r="I5" s="167"/>
+      <c r="J5" s="167"/>
+      <c r="K5" s="167"/>
+      <c r="L5" s="167"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="54"/>
       <c r="B6" s="54"/>
       <c r="C6" s="54"/>
       <c r="F6" s="54" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G6" s="55" t="s">
-        <v>161</v>
-      </c>
-      <c r="I6" s="155"/>
-      <c r="J6" s="155"/>
-      <c r="K6" s="155"/>
-      <c r="L6" s="155"/>
+        <v>160</v>
+      </c>
+      <c r="I6" s="167"/>
+      <c r="J6" s="167"/>
+      <c r="K6" s="167"/>
+      <c r="L6" s="167"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="54"/>
@@ -9589,10 +9400,10 @@
       <c r="C7" s="54"/>
       <c r="E7" s="34"/>
       <c r="F7" s="54" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G7" s="55" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H7" s="17"/>
     </row>
@@ -9601,10 +9412,10 @@
       <c r="B8" s="54"/>
       <c r="C8" s="54"/>
       <c r="F8" s="54" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G8" s="55" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -9613,10 +9424,10 @@
       <c r="C9" s="54"/>
       <c r="E9" s="34"/>
       <c r="F9" s="54" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G9" s="55" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H9" s="34"/>
     </row>
@@ -9625,10 +9436,10 @@
       <c r="B10" s="54"/>
       <c r="C10" s="54"/>
       <c r="F10" s="54" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G10" s="55" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -9636,10 +9447,10 @@
       <c r="B11" s="54"/>
       <c r="C11" s="54"/>
       <c r="F11" s="54" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G11" s="55" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -9647,10 +9458,10 @@
       <c r="B12" s="54"/>
       <c r="C12" s="54"/>
       <c r="F12" s="54" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G12" s="55" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -9658,16 +9469,10 @@
       <c r="B13" s="54"/>
       <c r="C13" s="54"/>
       <c r="F13" s="54" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G13" s="55" t="s">
-        <v>176</v>
-      </c>
-      <c r="J13" s="79">
-        <v>1</v>
-      </c>
-      <c r="K13" s="79">
-        <v>0.48230000000000001</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -9675,16 +9480,10 @@
       <c r="B14" s="54"/>
       <c r="C14" s="54"/>
       <c r="F14" s="54" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G14" s="55" t="s">
-        <v>177</v>
-      </c>
-      <c r="J14" s="79">
-        <v>0</v>
-      </c>
-      <c r="K14" s="79">
-        <v>0</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -9692,16 +9491,10 @@
       <c r="B15" s="54"/>
       <c r="C15" s="54"/>
       <c r="F15" s="54" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G15" s="55" t="s">
-        <v>182</v>
-      </c>
-      <c r="J15" s="79">
-        <v>1</v>
-      </c>
-      <c r="K15" s="79">
-        <v>1.9570000000000001</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -9709,16 +9502,10 @@
       <c r="B16" s="54"/>
       <c r="C16" s="54"/>
       <c r="F16" s="54" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G16" s="55" t="s">
-        <v>183</v>
-      </c>
-      <c r="J16" s="79">
-        <v>1</v>
-      </c>
-      <c r="K16" s="79">
-        <v>-1.9570000000000001</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
@@ -9726,16 +9513,10 @@
       <c r="B17" s="54"/>
       <c r="C17" s="54"/>
       <c r="F17" s="54" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G17" s="55" t="s">
-        <v>184</v>
-      </c>
-      <c r="J17" s="79">
-        <v>1</v>
-      </c>
-      <c r="K17" s="79">
-        <v>0.16669999999999999</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
@@ -9743,16 +9524,10 @@
       <c r="B18" s="54"/>
       <c r="C18" s="54"/>
       <c r="F18" s="54" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G18" s="55" t="s">
-        <v>185</v>
-      </c>
-      <c r="J18" s="79">
-        <v>1</v>
-      </c>
-      <c r="K18" s="79">
-        <v>-0.16669999999999999</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
@@ -9760,10 +9535,10 @@
       <c r="B19" s="54"/>
       <c r="C19" s="54"/>
       <c r="F19" s="54" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G19" s="55" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
@@ -9771,10 +9546,10 @@
       <c r="B20" s="54"/>
       <c r="C20" s="54"/>
       <c r="F20" s="54" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G20" s="55" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M20" s="41"/>
       <c r="N20" s="41"/>
@@ -9794,10 +9569,10 @@
       <c r="B21" s="54"/>
       <c r="C21" s="54"/>
       <c r="F21" s="54" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G21" s="55" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L21" s="41"/>
       <c r="M21" s="41"/>
@@ -9818,10 +9593,10 @@
       <c r="B22" s="54"/>
       <c r="C22" s="54"/>
       <c r="F22" s="54" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G22" s="56" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
@@ -9829,10 +9604,10 @@
       <c r="B23" s="54"/>
       <c r="C23" s="54"/>
       <c r="F23" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G23" s="56" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
@@ -9840,10 +9615,10 @@
       <c r="B24" s="54"/>
       <c r="C24" s="54"/>
       <c r="F24" s="27" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G24" s="56" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M24" s="41"/>
       <c r="N24" s="41"/>
@@ -9862,10 +9637,10 @@
       <c r="B25" s="54"/>
       <c r="C25" s="54"/>
       <c r="F25" s="27" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G25" s="56" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M25" s="41"/>
       <c r="N25" s="41"/>
@@ -9884,10 +9659,10 @@
       <c r="B26" s="54"/>
       <c r="C26" s="54"/>
       <c r="F26" s="27" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G26" s="56" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
@@ -9895,10 +9670,10 @@
       <c r="B27" s="54"/>
       <c r="C27" s="54"/>
       <c r="F27" s="27" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G27" s="56" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
@@ -9906,10 +9681,10 @@
       <c r="B28" s="54"/>
       <c r="C28" s="54"/>
       <c r="F28" s="27" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G28" s="56" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
@@ -9917,10 +9692,10 @@
       <c r="B29" s="54"/>
       <c r="C29" s="54"/>
       <c r="F29" s="27" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G29" s="56" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
@@ -9928,10 +9703,10 @@
       <c r="B30" s="54"/>
       <c r="C30" s="54"/>
       <c r="F30" s="27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G30" s="56" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
@@ -9939,10 +9714,10 @@
       <c r="B31" s="54"/>
       <c r="C31" s="54"/>
       <c r="F31" s="27" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G31" s="56" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
@@ -9950,10 +9725,10 @@
       <c r="B32" s="54"/>
       <c r="C32" s="54"/>
       <c r="F32" s="27" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G32" s="56" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -9961,10 +9736,10 @@
       <c r="B33" s="54"/>
       <c r="C33" s="54"/>
       <c r="F33" s="27" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G33" s="56" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -9972,10 +9747,10 @@
       <c r="B34" s="54"/>
       <c r="C34" s="54"/>
       <c r="F34" s="27" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G34" s="56" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -9983,10 +9758,10 @@
       <c r="B35" s="54"/>
       <c r="C35" s="54"/>
       <c r="F35" s="27" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G35" s="56" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -9994,10 +9769,10 @@
       <c r="B36" s="54"/>
       <c r="C36" s="54"/>
       <c r="F36" s="27" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G36" s="56" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -10005,10 +9780,10 @@
       <c r="B37" s="54"/>
       <c r="C37" s="54"/>
       <c r="F37" s="27" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G37" s="56" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -10016,10 +9791,10 @@
       <c r="B38" s="54"/>
       <c r="C38" s="54"/>
       <c r="F38" s="27" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G38" s="56" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">

--- a/mbs-EP-v.1.0.6 - eq mot/Excel Files/andrew_mechanism/andrew_mechanism.xlsx
+++ b/mbs-EP-v.1.0.6 - eq mot/Excel Files/andrew_mechanism/andrew_mechanism.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago_Serralha\Desktop\Thesis-Project\mbs-EP-v.1.0.6 - eq mot\Excel Files\andrew_mechanism\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tiago\Desktop\Thesis-Project\Multibody-System-Thesis-Software\mbs-EP-v.1.0.6 - eq mot\Excel Files\andrew_mechanism\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9151797F-C9A5-41B4-A6C2-D43FD07016A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA76D79A-D14C-43DC-94ED-60835937ACE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12600" yWindow="4215" windowWidth="16200" windowHeight="11385" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1980" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SimParam" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="274">
   <si>
     <t>Mass</t>
   </si>
@@ -1185,445 +1185,299 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1639,7 +1493,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1653,9 +1507,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2093,8 +1944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE954C49-6E73-4D49-8054-42AF7A10140C}">
   <dimension ref="B2:Q39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2113,912 +1964,914 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="124"/>
-      <c r="J2" s="121" t="s">
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="73"/>
+      <c r="J2" s="70" t="s">
         <v>147</v>
       </c>
-      <c r="K2" s="121"/>
-      <c r="L2" s="121"/>
-      <c r="M2" s="121"/>
-      <c r="N2" s="121"/>
-      <c r="O2" s="121"/>
-      <c r="P2" s="121"/>
-      <c r="Q2" s="121"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="107" t="s">
+      <c r="B3" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="108"/>
-      <c r="D3" s="45">
+      <c r="C3" s="57"/>
+      <c r="D3" s="21">
         <v>0.03</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="109" t="s">
+      <c r="J3" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="K3" s="110"/>
-      <c r="L3" s="125"/>
-      <c r="M3" s="109" t="s">
+      <c r="K3" s="59"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="58" t="s">
         <v>122</v>
       </c>
-      <c r="N3" s="110"/>
-      <c r="O3" s="102"/>
-      <c r="P3" s="39" t="s">
+      <c r="N3" s="59"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="Q3" s="39" t="s">
+      <c r="Q3" s="6" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="107" t="s">
+      <c r="B4" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="108"/>
-      <c r="D4" s="76">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="E4" s="45" t="s">
+      <c r="C4" s="57"/>
+      <c r="D4" s="37">
+        <v>1E-4</v>
+      </c>
+      <c r="E4" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="39" t="s">
+      <c r="J4" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="K4" s="39" t="s">
+      <c r="K4" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="L4" s="126"/>
-      <c r="M4" s="38" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="N4" s="39" t="s">
+      <c r="N4" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="O4" s="103"/>
-      <c r="P4" s="39" t="s">
+      <c r="O4" s="52"/>
+      <c r="P4" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="Q4" s="55" t="s">
+      <c r="Q4" s="29" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="108"/>
-      <c r="D5" s="45" t="s">
+      <c r="C5" s="57"/>
+      <c r="D5" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="J5" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="K5" s="39" t="s">
+      <c r="J5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="L5" s="126"/>
-      <c r="M5" s="39" t="s">
+      <c r="L5" s="75"/>
+      <c r="M5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="N5" s="39" t="s">
+      <c r="N5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="103"/>
-      <c r="P5" s="39" t="s">
+      <c r="O5" s="52"/>
+      <c r="P5" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="Q5" s="55" t="s">
+      <c r="Q5" s="29" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="107" t="s">
+      <c r="B6" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="108"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45" t="s">
+      <c r="C6" s="57"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="J6" s="39" t="s">
+      <c r="J6" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="K6" s="39" t="s">
+      <c r="K6" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="L6" s="126"/>
-      <c r="M6" s="39" t="s">
+      <c r="L6" s="75"/>
+      <c r="M6" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="N6" s="39" t="s">
+      <c r="N6" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="O6" s="103"/>
-      <c r="P6" s="39" t="s">
+      <c r="O6" s="52"/>
+      <c r="P6" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="Q6" s="55" t="s">
+      <c r="Q6" s="29" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="108"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="46" t="s">
+      <c r="C7" s="57"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="J7" s="39" t="s">
+      <c r="J7" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="K7" s="39" t="s">
+      <c r="K7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="126"/>
-      <c r="M7" s="39" t="s">
+      <c r="L7" s="75"/>
+      <c r="M7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="39" t="s">
+      <c r="N7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="103"/>
-      <c r="P7" s="39" t="s">
+      <c r="O7" s="52"/>
+      <c r="P7" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="Q7" s="55" t="s">
+      <c r="Q7" s="29" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="107" t="s">
+      <c r="B8" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="108"/>
-      <c r="D8" s="45" t="s">
+      <c r="C8" s="57"/>
+      <c r="D8" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="E8" s="46" t="s">
+      <c r="E8" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="J8" s="39" t="s">
+      <c r="J8" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="K8" s="39" t="s">
+      <c r="K8" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="L8" s="126"/>
-      <c r="M8" s="39" t="s">
+      <c r="L8" s="75"/>
+      <c r="M8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N8" s="39" t="s">
+      <c r="N8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="O8" s="103"/>
-      <c r="P8" s="39" t="s">
+      <c r="O8" s="52"/>
+      <c r="P8" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="Q8" s="55" t="s">
+      <c r="Q8" s="29" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="107" t="s">
+      <c r="B9" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="C9" s="108"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="46" t="s">
+      <c r="C9" s="57"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="J9" s="39" t="s">
+      <c r="J9" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="K9" s="39" t="s">
+      <c r="K9" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="L9" s="126"/>
-      <c r="M9" s="39" t="s">
+      <c r="L9" s="75"/>
+      <c r="M9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N9" s="39" t="s">
+      <c r="N9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O9" s="103"/>
-      <c r="P9" s="39" t="s">
+      <c r="O9" s="52"/>
+      <c r="P9" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="Q9" s="55" t="s">
+      <c r="Q9" s="29" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J10" s="27" t="s">
+      <c r="J10" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="K10" s="27" t="s">
+      <c r="K10" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="L10" s="126"/>
-      <c r="M10" s="39" t="s">
+      <c r="L10" s="75"/>
+      <c r="M10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="N10" s="39" t="s">
+      <c r="N10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="O10" s="103"/>
-      <c r="P10" s="44" t="s">
+      <c r="O10" s="52"/>
+      <c r="P10" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="Q10" s="55" t="s">
+      <c r="Q10" s="29" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J11" s="48"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="126"/>
-      <c r="M11" s="39" t="s">
+      <c r="J11" s="23"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="75"/>
+      <c r="M11" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="N11" s="39" t="s">
+      <c r="N11" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="O11" s="103"/>
-      <c r="P11" s="44" t="s">
+      <c r="O11" s="52"/>
+      <c r="P11" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="Q11" s="55" t="s">
+      <c r="Q11" s="29" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="121" t="s">
+      <c r="B12" s="70" t="s">
         <v>131</v>
       </c>
-      <c r="C12" s="121"/>
-      <c r="D12" s="121"/>
-      <c r="E12" s="121"/>
-      <c r="F12" s="121"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="121"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="126"/>
-      <c r="M12" s="39" t="s">
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="75"/>
+      <c r="M12" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="N12" s="39" t="s">
+      <c r="N12" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="O12" s="103"/>
-      <c r="P12" s="39" t="s">
+      <c r="O12" s="52"/>
+      <c r="P12" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="Q12" s="55" t="s">
+      <c r="Q12" s="29" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="106" t="s">
+      <c r="B13" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="C13" s="106"/>
-      <c r="D13" s="58" t="s">
+      <c r="C13" s="55"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="75"/>
+      <c r="M13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O13" s="52"/>
+      <c r="P13" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q13" s="29" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" s="55"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="75"/>
+      <c r="M14" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="O14" s="52"/>
+      <c r="P14" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q14" s="29" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="55" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" s="55"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="J15" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="K15" s="59"/>
+      <c r="L15" s="75"/>
+      <c r="M15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O15" s="52"/>
+      <c r="P15" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q15" s="29" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B16" s="55" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16" s="55"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="J16" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="L16" s="75"/>
+      <c r="M16" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="O16" s="52"/>
+      <c r="P16" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q16" s="29" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B17" s="55" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" s="55"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="J17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="L17" s="75"/>
+      <c r="M17" s="58" t="s">
+        <v>142</v>
+      </c>
+      <c r="N17" s="59"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q17" s="29" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B18" s="53" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" s="54"/>
+      <c r="D18" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="E13" s="58" t="s">
+      <c r="E18" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="F13" s="111"/>
-      <c r="G13" s="111"/>
-      <c r="H13" s="111"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="126"/>
-      <c r="M13" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="N13" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="O13" s="103"/>
-      <c r="P13" s="44" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q13" s="55" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="106" t="s">
-        <v>135</v>
-      </c>
-      <c r="C14" s="106"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="58" t="s">
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="J18" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="L18" s="75"/>
+      <c r="M18" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="O18" s="52"/>
+      <c r="P18" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q18" s="29" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B19" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="54"/>
+      <c r="D19" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E19" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="F14" s="111"/>
-      <c r="G14" s="111"/>
-      <c r="H14" s="111"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="126"/>
-      <c r="M14" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="N14" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="O14" s="103"/>
-      <c r="P14" s="44" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q14" s="55" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="106" t="s">
-        <v>136</v>
-      </c>
-      <c r="C15" s="106"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="58" t="s">
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="J19" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" s="75"/>
+      <c r="M19" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="N19" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="O19" s="52"/>
+      <c r="P19" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q19" s="29" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="42" t="s">
+        <v>232</v>
+      </c>
+      <c r="C20" s="44"/>
+      <c r="D20" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E20" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="F15" s="111"/>
-      <c r="G15" s="111"/>
-      <c r="H15" s="111"/>
-      <c r="J15" s="109" t="s">
-        <v>89</v>
-      </c>
-      <c r="K15" s="110"/>
-      <c r="L15" s="126"/>
-      <c r="M15" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="N15" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="O15" s="103"/>
-      <c r="P15" s="44" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q15" s="55" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="106" t="s">
-        <v>138</v>
-      </c>
-      <c r="C16" s="106"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="42" t="s">
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="J20" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="L20" s="75"/>
+      <c r="M20" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="N20" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="O20" s="52"/>
+      <c r="P20" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q20" s="29" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B21" s="55" t="s">
+        <v>233</v>
+      </c>
+      <c r="C21" s="55"/>
+      <c r="D21" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="F16" s="111"/>
-      <c r="G16" s="111"/>
-      <c r="H16" s="111"/>
-      <c r="J16" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="K16" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="L16" s="126"/>
-      <c r="M16" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="N16" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="O16" s="103"/>
-      <c r="P16" s="39" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q16" s="55" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="106" t="s">
-        <v>137</v>
-      </c>
-      <c r="C17" s="106"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="F17" s="111"/>
-      <c r="G17" s="111"/>
-      <c r="H17" s="111"/>
-      <c r="J17" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="K17" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="L17" s="126"/>
-      <c r="M17" s="109" t="s">
-        <v>142</v>
-      </c>
-      <c r="N17" s="110"/>
-      <c r="O17" s="103"/>
-      <c r="P17" s="44" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q17" s="55" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="104" t="s">
-        <v>134</v>
-      </c>
-      <c r="C18" s="105"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="F18" s="111"/>
-      <c r="G18" s="111"/>
-      <c r="H18" s="111"/>
-      <c r="J18" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="K18" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="L18" s="126"/>
-      <c r="M18" s="47" t="s">
-        <v>151</v>
-      </c>
-      <c r="N18" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="O18" s="103"/>
-      <c r="P18" s="44" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q18" s="55" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="104" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="105"/>
-      <c r="D19" s="74" t="s">
-        <v>230</v>
-      </c>
-      <c r="E19" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="F19" s="111"/>
-      <c r="G19" s="111"/>
-      <c r="H19" s="111"/>
-      <c r="J19" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="K19" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="L19" s="126"/>
-      <c r="M19" s="40" t="s">
-        <v>143</v>
-      </c>
-      <c r="N19" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="O19" s="103"/>
-      <c r="P19" s="44" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q19" s="55" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="20" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="93" t="s">
-        <v>232</v>
-      </c>
-      <c r="C20" s="95"/>
-      <c r="D20" s="74" t="s">
-        <v>230</v>
-      </c>
-      <c r="E20" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="111"/>
-      <c r="G20" s="111"/>
-      <c r="H20" s="111"/>
-      <c r="J20" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="K20" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="L20" s="126"/>
-      <c r="M20" s="40" t="s">
-        <v>144</v>
-      </c>
-      <c r="N20" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="O20" s="103"/>
-      <c r="P20" s="39" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q20" s="55" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="106" t="s">
-        <v>233</v>
-      </c>
-      <c r="C21" s="106"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="58" t="s">
-        <v>116</v>
-      </c>
-      <c r="F21" s="111"/>
-      <c r="G21" s="111"/>
-      <c r="H21" s="111"/>
-      <c r="J21" s="39" t="s">
+      <c r="F21" s="60"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="J21" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="K21" s="39" t="s">
+      <c r="K21" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="L21" s="126"/>
-      <c r="M21" s="40" t="s">
+      <c r="L21" s="75"/>
+      <c r="M21" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="N21" s="40" t="s">
+      <c r="N21" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="O21" s="103"/>
-      <c r="P21" s="44" t="s">
+      <c r="O21" s="52"/>
+      <c r="P21" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="Q21" s="55" t="s">
+      <c r="Q21" s="29" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="22" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="112" t="s">
+      <c r="B22" s="61" t="s">
         <v>133</v>
       </c>
-      <c r="C22" s="113"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="118" t="s">
+      <c r="C22" s="62"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="F22" s="128" t="s">
+      <c r="F22" s="77" t="s">
         <v>140</v>
       </c>
-      <c r="G22" s="128"/>
-      <c r="H22" s="89">
+      <c r="G22" s="77"/>
+      <c r="H22" s="14">
         <v>2</v>
       </c>
-      <c r="J22" s="27" t="s">
+      <c r="J22" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="K22" s="27" t="s">
+      <c r="K22" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="L22" s="127"/>
-      <c r="M22" s="40" t="s">
+      <c r="L22" s="76"/>
+      <c r="M22" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="N22" s="39" t="s">
+      <c r="N22" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="O22" s="103"/>
-      <c r="P22" s="44" t="s">
+      <c r="O22" s="52"/>
+      <c r="P22" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="Q22" s="55" t="s">
+      <c r="Q22" s="29" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="114"/>
-      <c r="C23" s="115"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="119"/>
-      <c r="F23" s="128"/>
-      <c r="G23" s="128"/>
-      <c r="H23" s="67">
+      <c r="B23" s="63"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="14">
         <v>3</v>
       </c>
-      <c r="J23" s="93"/>
-      <c r="K23" s="94"/>
-      <c r="L23" s="94"/>
-      <c r="M23" s="94"/>
-      <c r="N23" s="95"/>
-      <c r="O23" s="103"/>
-      <c r="P23" s="44" t="s">
+      <c r="J23" s="42"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="52"/>
+      <c r="P23" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="Q23" s="56" t="s">
+      <c r="Q23" s="29" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="114"/>
-      <c r="C24" s="115"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="119"/>
-      <c r="F24" s="128"/>
-      <c r="G24" s="128"/>
-      <c r="H24" s="67"/>
-      <c r="J24" s="96"/>
-      <c r="K24" s="97"/>
-      <c r="L24" s="97"/>
-      <c r="M24" s="97"/>
-      <c r="N24" s="98"/>
-      <c r="O24" s="103"/>
-      <c r="P24" s="27" t="s">
+      <c r="B24" s="63"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="14"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="52"/>
+      <c r="P24" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="Q24" s="56" t="s">
+      <c r="Q24" s="29" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B25" s="114"/>
-      <c r="C25" s="115"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="119"/>
-      <c r="F25" s="128"/>
-      <c r="G25" s="128"/>
-      <c r="H25" s="67"/>
-      <c r="J25" s="96"/>
-      <c r="K25" s="97"/>
-      <c r="L25" s="97"/>
-      <c r="M25" s="97"/>
-      <c r="N25" s="98"/>
-      <c r="O25" s="103"/>
-      <c r="P25" s="27" t="s">
+      <c r="B25" s="63"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="14"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="52"/>
+      <c r="P25" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="Q25" s="56" t="s">
+      <c r="Q25" s="29" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="114"/>
-      <c r="C26" s="115"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="119"/>
-      <c r="F26" s="128"/>
-      <c r="G26" s="128"/>
-      <c r="H26" s="67"/>
-      <c r="J26" s="96"/>
-      <c r="K26" s="97"/>
-      <c r="L26" s="97"/>
-      <c r="M26" s="97"/>
-      <c r="N26" s="98"/>
-      <c r="O26" s="103"/>
-      <c r="P26" s="27" t="s">
+      <c r="B26" s="63"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="14"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="46"/>
+      <c r="N26" s="47"/>
+      <c r="O26" s="52"/>
+      <c r="P26" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="Q26" s="56" t="s">
+      <c r="Q26" s="29" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="114"/>
-      <c r="C27" s="115"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="119"/>
-      <c r="F27" s="128"/>
-      <c r="G27" s="128"/>
-      <c r="H27" s="67"/>
-      <c r="J27" s="96"/>
-      <c r="K27" s="97"/>
-      <c r="L27" s="97"/>
-      <c r="M27" s="97"/>
-      <c r="N27" s="98"/>
-      <c r="O27" s="103"/>
-      <c r="P27" s="27" t="s">
+      <c r="B27" s="63"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="14"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="47"/>
+      <c r="O27" s="52"/>
+      <c r="P27" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="Q27" s="56" t="s">
+      <c r="Q27" s="29" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B28" s="114"/>
-      <c r="C28" s="115"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="119"/>
-      <c r="F28" s="128"/>
-      <c r="G28" s="128"/>
-      <c r="H28" s="67"/>
-      <c r="J28" s="96"/>
-      <c r="K28" s="97"/>
-      <c r="L28" s="97"/>
-      <c r="M28" s="97"/>
-      <c r="N28" s="98"/>
-      <c r="O28" s="103"/>
-      <c r="P28" s="27" t="s">
+      <c r="B28" s="63"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="77"/>
+      <c r="H28" s="14"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="46"/>
+      <c r="N28" s="47"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="Q28" s="56" t="s">
+      <c r="Q28" s="29" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B29" s="116"/>
-      <c r="C29" s="117"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="120"/>
-      <c r="F29" s="128"/>
-      <c r="G29" s="128"/>
-      <c r="H29" s="67"/>
-      <c r="J29" s="96"/>
-      <c r="K29" s="97"/>
-      <c r="L29" s="97"/>
-      <c r="M29" s="97"/>
-      <c r="N29" s="98"/>
-      <c r="O29" s="103"/>
-      <c r="P29" s="27" t="s">
+      <c r="B29" s="65"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="77"/>
+      <c r="G29" s="77"/>
+      <c r="H29" s="14"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="46"/>
+      <c r="M29" s="46"/>
+      <c r="N29" s="47"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="Q29" s="56" t="s">
+      <c r="Q29" s="29" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J30" s="96"/>
-      <c r="K30" s="97"/>
-      <c r="L30" s="97"/>
-      <c r="M30" s="97"/>
-      <c r="N30" s="98"/>
-      <c r="O30" s="103"/>
-      <c r="P30" s="27" t="s">
+      <c r="J30" s="45"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="46"/>
+      <c r="M30" s="46"/>
+      <c r="N30" s="47"/>
+      <c r="O30" s="52"/>
+      <c r="P30" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="Q30" s="56" t="s">
+      <c r="Q30" s="29" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J31" s="96"/>
-      <c r="K31" s="97"/>
-      <c r="L31" s="97"/>
-      <c r="M31" s="97"/>
-      <c r="N31" s="98"/>
-      <c r="O31" s="103"/>
-      <c r="P31" s="27" t="s">
+      <c r="J31" s="45"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="46"/>
+      <c r="N31" s="47"/>
+      <c r="O31" s="52"/>
+      <c r="P31" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="Q31" s="56" t="s">
+      <c r="Q31" s="29" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J32" s="96"/>
-      <c r="K32" s="97"/>
-      <c r="L32" s="97"/>
-      <c r="M32" s="97"/>
-      <c r="N32" s="98"/>
-      <c r="O32" s="103"/>
-      <c r="P32" s="27" t="s">
+      <c r="J32" s="45"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="46"/>
+      <c r="M32" s="46"/>
+      <c r="N32" s="47"/>
+      <c r="O32" s="52"/>
+      <c r="P32" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="Q32" s="56" t="s">
+      <c r="Q32" s="29" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="33" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J33" s="96"/>
-      <c r="K33" s="97"/>
-      <c r="L33" s="97"/>
-      <c r="M33" s="97"/>
-      <c r="N33" s="98"/>
-      <c r="O33" s="103"/>
-      <c r="P33" s="27" t="s">
+      <c r="J33" s="45"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="46"/>
+      <c r="M33" s="46"/>
+      <c r="N33" s="47"/>
+      <c r="O33" s="52"/>
+      <c r="P33" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="Q33" s="56" t="s">
+      <c r="Q33" s="29" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="34" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J34" s="96"/>
-      <c r="K34" s="97"/>
-      <c r="L34" s="97"/>
-      <c r="M34" s="97"/>
-      <c r="N34" s="98"/>
-      <c r="O34" s="103"/>
-      <c r="P34" s="27" t="s">
+      <c r="J34" s="45"/>
+      <c r="K34" s="46"/>
+      <c r="L34" s="46"/>
+      <c r="M34" s="46"/>
+      <c r="N34" s="47"/>
+      <c r="O34" s="52"/>
+      <c r="P34" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="Q34" s="56" t="s">
+      <c r="Q34" s="29" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="35" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J35" s="96"/>
-      <c r="K35" s="97"/>
-      <c r="L35" s="97"/>
-      <c r="M35" s="97"/>
-      <c r="N35" s="98"/>
-      <c r="O35" s="103"/>
-      <c r="P35" s="27" t="s">
+      <c r="J35" s="45"/>
+      <c r="K35" s="46"/>
+      <c r="L35" s="46"/>
+      <c r="M35" s="46"/>
+      <c r="N35" s="47"/>
+      <c r="O35" s="52"/>
+      <c r="P35" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="Q35" s="56" t="s">
+      <c r="Q35" s="29" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="36" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J36" s="96"/>
-      <c r="K36" s="97"/>
-      <c r="L36" s="97"/>
-      <c r="M36" s="97"/>
-      <c r="N36" s="98"/>
-      <c r="O36" s="103"/>
-      <c r="P36" s="27" t="s">
+      <c r="J36" s="45"/>
+      <c r="K36" s="46"/>
+      <c r="L36" s="46"/>
+      <c r="M36" s="46"/>
+      <c r="N36" s="47"/>
+      <c r="O36" s="52"/>
+      <c r="P36" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="Q36" s="56" t="s">
+      <c r="Q36" s="29" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="37" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J37" s="96"/>
-      <c r="K37" s="97"/>
-      <c r="L37" s="97"/>
-      <c r="M37" s="97"/>
-      <c r="N37" s="98"/>
-      <c r="O37" s="103"/>
-      <c r="P37" s="27" t="s">
+      <c r="J37" s="45"/>
+      <c r="K37" s="46"/>
+      <c r="L37" s="46"/>
+      <c r="M37" s="46"/>
+      <c r="N37" s="47"/>
+      <c r="O37" s="52"/>
+      <c r="P37" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="Q37" s="56" t="s">
+      <c r="Q37" s="29" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="38" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J38" s="99"/>
-      <c r="K38" s="100"/>
-      <c r="L38" s="100"/>
-      <c r="M38" s="100"/>
-      <c r="N38" s="101"/>
-      <c r="O38" s="103"/>
-      <c r="P38" s="27" t="s">
+      <c r="J38" s="48"/>
+      <c r="K38" s="49"/>
+      <c r="L38" s="49"/>
+      <c r="M38" s="49"/>
+      <c r="N38" s="50"/>
+      <c r="O38" s="52"/>
+      <c r="P38" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="Q38" s="56" t="s">
+      <c r="Q38" s="29" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="39" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="P39" s="27" t="s">
+      <c r="P39" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="Q39" s="56" t="s">
+      <c r="Q39" s="29" t="s">
         <v>224</v>
       </c>
     </row>
@@ -3065,7 +2918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="I4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
@@ -3086,1129 +2939,1129 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A1" s="111"/>
-      <c r="B1" s="111"/>
-      <c r="C1" s="106" t="s">
+      <c r="A1" s="60"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106" t="s">
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106" t="s">
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106" t="s">
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="106"/>
-      <c r="S1" s="106" t="s">
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="106"/>
-      <c r="U1" s="106"/>
-      <c r="V1" s="106"/>
-      <c r="W1" s="106"/>
-      <c r="X1" s="106"/>
-      <c r="Y1" s="106"/>
-      <c r="Z1" s="106"/>
-      <c r="AA1" s="106"/>
-      <c r="AB1" s="106"/>
-      <c r="AC1" s="106"/>
-      <c r="AD1" s="106"/>
-      <c r="AE1" s="106"/>
-      <c r="AF1" s="106"/>
-      <c r="AG1" s="106"/>
-      <c r="AH1" s="106"/>
-      <c r="AI1" s="106"/>
-      <c r="AJ1" s="106"/>
-      <c r="AK1" s="106"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="55"/>
+      <c r="AD1" s="55"/>
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="55"/>
+      <c r="AG1" s="55"/>
+      <c r="AH1" s="55"/>
+      <c r="AI1" s="55"/>
+      <c r="AJ1" s="55"/>
+      <c r="AK1" s="55"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A2" s="111"/>
-      <c r="B2" s="111"/>
-      <c r="C2" s="131" t="s">
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131" t="s">
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131" t="s">
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="106" t="s">
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="106"/>
-      <c r="N2" s="106"/>
-      <c r="O2" s="106" t="s">
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="106"/>
-      <c r="Q2" s="106"/>
-      <c r="R2" s="128" t="s">
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="77" t="s">
         <v>81</v>
       </c>
-      <c r="S2" s="130" t="s">
-        <v>0</v>
-      </c>
-      <c r="T2" s="131" t="s">
+      <c r="S2" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="U2" s="131"/>
-      <c r="V2" s="131"/>
-      <c r="W2" s="106" t="s">
+      <c r="U2" s="55"/>
+      <c r="V2" s="55"/>
+      <c r="W2" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="X2" s="106"/>
-      <c r="Y2" s="106"/>
-      <c r="Z2" s="104" t="s">
+      <c r="X2" s="55"/>
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="AA2" s="129"/>
-      <c r="AB2" s="105"/>
-      <c r="AC2" s="106" t="s">
+      <c r="AA2" s="78"/>
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="AD2" s="106"/>
-      <c r="AE2" s="106"/>
-      <c r="AF2" s="106" t="s">
+      <c r="AD2" s="55"/>
+      <c r="AE2" s="55"/>
+      <c r="AF2" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="AG2" s="106"/>
-      <c r="AH2" s="106"/>
-      <c r="AI2" s="106" t="s">
+      <c r="AG2" s="55"/>
+      <c r="AH2" s="55"/>
+      <c r="AI2" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="AJ2" s="106"/>
-      <c r="AK2" s="106"/>
+      <c r="AJ2" s="55"/>
+      <c r="AK2" s="55"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="L3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="M3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="16" t="s">
+      <c r="N3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="O3" s="16" t="s">
+      <c r="O3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="P3" s="16" t="s">
+      <c r="P3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q3" s="16" t="s">
+      <c r="Q3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="R3" s="128"/>
-      <c r="S3" s="130"/>
-      <c r="T3" s="16" t="s">
+      <c r="R3" s="77"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="U3" s="16" t="s">
+      <c r="U3" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="V3" s="16" t="s">
+      <c r="V3" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="W3" s="25" t="s">
+      <c r="W3" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="X3" s="25" t="s">
+      <c r="X3" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="Y3" s="25" t="s">
+      <c r="Y3" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="Z3" s="25" t="s">
+      <c r="Z3" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AA3" s="25" t="s">
+      <c r="AA3" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AB3" s="25" t="s">
+      <c r="AB3" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AC3" s="25" t="s">
+      <c r="AC3" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="AD3" s="25" t="s">
+      <c r="AD3" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AE3" s="25" t="s">
+      <c r="AE3" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="AF3" s="25" t="s">
+      <c r="AF3" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AG3" s="25" t="s">
+      <c r="AG3" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AH3" s="25" t="s">
+      <c r="AH3" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AI3" s="26" t="s">
+      <c r="AI3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="AJ3" s="26" t="s">
+      <c r="AJ3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="AK3" s="26" t="s">
+      <c r="AK3" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A4" s="69">
+      <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="69">
-        <v>0</v>
-      </c>
-      <c r="D4" s="69">
-        <v>0</v>
-      </c>
-      <c r="E4" s="69">
-        <v>0</v>
-      </c>
-      <c r="F4" s="68">
-        <v>0</v>
-      </c>
-      <c r="G4" s="68">
-        <v>0</v>
-      </c>
-      <c r="H4" s="68">
-        <v>0</v>
-      </c>
-      <c r="I4" s="68">
-        <v>0</v>
-      </c>
-      <c r="J4" s="68">
-        <v>0</v>
-      </c>
-      <c r="K4" s="68">
-        <v>0</v>
-      </c>
-      <c r="L4" s="68">
-        <v>0</v>
-      </c>
-      <c r="M4" s="68">
-        <v>0</v>
-      </c>
-      <c r="N4" s="68">
-        <v>0</v>
-      </c>
-      <c r="O4" s="68">
-        <v>0</v>
-      </c>
-      <c r="P4" s="68">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="68">
-        <v>0</v>
-      </c>
-      <c r="R4" s="68">
-        <v>0</v>
-      </c>
-      <c r="S4" s="85">
-        <v>0</v>
-      </c>
-      <c r="T4" s="75">
-        <v>0</v>
-      </c>
-      <c r="U4" s="75">
-        <v>0</v>
-      </c>
-      <c r="V4" s="75">
-        <v>0</v>
-      </c>
-      <c r="W4" s="68">
-        <v>0</v>
-      </c>
-      <c r="X4" s="68">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="68">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="68">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="68">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="68">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="28">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="28">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="28">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="28">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="28">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="28">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="68">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="68">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="68">
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0</v>
+      </c>
+      <c r="N4" s="6">
+        <v>0</v>
+      </c>
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
+      <c r="P4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>0</v>
+      </c>
+      <c r="R4" s="6">
+        <v>0</v>
+      </c>
+      <c r="S4" s="6">
+        <v>0</v>
+      </c>
+      <c r="T4" s="6">
+        <v>0</v>
+      </c>
+      <c r="U4" s="6">
+        <v>0</v>
+      </c>
+      <c r="V4" s="6">
+        <v>0</v>
+      </c>
+      <c r="W4" s="6">
+        <v>0</v>
+      </c>
+      <c r="X4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A5" s="69">
+      <c r="A5" s="6">
         <v>2</v>
       </c>
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="C5" s="87">
+      <c r="C5" s="6">
         <v>9.1819999999999998E-4</v>
       </c>
-      <c r="D5" s="87">
+      <c r="D5" s="6">
         <v>-5.7000000000000003E-5</v>
       </c>
-      <c r="E5" s="70">
-        <v>0</v>
-      </c>
-      <c r="F5" s="77">
-        <v>0</v>
-      </c>
-      <c r="G5" s="77">
-        <v>0</v>
-      </c>
-      <c r="H5" s="77">
-        <v>0</v>
-      </c>
-      <c r="I5" s="77">
-        <v>0</v>
-      </c>
-      <c r="J5" s="77">
-        <v>0</v>
-      </c>
-      <c r="K5" s="77">
-        <v>0</v>
-      </c>
-      <c r="L5" s="80">
-        <v>0</v>
-      </c>
-      <c r="M5" s="80">
-        <v>0</v>
-      </c>
-      <c r="N5" s="80">
-        <v>0</v>
-      </c>
-      <c r="O5" s="68">
-        <v>0</v>
-      </c>
-      <c r="P5" s="68">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="88">
-        <v>0</v>
-      </c>
-      <c r="R5" s="88">
-        <v>0</v>
-      </c>
-      <c r="S5" s="60">
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0</v>
+      </c>
+      <c r="M5" s="6">
+        <v>0</v>
+      </c>
+      <c r="N5" s="6">
+        <v>0</v>
+      </c>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+      <c r="P5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>0</v>
+      </c>
+      <c r="R5" s="6">
+        <v>0</v>
+      </c>
+      <c r="S5" s="31">
         <v>4.3249999999999997E-2</v>
       </c>
-      <c r="T5" s="80">
-        <v>0</v>
-      </c>
-      <c r="U5" s="86">
-        <v>0</v>
-      </c>
-      <c r="V5" s="60">
+      <c r="T5" s="6">
+        <v>0</v>
+      </c>
+      <c r="U5" s="6">
+        <v>0</v>
+      </c>
+      <c r="V5" s="31">
         <v>2.1940000000000001E-6</v>
       </c>
-      <c r="W5" s="68">
-        <v>0</v>
-      </c>
-      <c r="X5" s="68">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="68">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="68">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="68">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="68">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="28">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="28">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="28">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="28">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="28">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="84">
+      <c r="W5" s="6">
+        <v>0</v>
+      </c>
+      <c r="X5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="41">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="AI5" s="68">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="68">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="68">
+      <c r="AI5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A6" s="69">
+      <c r="A6" s="6">
         <v>3</v>
       </c>
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="C6" s="90">
+      <c r="C6" s="6">
         <v>-4.4910000000000002E-3</v>
       </c>
-      <c r="D6" s="90">
+      <c r="D6" s="6">
         <v>2.788E-4</v>
       </c>
-      <c r="E6" s="78">
-        <v>0</v>
-      </c>
-      <c r="F6" s="77">
-        <v>0</v>
-      </c>
-      <c r="G6" s="77">
-        <v>0</v>
-      </c>
-      <c r="H6" s="77">
-        <v>0</v>
-      </c>
-      <c r="I6" s="77">
-        <v>0</v>
-      </c>
-      <c r="J6" s="77">
-        <v>0</v>
-      </c>
-      <c r="K6" s="77">
-        <v>0</v>
-      </c>
-      <c r="L6" s="80">
-        <v>0</v>
-      </c>
-      <c r="M6" s="80">
-        <v>0</v>
-      </c>
-      <c r="N6" s="80">
-        <v>0</v>
-      </c>
-      <c r="O6" s="77">
-        <v>0</v>
-      </c>
-      <c r="P6" s="77">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="88">
-        <v>0</v>
-      </c>
-      <c r="R6" s="88">
-        <v>0</v>
-      </c>
-      <c r="S6" s="60">
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="6">
+        <v>0</v>
+      </c>
+      <c r="N6" s="6">
+        <v>0</v>
+      </c>
+      <c r="O6" s="6">
+        <v>0</v>
+      </c>
+      <c r="P6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>0</v>
+      </c>
+      <c r="R6" s="6">
+        <v>0</v>
+      </c>
+      <c r="S6" s="31">
         <v>3.65E-3</v>
       </c>
-      <c r="T6" s="80">
-        <v>0</v>
-      </c>
-      <c r="U6" s="86">
-        <v>0</v>
-      </c>
-      <c r="V6" s="60">
+      <c r="T6" s="6">
+        <v>0</v>
+      </c>
+      <c r="U6" s="6">
+        <v>0</v>
+      </c>
+      <c r="V6" s="31">
         <v>4.4099999999999999E-7</v>
       </c>
-      <c r="W6" s="68">
-        <v>0</v>
-      </c>
-      <c r="X6" s="68">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="68">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="68">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="68">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="68">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="28">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="28">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="28">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="28">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="28">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="28">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="68">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="68">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="68">
+      <c r="W6" s="6">
+        <v>0</v>
+      </c>
+      <c r="X6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A7" s="69">
+      <c r="A7" s="6">
         <v>4</v>
       </c>
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="C7" s="91">
+      <c r="C7" s="6">
         <v>-1.874E-2</v>
       </c>
-      <c r="D7" s="92">
+      <c r="D7" s="31">
         <v>2.0480000000000002E-2</v>
       </c>
-      <c r="E7" s="78">
-        <v>0</v>
-      </c>
-      <c r="F7" s="77">
-        <v>0</v>
-      </c>
-      <c r="G7" s="77">
-        <v>0</v>
-      </c>
-      <c r="H7" s="77">
-        <v>0</v>
-      </c>
-      <c r="I7" s="77">
-        <v>0</v>
-      </c>
-      <c r="J7" s="77">
-        <v>0</v>
-      </c>
-      <c r="K7" s="77">
-        <v>0</v>
-      </c>
-      <c r="L7" s="80">
-        <v>0</v>
-      </c>
-      <c r="M7" s="80">
-        <v>0</v>
-      </c>
-      <c r="N7" s="80">
-        <v>0</v>
-      </c>
-      <c r="O7" s="77">
-        <v>0</v>
-      </c>
-      <c r="P7" s="77">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="88">
-        <v>0</v>
-      </c>
-      <c r="R7" s="88">
-        <v>0</v>
-      </c>
-      <c r="S7" s="60">
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0</v>
+      </c>
+      <c r="L7" s="6">
+        <v>0</v>
+      </c>
+      <c r="M7" s="6">
+        <v>0</v>
+      </c>
+      <c r="N7" s="6">
+        <v>0</v>
+      </c>
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
+      <c r="P7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>0</v>
+      </c>
+      <c r="R7" s="6">
+        <v>0</v>
+      </c>
+      <c r="S7" s="31">
         <v>2.3730000000000001E-2</v>
       </c>
-      <c r="T7" s="80">
-        <v>0</v>
-      </c>
-      <c r="U7" s="86">
-        <v>0</v>
-      </c>
-      <c r="V7" s="60">
+      <c r="T7" s="6">
+        <v>0</v>
+      </c>
+      <c r="U7" s="6">
+        <v>0</v>
+      </c>
+      <c r="V7" s="31">
         <v>5.2549999999999997E-6</v>
       </c>
-      <c r="W7" s="68">
-        <v>0</v>
-      </c>
-      <c r="X7" s="68">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="68">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="68">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="68">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="68">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="28">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="28">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="28">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="28">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="28">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="28">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="68">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="68">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="68">
+      <c r="W7" s="6">
+        <v>0</v>
+      </c>
+      <c r="X7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="6">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A8" s="69">
+      <c r="A8" s="6">
         <v>5</v>
       </c>
-      <c r="B8" s="69" t="s">
+      <c r="B8" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="C8" s="87">
+      <c r="C8" s="6">
         <v>-3.022E-2</v>
       </c>
-      <c r="D8" s="87">
+      <c r="D8" s="6">
         <v>1.2070000000000001E-2</v>
       </c>
-      <c r="E8" s="70">
-        <v>0</v>
-      </c>
-      <c r="F8" s="77">
-        <v>0</v>
-      </c>
-      <c r="G8" s="77">
-        <v>0</v>
-      </c>
-      <c r="H8" s="77">
-        <v>0</v>
-      </c>
-      <c r="I8" s="77">
-        <v>0</v>
-      </c>
-      <c r="J8" s="77">
-        <v>0</v>
-      </c>
-      <c r="K8" s="77">
-        <v>0</v>
-      </c>
-      <c r="L8" s="80">
-        <v>0</v>
-      </c>
-      <c r="M8" s="80">
-        <v>0</v>
-      </c>
-      <c r="N8" s="80">
-        <v>0</v>
-      </c>
-      <c r="O8" s="77">
-        <v>0</v>
-      </c>
-      <c r="P8" s="77">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="88">
-        <v>0</v>
-      </c>
-      <c r="R8" s="88">
-        <v>0</v>
-      </c>
-      <c r="S8" s="85">
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0</v>
+      </c>
+      <c r="L8" s="6">
+        <v>0</v>
+      </c>
+      <c r="M8" s="6">
+        <v>0</v>
+      </c>
+      <c r="N8" s="6">
+        <v>0</v>
+      </c>
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
+      <c r="P8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>0</v>
+      </c>
+      <c r="R8" s="6">
+        <v>0</v>
+      </c>
+      <c r="S8" s="6">
         <v>7.0600000000000003E-3</v>
       </c>
-      <c r="T8" s="80">
-        <v>0</v>
-      </c>
-      <c r="U8" s="86">
-        <v>0</v>
-      </c>
-      <c r="V8" s="60">
+      <c r="T8" s="6">
+        <v>0</v>
+      </c>
+      <c r="U8" s="6">
+        <v>0</v>
+      </c>
+      <c r="V8" s="31">
         <v>5.6670000000000001E-7</v>
       </c>
-      <c r="W8" s="68">
-        <v>0</v>
-      </c>
-      <c r="X8" s="68">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="68">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="68">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="68">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="68">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="28">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="28">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="28">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="28">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="28">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="28">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="68">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="68">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="68">
+      <c r="W8" s="6">
+        <v>0</v>
+      </c>
+      <c r="X8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="6">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A9" s="69">
+      <c r="A9" s="6">
         <v>6</v>
       </c>
-      <c r="B9" s="69" t="s">
+      <c r="B9" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="C9" s="87">
+      <c r="C9" s="6">
         <v>-5.3240000000000003E-2</v>
       </c>
-      <c r="D9" s="87">
+      <c r="D9" s="6">
         <v>1.6629999999999999E-2</v>
       </c>
-      <c r="E9" s="70">
-        <v>0</v>
-      </c>
-      <c r="F9" s="77">
-        <v>0</v>
-      </c>
-      <c r="G9" s="77">
-        <v>0</v>
-      </c>
-      <c r="H9" s="77">
-        <v>0</v>
-      </c>
-      <c r="I9" s="77">
-        <v>0</v>
-      </c>
-      <c r="J9" s="77">
-        <v>0</v>
-      </c>
-      <c r="K9" s="77">
-        <v>0</v>
-      </c>
-      <c r="L9" s="80">
-        <v>0</v>
-      </c>
-      <c r="M9" s="80">
-        <v>0</v>
-      </c>
-      <c r="N9" s="80">
-        <v>0</v>
-      </c>
-      <c r="O9" s="77">
-        <v>0</v>
-      </c>
-      <c r="P9" s="77">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="88">
-        <v>0</v>
-      </c>
-      <c r="R9" s="88">
-        <v>0</v>
-      </c>
-      <c r="S9" s="85">
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0</v>
+      </c>
+      <c r="L9" s="6">
+        <v>0</v>
+      </c>
+      <c r="M9" s="6">
+        <v>0</v>
+      </c>
+      <c r="N9" s="6">
+        <v>0</v>
+      </c>
+      <c r="O9" s="6">
+        <v>0</v>
+      </c>
+      <c r="P9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>0</v>
+      </c>
+      <c r="R9" s="6">
+        <v>0</v>
+      </c>
+      <c r="S9" s="6">
         <v>7.0499999999999993E-2</v>
       </c>
-      <c r="T9" s="80">
-        <v>0</v>
-      </c>
-      <c r="U9" s="86">
-        <v>0</v>
-      </c>
-      <c r="V9" s="60">
+      <c r="T9" s="6">
+        <v>0</v>
+      </c>
+      <c r="U9" s="6">
+        <v>0</v>
+      </c>
+      <c r="V9" s="31">
         <v>1.169E-5</v>
       </c>
-      <c r="W9" s="68">
-        <v>0</v>
-      </c>
-      <c r="X9" s="68">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="68">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="68">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="68">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="68">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="28">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="28">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="28">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="28">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="28">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="28">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="68">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="68">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="68">
+      <c r="W9" s="6">
+        <v>0</v>
+      </c>
+      <c r="X9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A10" s="69">
+      <c r="A10" s="6">
         <v>7</v>
       </c>
-      <c r="B10" s="69" t="s">
+      <c r="B10" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="C10" s="81">
+      <c r="C10" s="6">
         <v>-5.926E-2</v>
       </c>
-      <c r="D10" s="81">
+      <c r="D10" s="6">
         <v>-1.06E-2</v>
       </c>
-      <c r="E10" s="70">
-        <v>0</v>
-      </c>
-      <c r="F10" s="77">
-        <v>0</v>
-      </c>
-      <c r="G10" s="77">
-        <v>0</v>
-      </c>
-      <c r="H10" s="77">
-        <v>0</v>
-      </c>
-      <c r="I10" s="77">
-        <v>0</v>
-      </c>
-      <c r="J10" s="77">
-        <v>0</v>
-      </c>
-      <c r="K10" s="77">
-        <v>0</v>
-      </c>
-      <c r="L10" s="80">
-        <v>0</v>
-      </c>
-      <c r="M10" s="80">
-        <v>0</v>
-      </c>
-      <c r="N10" s="80">
-        <v>0</v>
-      </c>
-      <c r="O10" s="77">
-        <v>0</v>
-      </c>
-      <c r="P10" s="77">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="88">
-        <v>0</v>
-      </c>
-      <c r="R10" s="88">
-        <v>0</v>
-      </c>
-      <c r="S10" s="85">
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0</v>
+      </c>
+      <c r="K10" s="6">
+        <v>0</v>
+      </c>
+      <c r="L10" s="6">
+        <v>0</v>
+      </c>
+      <c r="M10" s="6">
+        <v>0</v>
+      </c>
+      <c r="N10" s="6">
+        <v>0</v>
+      </c>
+      <c r="O10" s="6">
+        <v>0</v>
+      </c>
+      <c r="P10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>0</v>
+      </c>
+      <c r="R10" s="6">
+        <v>0</v>
+      </c>
+      <c r="S10" s="6">
         <v>5.4980000000000001E-2</v>
       </c>
-      <c r="T10" s="80">
-        <v>0</v>
-      </c>
-      <c r="U10" s="86">
-        <v>0</v>
-      </c>
-      <c r="V10" s="60">
+      <c r="T10" s="6">
+        <v>0</v>
+      </c>
+      <c r="U10" s="6">
+        <v>0</v>
+      </c>
+      <c r="V10" s="31">
         <v>1.912E-5</v>
       </c>
-      <c r="W10" s="68">
-        <v>0</v>
-      </c>
-      <c r="X10" s="68">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="68">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="68">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="68">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="68">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="28">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="28">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="28">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="28">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="28">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="28">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="68">
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="68">
-        <v>0</v>
-      </c>
-      <c r="AK10" s="68">
+      <c r="W10" s="6">
+        <v>0</v>
+      </c>
+      <c r="X10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="6">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A11" s="69">
+      <c r="A11" s="6">
         <v>8</v>
       </c>
-      <c r="B11" s="69" t="s">
+      <c r="B11" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="C11" s="81">
+      <c r="C11" s="6">
         <v>-2.8539999999999999E-2</v>
       </c>
-      <c r="D11" s="81">
+      <c r="D11" s="6">
         <v>-1.072E-2</v>
       </c>
-      <c r="E11" s="70">
-        <v>0</v>
-      </c>
-      <c r="F11" s="77">
-        <v>0</v>
-      </c>
-      <c r="G11" s="77">
-        <v>0</v>
-      </c>
-      <c r="H11" s="77">
-        <v>0</v>
-      </c>
-      <c r="I11" s="77">
-        <v>0</v>
-      </c>
-      <c r="J11" s="77">
-        <v>0</v>
-      </c>
-      <c r="K11" s="77">
-        <v>0</v>
-      </c>
-      <c r="L11" s="80">
-        <v>0</v>
-      </c>
-      <c r="M11" s="80">
-        <v>0</v>
-      </c>
-      <c r="N11" s="80">
-        <v>0</v>
-      </c>
-      <c r="O11" s="77">
-        <v>0</v>
-      </c>
-      <c r="P11" s="77">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="88">
-        <v>0</v>
-      </c>
-      <c r="R11" s="88">
-        <v>0</v>
-      </c>
-      <c r="S11" s="80">
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0</v>
+      </c>
+      <c r="K11" s="6">
+        <v>0</v>
+      </c>
+      <c r="L11" s="6">
+        <v>0</v>
+      </c>
+      <c r="M11" s="6">
+        <v>0</v>
+      </c>
+      <c r="N11" s="6">
+        <v>0</v>
+      </c>
+      <c r="O11" s="6">
+        <v>0</v>
+      </c>
+      <c r="P11" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>0</v>
+      </c>
+      <c r="R11" s="6">
+        <v>0</v>
+      </c>
+      <c r="S11" s="6">
         <v>7.0600000000000003E-3</v>
       </c>
-      <c r="T11" s="80">
-        <v>0</v>
-      </c>
-      <c r="U11" s="86">
-        <v>0</v>
-      </c>
-      <c r="V11" s="60">
+      <c r="T11" s="6">
+        <v>0</v>
+      </c>
+      <c r="U11" s="6">
+        <v>0</v>
+      </c>
+      <c r="V11" s="31">
         <v>5.6670000000000001E-7</v>
       </c>
-      <c r="W11" s="68">
-        <v>0</v>
-      </c>
-      <c r="X11" s="68">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="68">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="68">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="68">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="68">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="28">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="28">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="28">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="28">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="28">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="28">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="68">
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="68">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="68">
+      <c r="W11" s="6">
+        <v>0</v>
+      </c>
+      <c r="X11" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="6">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="6">
         <v>0</v>
       </c>
     </row>
@@ -4218,9 +4071,9 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -4236,9 +4089,9 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -4254,9 +4107,9 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -4268,9 +4121,9 @@
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -4282,9 +4135,9 @@
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -4295,47 +4148,47 @@
       <c r="P16" s="1"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
+      <c r="A17" s="1"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C25" s="1"/>
@@ -7030,991 +6883,972 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="134" t="s">
+      <c r="F2" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="134"/>
-      <c r="H2" s="134"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
     </row>
     <row r="5" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="133" t="s">
+      <c r="A5" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="133"/>
-      <c r="C5" s="133"/>
-      <c r="D5" s="133"/>
-      <c r="E5" s="133"/>
-      <c r="F5" s="133"/>
-      <c r="G5" s="133"/>
-      <c r="H5" s="133"/>
-      <c r="I5" s="133"/>
-      <c r="J5" s="133"/>
-      <c r="K5" s="133"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="138" t="s">
+      <c r="F6" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="139"/>
-      <c r="H6" s="140"/>
-      <c r="I6" s="138" t="s">
+      <c r="G6" s="87"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="139"/>
-      <c r="K6" s="140"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
     </row>
     <row r="8" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="133" t="s">
+      <c r="A8" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="133"/>
-      <c r="C8" s="133"/>
-      <c r="D8" s="133"/>
-      <c r="E8" s="133"/>
-      <c r="F8" s="133"/>
-      <c r="G8" s="133"/>
-      <c r="H8" s="133"/>
-      <c r="I8" s="133"/>
-      <c r="J8" s="133"/>
-      <c r="K8" s="133"/>
-      <c r="L8" s="133"/>
-      <c r="M8" s="133"/>
-      <c r="N8" s="133"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="81"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="81"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="134" t="s">
+      <c r="F9" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="134"/>
-      <c r="H9" s="134"/>
-      <c r="I9" s="132" t="s">
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="J9" s="132"/>
-      <c r="K9" s="132"/>
-      <c r="L9" s="132" t="s">
+      <c r="J9" s="80"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="80" t="s">
         <v>238</v>
       </c>
-      <c r="M9" s="132"/>
-      <c r="N9" s="132"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="10"/>
+      <c r="M9" s="80"/>
+      <c r="N9" s="80"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="9"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
     </row>
     <row r="12" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="133" t="s">
+      <c r="A12" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="133"/>
-      <c r="C12" s="133"/>
-      <c r="D12" s="133"/>
-      <c r="E12" s="133"/>
-      <c r="F12" s="133"/>
-      <c r="G12" s="133"/>
-      <c r="H12" s="133"/>
-      <c r="I12" s="133"/>
-      <c r="J12" s="133"/>
-      <c r="K12" s="133"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="10"/>
-      <c r="X12" s="10"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="81"/>
+      <c r="K12" s="81"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="134" t="s">
+      <c r="F13" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="134"/>
-      <c r="H13" s="134"/>
-      <c r="I13" s="132" t="s">
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="J13" s="132"/>
-      <c r="K13" s="132"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="10"/>
-      <c r="X13" s="10"/>
+      <c r="J13" s="80"/>
+      <c r="K13" s="80"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
+      <c r="A14" s="1">
         <v>1</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="1">
         <v>1</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="1">
         <v>2</v>
       </c>
-      <c r="F14" s="13">
-        <v>0</v>
-      </c>
-      <c r="G14" s="13">
-        <v>0</v>
-      </c>
-      <c r="H14" s="13">
-        <v>0</v>
-      </c>
-      <c r="I14" s="41">
-        <v>0</v>
-      </c>
-      <c r="J14" s="41">
-        <v>0</v>
-      </c>
-      <c r="K14" s="13">
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
         <v>0.1</v>
       </c>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
-      <c r="X14" s="10"/>
-    </row>
-    <row r="15" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17">
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+    </row>
+    <row r="15" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
         <v>2</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="1">
         <v>2</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="1">
         <v>3</v>
       </c>
-      <c r="F15" s="41">
+      <c r="F15" s="1">
         <v>6.9899999999999997E-3</v>
       </c>
-      <c r="G15" s="41">
+      <c r="G15" s="1">
         <v>-4.2999999999999999E-4</v>
       </c>
-      <c r="H15" s="41">
-        <v>0</v>
-      </c>
-      <c r="I15" s="41">
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
         <v>6.9899999999999997E-3</v>
       </c>
-      <c r="J15" s="41">
+      <c r="J15" s="1">
         <v>-4.2999999999999999E-4</v>
       </c>
-      <c r="K15" s="17">
+      <c r="K15" s="7">
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:24" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17">
+    <row r="16" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
         <v>3</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="D16" s="41">
+      <c r="D16" s="1">
         <v>3</v>
       </c>
-      <c r="E16" s="41">
+      <c r="E16" s="1">
         <v>4</v>
       </c>
-      <c r="F16" s="41">
+      <c r="F16" s="1">
         <v>-2.0959999999999999E-2</v>
       </c>
-      <c r="G16" s="41">
+      <c r="G16" s="1">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="H16" s="41">
-        <v>0</v>
-      </c>
-      <c r="I16" s="41">
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
         <v>-2.0959999999999999E-2</v>
       </c>
-      <c r="J16" s="41">
+      <c r="J16" s="1">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="K16" s="41">
+      <c r="K16" s="1">
         <v>0.1</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A17" s="73">
+      <c r="A17" s="7">
         <v>4</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="1">
         <v>4</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="1">
         <v>1</v>
       </c>
-      <c r="F17" s="41">
+      <c r="F17" s="1">
         <v>-3.635E-2</v>
       </c>
-      <c r="G17" s="41">
+      <c r="G17" s="1">
         <v>3.2730000000000002E-2</v>
       </c>
-      <c r="H17" s="41">
-        <v>0</v>
-      </c>
-      <c r="I17" s="41">
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
         <v>-3.635E-2</v>
       </c>
-      <c r="J17" s="41">
+      <c r="J17" s="1">
         <v>3.2730000000000002E-2</v>
       </c>
-      <c r="K17" s="41">
+      <c r="K17" s="1">
         <v>0.1</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A18" s="73">
+      <c r="A18" s="7">
         <v>5</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18" s="1">
         <v>4</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="1">
         <v>5</v>
       </c>
-      <c r="F18" s="41">
+      <c r="F18" s="1">
         <v>-2.0959999999999999E-2</v>
       </c>
-      <c r="G18" s="41">
+      <c r="G18" s="1">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="H18" s="41">
-        <v>0</v>
-      </c>
-      <c r="I18" s="41">
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
         <v>-2.0959999999999999E-2</v>
       </c>
-      <c r="J18" s="41">
+      <c r="J18" s="1">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="K18" s="41">
+      <c r="K18" s="1">
         <v>0.1</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A19" s="73">
+      <c r="A19" s="7">
         <v>6</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19" s="1">
         <v>5</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E19" s="1">
         <v>6</v>
       </c>
-      <c r="F19" s="41">
+      <c r="F19" s="1">
         <v>-3.4000000000000002E-2</v>
       </c>
-      <c r="G19" s="41">
+      <c r="G19" s="1">
         <v>1.6459999999999999E-2</v>
       </c>
-      <c r="H19" s="41">
-        <v>0</v>
-      </c>
-      <c r="I19" s="41">
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
         <v>-3.4000000000000002E-2</v>
       </c>
-      <c r="J19" s="41">
+      <c r="J19" s="1">
         <v>1.6459999999999999E-2</v>
       </c>
-      <c r="K19" s="41">
+      <c r="K19" s="1">
         <v>0.1</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" s="73">
+      <c r="A20" s="7">
         <v>7</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D20" s="1">
         <v>6</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E20" s="1">
         <v>1</v>
       </c>
-      <c r="F20" s="41">
+      <c r="F20" s="1">
         <v>-6.9339999999999999E-2</v>
       </c>
-      <c r="G20" s="41">
+      <c r="G20" s="1">
         <v>-2.2699999999999999E-3</v>
       </c>
-      <c r="H20" s="41">
-        <v>0</v>
-      </c>
-      <c r="I20" s="41">
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
         <v>-6.9339999999999999E-2</v>
       </c>
-      <c r="J20" s="41">
+      <c r="J20" s="1">
         <v>-2.2699999999999999E-3</v>
       </c>
-      <c r="K20" s="41">
+      <c r="K20" s="1">
         <v>0.1</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A21" s="73">
+      <c r="A21" s="7">
         <v>8</v>
       </c>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D21" s="1">
         <v>1</v>
       </c>
-      <c r="E21" s="20">
+      <c r="E21" s="1">
         <v>7</v>
       </c>
-      <c r="F21" s="41">
+      <c r="F21" s="1">
         <v>-6.9339999999999999E-2</v>
       </c>
-      <c r="G21" s="41">
+      <c r="G21" s="1">
         <v>-2.2699999999999999E-3</v>
       </c>
-      <c r="H21" s="41">
-        <v>0</v>
-      </c>
-      <c r="I21" s="41">
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
         <v>-6.9339999999999999E-2</v>
       </c>
-      <c r="J21" s="41">
+      <c r="J21" s="1">
         <v>-2.2699999999999999E-3</v>
       </c>
-      <c r="K21" s="41">
+      <c r="K21" s="1">
         <v>0.1</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A22" s="73">
+      <c r="A22" s="7">
         <v>9</v>
       </c>
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D22" s="1">
         <v>7</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E22" s="1">
         <v>8</v>
       </c>
-      <c r="F22" s="41">
+      <c r="F22" s="1">
         <v>-3.1629999999999998E-2</v>
       </c>
-      <c r="G22" s="41">
+      <c r="G22" s="1">
         <v>-1.562E-2</v>
       </c>
-      <c r="H22" s="41">
-        <v>0</v>
-      </c>
-      <c r="I22" s="41">
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
         <v>-3.1629999999999998E-2</v>
       </c>
-      <c r="J22" s="41">
+      <c r="J22" s="1">
         <v>-1.562E-2</v>
       </c>
-      <c r="K22" s="41">
+      <c r="K22" s="1">
         <v>0.1</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A23" s="73">
+      <c r="A23" s="7">
         <v>10</v>
       </c>
-      <c r="B23" s="41" t="s">
+      <c r="B23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="D23" s="20">
+      <c r="D23" s="1">
         <v>8</v>
       </c>
-      <c r="E23" s="20">
+      <c r="E23" s="1">
         <v>3</v>
       </c>
-      <c r="F23" s="41">
+      <c r="F23" s="1">
         <v>-2.0959999999999999E-2</v>
       </c>
-      <c r="G23" s="41">
+      <c r="G23" s="1">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="H23" s="41">
-        <v>0</v>
-      </c>
-      <c r="I23" s="41">
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
         <v>-2.0959999999999999E-2</v>
       </c>
-      <c r="J23" s="41">
+      <c r="J23" s="1">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="K23" s="41">
+      <c r="K23" s="1">
         <v>0.1</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="82"/>
-      <c r="J24" s="82"/>
-      <c r="K24" s="19"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="10"/>
-      <c r="V24" s="10"/>
-      <c r="W24" s="10"/>
-      <c r="X24" s="10"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="7"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
     </row>
     <row r="25" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="133" t="s">
+      <c r="A25" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="133"/>
-      <c r="C25" s="133"/>
-      <c r="D25" s="133"/>
-      <c r="E25" s="133"/>
-      <c r="F25" s="133"/>
-      <c r="G25" s="133"/>
-      <c r="H25" s="133"/>
-      <c r="I25" s="133"/>
-      <c r="J25" s="133"/>
-      <c r="K25" s="133"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="10"/>
-      <c r="T25" s="10"/>
-      <c r="U25" s="10"/>
-      <c r="V25" s="10"/>
-      <c r="W25" s="10"/>
-      <c r="X25" s="10"/>
-    </row>
-    <row r="26" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
+      <c r="B25" s="81"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="81"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="81"/>
+      <c r="J25" s="81"/>
+      <c r="K25" s="81"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+    </row>
+    <row r="26" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="15" t="s">
+      <c r="E26" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="134" t="s">
+      <c r="F26" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="G26" s="134"/>
-      <c r="H26" s="134"/>
-      <c r="I26" s="132" t="s">
+      <c r="G26" s="82"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="J26" s="132"/>
-      <c r="K26" s="132"/>
-    </row>
-    <row r="27" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
+      <c r="J26" s="80"/>
+      <c r="K26" s="80"/>
+    </row>
+    <row r="27" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
     </row>
     <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="9"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
-      <c r="T28" s="10"/>
-      <c r="U28" s="10"/>
-      <c r="V28" s="10"/>
-      <c r="W28" s="10"/>
-      <c r="X28" s="10"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
     </row>
     <row r="29" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="133" t="s">
+      <c r="A29" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="133"/>
-      <c r="C29" s="133"/>
-      <c r="D29" s="133"/>
-      <c r="E29" s="133"/>
-      <c r="F29" s="133"/>
-      <c r="G29" s="133"/>
-      <c r="H29" s="133"/>
-      <c r="I29" s="133"/>
-      <c r="J29" s="133"/>
-      <c r="K29" s="133"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="10"/>
-      <c r="T29" s="10"/>
-      <c r="U29" s="10"/>
-      <c r="V29" s="10"/>
-      <c r="W29" s="10"/>
-      <c r="X29" s="10"/>
-    </row>
-    <row r="30" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
+      <c r="B29" s="81"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="81"/>
+      <c r="J29" s="81"/>
+      <c r="K29" s="81"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+    </row>
+    <row r="30" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="15" t="s">
+      <c r="E30" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F30" s="134" t="s">
+      <c r="F30" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="G30" s="134"/>
-      <c r="H30" s="134"/>
-      <c r="I30" s="132" t="s">
+      <c r="G30" s="82"/>
+      <c r="H30" s="82"/>
+      <c r="I30" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="J30" s="132"/>
-      <c r="K30" s="132"/>
-    </row>
-    <row r="31" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:24" s="17" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="133" t="s">
+      <c r="J30" s="80"/>
+      <c r="K30" s="80"/>
+    </row>
+    <row r="31" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:24" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="81" t="s">
         <v>117</v>
       </c>
-      <c r="B32" s="133"/>
-      <c r="C32" s="133"/>
-      <c r="D32" s="133"/>
-      <c r="E32" s="133"/>
-      <c r="F32" s="133"/>
-      <c r="G32" s="133"/>
-      <c r="H32" s="133"/>
-      <c r="I32" s="133"/>
-      <c r="J32" s="133"/>
-      <c r="K32" s="133"/>
-      <c r="L32" s="133"/>
-      <c r="M32" s="133"/>
-      <c r="N32" s="133"/>
-    </row>
-    <row r="33" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="32" t="s">
+      <c r="B32" s="81"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="81"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="81"/>
+      <c r="H32" s="81"/>
+      <c r="I32" s="81"/>
+      <c r="J32" s="81"/>
+      <c r="K32" s="81"/>
+      <c r="L32" s="81"/>
+      <c r="M32" s="81"/>
+      <c r="N32" s="81"/>
+    </row>
+    <row r="33" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="32" t="s">
+      <c r="C33" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="32" t="s">
+      <c r="D33" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E33" s="32" t="s">
+      <c r="E33" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F33" s="134" t="s">
+      <c r="F33" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="G33" s="134"/>
-      <c r="H33" s="134"/>
-      <c r="I33" s="132" t="s">
+      <c r="G33" s="82"/>
+      <c r="H33" s="82"/>
+      <c r="I33" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="J33" s="132"/>
-      <c r="K33" s="132"/>
-      <c r="L33" s="132" t="s">
+      <c r="J33" s="80"/>
+      <c r="K33" s="80"/>
+      <c r="L33" s="80" t="s">
         <v>118</v>
       </c>
-      <c r="M33" s="132"/>
-      <c r="N33" s="132"/>
-    </row>
-    <row r="34" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:24" s="17" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="133" t="s">
+      <c r="M33" s="80"/>
+      <c r="N33" s="80"/>
+    </row>
+    <row r="34" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:24" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="81" t="s">
         <v>119</v>
       </c>
-      <c r="B36" s="133"/>
-      <c r="C36" s="133"/>
-      <c r="D36" s="133"/>
-      <c r="E36" s="133"/>
-      <c r="F36" s="133"/>
-      <c r="G36" s="133"/>
-      <c r="H36" s="133"/>
-      <c r="I36" s="133"/>
-      <c r="J36" s="133"/>
-      <c r="K36" s="133"/>
-      <c r="L36" s="133"/>
-      <c r="M36" s="133"/>
-      <c r="N36" s="133"/>
-      <c r="O36" s="133"/>
-      <c r="P36" s="133"/>
-      <c r="Q36" s="133"/>
-    </row>
-    <row r="37" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="32" t="s">
+      <c r="B36" s="81"/>
+      <c r="C36" s="81"/>
+      <c r="D36" s="81"/>
+      <c r="E36" s="81"/>
+      <c r="F36" s="81"/>
+      <c r="G36" s="81"/>
+      <c r="H36" s="81"/>
+      <c r="I36" s="81"/>
+      <c r="J36" s="81"/>
+      <c r="K36" s="81"/>
+      <c r="L36" s="81"/>
+      <c r="M36" s="81"/>
+      <c r="N36" s="81"/>
+      <c r="O36" s="81"/>
+      <c r="P36" s="81"/>
+      <c r="Q36" s="81"/>
+    </row>
+    <row r="37" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="32" t="s">
+      <c r="B37" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="32" t="s">
+      <c r="C37" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="32" t="s">
+      <c r="D37" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E37" s="32" t="s">
+      <c r="E37" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F37" s="138" t="s">
+      <c r="F37" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="G37" s="139"/>
-      <c r="H37" s="140"/>
-      <c r="I37" s="138" t="s">
+      <c r="G37" s="87"/>
+      <c r="H37" s="88"/>
+      <c r="I37" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="J37" s="139"/>
-      <c r="K37" s="140"/>
-      <c r="L37" s="132" t="s">
+      <c r="J37" s="87"/>
+      <c r="K37" s="88"/>
+      <c r="L37" s="80" t="s">
         <v>120</v>
       </c>
-      <c r="M37" s="132"/>
-      <c r="N37" s="132"/>
-      <c r="O37" s="132" t="s">
+      <c r="M37" s="80"/>
+      <c r="N37" s="80"/>
+      <c r="O37" s="80" t="s">
         <v>121</v>
       </c>
-      <c r="P37" s="132"/>
-      <c r="Q37" s="132"/>
-    </row>
-    <row r="38" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="19"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="19"/>
-      <c r="N38" s="19"/>
-      <c r="O38" s="19"/>
-      <c r="P38" s="19"/>
-      <c r="Q38" s="19"/>
-    </row>
-    <row r="39" spans="1:24" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P37" s="80"/>
+      <c r="Q37" s="80"/>
+    </row>
+    <row r="38" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+    </row>
+    <row r="39" spans="1:24" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H39"/>
       <c r="I39"/>
       <c r="J39"/>
@@ -8028,42 +7862,40 @@
       <c r="R39"/>
     </row>
     <row r="40" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A40" s="133" t="s">
+      <c r="A40" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="B40" s="133"/>
-      <c r="C40" s="133"/>
-      <c r="D40" s="133"/>
-      <c r="E40" s="133"/>
-      <c r="F40" s="133"/>
-      <c r="G40" s="11"/>
-      <c r="S40" s="10"/>
-      <c r="T40" s="10"/>
-      <c r="U40" s="10"/>
-      <c r="V40" s="10"/>
-      <c r="W40" s="10"/>
-      <c r="X40" s="10"/>
-    </row>
-    <row r="41" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="15" t="s">
+      <c r="B40" s="81"/>
+      <c r="C40" s="81"/>
+      <c r="D40" s="81"/>
+      <c r="E40" s="81"/>
+      <c r="F40" s="81"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="5"/>
+      <c r="W40" s="5"/>
+      <c r="X40" s="5"/>
+    </row>
+    <row r="41" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C41" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D41" s="15" t="s">
+      <c r="D41" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E41" s="15" t="s">
+      <c r="E41" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F41" s="15" t="s">
+      <c r="F41" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G41" s="12"/>
       <c r="H41"/>
       <c r="I41"/>
       <c r="J41"/>
@@ -8076,14 +7908,13 @@
       <c r="Q41"/>
       <c r="R41"/>
     </row>
-    <row r="42" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="19"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="12"/>
+    <row r="42" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
       <c r="H42"/>
       <c r="I42"/>
       <c r="J42"/>
@@ -8097,53 +7928,47 @@
       <c r="R42"/>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="S43" s="10"/>
-      <c r="T43" s="10"/>
-      <c r="U43" s="10"/>
-      <c r="V43" s="10"/>
-      <c r="W43" s="10"/>
-      <c r="X43" s="10"/>
+      <c r="A43" s="3"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="S43" s="5"/>
+      <c r="T43" s="5"/>
+      <c r="U43" s="5"/>
+      <c r="V43" s="5"/>
+      <c r="W43" s="5"/>
+      <c r="X43" s="5"/>
     </row>
     <row r="44" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="133" t="s">
+      <c r="A44" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="B44" s="133"/>
-      <c r="C44" s="133"/>
-      <c r="D44" s="133"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="S44" s="10"/>
-      <c r="T44" s="10"/>
-      <c r="U44" s="10"/>
-      <c r="V44" s="10"/>
-      <c r="W44" s="10"/>
-      <c r="X44" s="10"/>
-    </row>
-    <row r="45" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="14" t="s">
+      <c r="B44" s="81"/>
+      <c r="C44" s="81"/>
+      <c r="D44" s="81"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="5"/>
+      <c r="V44" s="5"/>
+      <c r="W44" s="5"/>
+      <c r="X44" s="5"/>
+    </row>
+    <row r="45" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
       <c r="H45"/>
       <c r="I45"/>
       <c r="J45"/>
@@ -8157,79 +7982,73 @@
       <c r="R45"/>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
+      <c r="A46" s="1">
         <v>1</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="1">
         <v>1</v>
       </c>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
     </row>
     <row r="48" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A48" s="135" t="s">
+      <c r="A48" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="B48" s="136"/>
-      <c r="C48" s="136"/>
-      <c r="D48" s="136"/>
-      <c r="E48" s="136"/>
-      <c r="F48" s="136"/>
-      <c r="G48" s="137"/>
+      <c r="B48" s="84"/>
+      <c r="C48" s="84"/>
+      <c r="D48" s="84"/>
+      <c r="E48" s="84"/>
+      <c r="F48" s="84"/>
+      <c r="G48" s="85"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="59" t="s">
+      <c r="A49" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="B49" s="59" t="s">
+      <c r="B49" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C49" s="59" t="s">
+      <c r="C49" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D49" s="59" t="s">
+      <c r="D49" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E49" s="132" t="s">
+      <c r="E49" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="F49" s="132"/>
-      <c r="G49" s="132"/>
-    </row>
-    <row r="50" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="41"/>
-      <c r="B50" s="41" t="s">
+      <c r="F49" s="80"/>
+      <c r="G49" s="80"/>
+    </row>
+    <row r="50" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C50" s="17" t="s">
+      <c r="C50" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="D50" s="17">
+      <c r="D50" s="7">
         <v>1</v>
       </c>
-      <c r="E50" s="17">
-        <v>0</v>
-      </c>
-      <c r="F50" s="17">
-        <v>0</v>
-      </c>
-      <c r="G50" s="17">
+      <c r="E50" s="7">
+        <v>0</v>
+      </c>
+      <c r="F50" s="7">
+        <v>0</v>
+      </c>
+      <c r="G50" s="7">
         <v>0</v>
       </c>
       <c r="H50"/>
@@ -8244,23 +8063,23 @@
       <c r="Q50"/>
       <c r="R50"/>
     </row>
-    <row r="51" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="41" t="s">
+    <row r="51" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C51" s="17" t="s">
+      <c r="C51" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="D51" s="17">
+      <c r="D51" s="7">
         <v>2</v>
       </c>
-      <c r="E51" s="17">
+      <c r="E51" s="7">
         <v>6.9899999999999997E-3</v>
       </c>
-      <c r="F51" s="17">
+      <c r="F51" s="7">
         <v>-4.2999999999999999E-4</v>
       </c>
-      <c r="G51" s="17">
+      <c r="G51" s="7">
         <v>0</v>
       </c>
       <c r="H51"/>
@@ -8275,24 +8094,24 @@
       <c r="Q51"/>
       <c r="R51"/>
     </row>
-    <row r="52" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="41"/>
-      <c r="B52" s="41" t="s">
+    <row r="52" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C52" s="17" t="s">
+      <c r="C52" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="D52" s="17">
+      <c r="D52" s="7">
         <v>3</v>
       </c>
-      <c r="E52" s="17">
+      <c r="E52" s="7">
         <v>-2.0959999999999999E-2</v>
       </c>
-      <c r="F52" s="17">
+      <c r="F52" s="7">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="G52" s="17">
+      <c r="G52" s="7">
         <v>0</v>
       </c>
       <c r="H52"/>
@@ -8308,204 +8127,204 @@
       <c r="R52"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="41"/>
-      <c r="B53" s="41" t="s">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C53" s="17" t="s">
+      <c r="C53" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="D53" s="17">
+      <c r="D53" s="7">
         <v>4</v>
       </c>
-      <c r="E53" s="17">
+      <c r="E53" s="7">
         <v>-3.635E-2</v>
       </c>
-      <c r="F53" s="17">
+      <c r="F53" s="7">
         <v>3.2730000000000002E-2</v>
       </c>
-      <c r="G53" s="17">
+      <c r="G53" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B54" s="41" t="s">
+      <c r="B54" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C54" s="17" t="s">
+      <c r="C54" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="D54" s="17">
+      <c r="D54" s="7">
         <v>4</v>
       </c>
-      <c r="E54" s="17">
+      <c r="E54" s="7">
         <v>-1.047E-2</v>
       </c>
-      <c r="F54" s="17">
+      <c r="F54" s="7">
         <v>2.5360000000000001E-2</v>
       </c>
-      <c r="G54" s="17">
+      <c r="G54" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B55" s="41" t="s">
+      <c r="B55" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C55" s="17" t="s">
+      <c r="C55" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="D55" s="17">
+      <c r="D55" s="7">
         <v>4</v>
       </c>
-      <c r="E55" s="17">
+      <c r="E55" s="7">
         <v>-2.0959999999999999E-2</v>
       </c>
-      <c r="F55" s="17">
+      <c r="F55" s="7">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="G55" s="17">
+      <c r="G55" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B56" s="41" t="s">
+      <c r="B56" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C56" s="17" t="s">
+      <c r="C56" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="D56" s="41">
+      <c r="D56" s="1">
         <v>5</v>
       </c>
-      <c r="E56" s="17">
+      <c r="E56" s="7">
         <v>-3.4000000000000002E-2</v>
       </c>
-      <c r="F56" s="17">
+      <c r="F56" s="7">
         <v>1.6459999999999999E-2</v>
       </c>
-      <c r="G56" s="17">
+      <c r="G56" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B57" s="41" t="s">
+      <c r="B57" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C57" s="17" t="s">
+      <c r="C57" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="D57" s="41">
+      <c r="D57" s="1">
         <v>6</v>
       </c>
-      <c r="E57" s="17">
+      <c r="E57" s="7">
         <v>-3.4000000000000002E-2</v>
       </c>
-      <c r="F57" s="17">
+      <c r="F57" s="7">
         <v>1.6459999999999999E-2</v>
       </c>
-      <c r="G57" s="17">
+      <c r="G57" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B58" s="41" t="s">
+      <c r="B58" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C58" s="17" t="s">
+      <c r="C58" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="D58" s="41">
+      <c r="D58" s="1">
         <v>6</v>
       </c>
-      <c r="E58" s="17">
+      <c r="E58" s="7">
         <v>-6.9339999999999999E-2</v>
       </c>
-      <c r="F58" s="17">
+      <c r="F58" s="7">
         <v>-2.2699999999999999E-3</v>
       </c>
-      <c r="G58" s="17">
+      <c r="G58" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B59" s="41" t="s">
+      <c r="B59" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C59" s="17" t="s">
+      <c r="C59" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="D59" s="41">
+      <c r="D59" s="1">
         <v>7</v>
       </c>
-      <c r="E59" s="17">
+      <c r="E59" s="7">
         <v>-6.9339999999999999E-2</v>
       </c>
-      <c r="F59" s="17">
+      <c r="F59" s="7">
         <v>-2.2699999999999999E-3</v>
       </c>
-      <c r="G59" s="17">
+      <c r="G59" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A60" s="13"/>
-      <c r="B60" s="41" t="s">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C60" s="41" t="s">
+      <c r="C60" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="D60" s="41">
+      <c r="D60" s="1">
         <v>7</v>
       </c>
-      <c r="E60" s="17">
+      <c r="E60" s="7">
         <v>-3.1629999999999998E-2</v>
       </c>
-      <c r="F60" s="17">
+      <c r="F60" s="7">
         <v>-1.562E-2</v>
       </c>
-      <c r="G60" s="17">
+      <c r="G60" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B61" s="41" t="s">
+      <c r="B61" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C61" s="41" t="s">
+      <c r="C61" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="D61" s="41">
+      <c r="D61" s="1">
         <v>8</v>
       </c>
-      <c r="E61" s="17">
+      <c r="E61" s="7">
         <v>-3.1629999999999998E-2</v>
       </c>
-      <c r="F61" s="17">
+      <c r="F61" s="7">
         <v>-1.562E-2</v>
       </c>
-      <c r="G61" s="17">
+      <c r="G61" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B62" s="41" t="s">
+      <c r="B62" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C62" s="17" t="s">
+      <c r="C62" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="D62" s="17">
+      <c r="D62" s="7">
         <v>8</v>
       </c>
-      <c r="E62" s="17">
+      <c r="E62" s="7">
         <v>-2.0959999999999999E-2</v>
       </c>
-      <c r="F62" s="17">
+      <c r="F62" s="7">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="G62" s="17">
+      <c r="G62" s="7">
         <v>0</v>
       </c>
     </row>
@@ -8580,55 +8399,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142" t="s">
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90" t="s">
         <v>246</v>
       </c>
-      <c r="K1" s="142"/>
+      <c r="K1" s="90"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="61" t="s">
+      <c r="E2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="132" t="s">
+      <c r="F2" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="132"/>
-      <c r="H2" s="132"/>
-      <c r="I2" s="61" t="s">
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="K2" s="4" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I3" s="23"/>
+      <c r="I3" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8670,580 +8489,580 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
-      <c r="K1" s="142"/>
-      <c r="L1" s="142"/>
-      <c r="M1" s="142"/>
-      <c r="N1" s="142"/>
-      <c r="O1" s="142"/>
-      <c r="P1" s="142"/>
-      <c r="Q1" s="142"/>
-      <c r="R1" s="142"/>
-      <c r="S1" s="142"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
     </row>
     <row r="2" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="133"/>
-      <c r="B2" s="133"/>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="133"/>
-      <c r="M2" s="133"/>
-      <c r="N2" s="143" t="s">
+      <c r="A2" s="81"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="91" t="s">
         <v>236</v>
       </c>
-      <c r="O2" s="144"/>
-      <c r="P2" s="144"/>
-      <c r="Q2" s="144"/>
-      <c r="R2" s="144"/>
-      <c r="S2" s="145"/>
-      <c r="AB2" s="157" t="s">
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="92"/>
+      <c r="S2" s="93"/>
+      <c r="AB2" s="105" t="s">
         <v>114</v>
       </c>
-      <c r="AC2" s="158"/>
-      <c r="AD2" s="158"/>
-      <c r="AE2" s="158"/>
-      <c r="AF2" s="158"/>
-      <c r="AG2" s="159"/>
-    </row>
-    <row r="3" spans="1:33" s="30" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="AC2" s="106"/>
+      <c r="AD2" s="106"/>
+      <c r="AE2" s="106"/>
+      <c r="AF2" s="106"/>
+      <c r="AG2" s="107"/>
+    </row>
+    <row r="3" spans="1:33" s="13" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="63" t="s">
+      <c r="D3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="63" t="s">
+      <c r="E3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="152" t="s">
+      <c r="F3" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="153"/>
-      <c r="H3" s="154"/>
-      <c r="I3" s="146" t="s">
+      <c r="G3" s="101"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="94" t="s">
         <v>47</v>
       </c>
-      <c r="J3" s="147"/>
-      <c r="K3" s="148"/>
-      <c r="L3" s="57" t="s">
+      <c r="J3" s="95"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="M3" s="35" t="s">
+      <c r="M3" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="N3" s="63" t="s">
+      <c r="N3" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="O3" s="63" t="s">
+      <c r="O3" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="P3" s="63" t="s">
+      <c r="P3" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="Q3" s="35" t="s">
+      <c r="Q3" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="R3" s="155" t="s">
+      <c r="R3" s="103" t="s">
         <v>113</v>
       </c>
-      <c r="S3" s="155"/>
-      <c r="AB3" s="160"/>
-      <c r="AC3" s="161"/>
-      <c r="AD3" s="161"/>
-      <c r="AE3" s="161"/>
-      <c r="AF3" s="161"/>
-      <c r="AG3" s="162"/>
-    </row>
-    <row r="4" spans="1:33" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71"/>
-      <c r="B4" s="71" t="s">
+      <c r="S3" s="103"/>
+      <c r="AB3" s="108"/>
+      <c r="AC3" s="109"/>
+      <c r="AD3" s="109"/>
+      <c r="AE3" s="109"/>
+      <c r="AF3" s="109"/>
+      <c r="AG3" s="110"/>
+    </row>
+    <row r="4" spans="1:33" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="35"/>
+      <c r="B4" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71">
+      <c r="C4" s="35"/>
+      <c r="D4" s="35">
         <v>1</v>
       </c>
-      <c r="E4" s="71">
+      <c r="E4" s="35">
         <v>4</v>
       </c>
-      <c r="F4" s="83">
+      <c r="F4" s="40">
         <v>1.4E-2</v>
       </c>
-      <c r="G4" s="83">
+      <c r="G4" s="40">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="H4" s="71">
-        <v>0</v>
-      </c>
-      <c r="I4" s="83">
+      <c r="H4" s="35">
+        <v>0</v>
+      </c>
+      <c r="I4" s="40">
         <v>-1.047E-2</v>
       </c>
-      <c r="J4" s="83">
+      <c r="J4" s="40">
         <v>2.5360000000000001E-2</v>
       </c>
-      <c r="K4" s="71">
-        <v>0</v>
-      </c>
-      <c r="L4" s="83">
+      <c r="K4" s="35">
+        <v>0</v>
+      </c>
+      <c r="L4" s="40">
         <v>7.7850000000000003E-2</v>
       </c>
-      <c r="M4" s="79">
+      <c r="M4" s="38">
         <v>4530</v>
       </c>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="71"/>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="71"/>
-      <c r="S4" s="71"/>
-      <c r="AB4" s="160"/>
-      <c r="AC4" s="161"/>
-      <c r="AD4" s="161"/>
-      <c r="AE4" s="161"/>
-      <c r="AF4" s="161"/>
-      <c r="AG4" s="162"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="AB4" s="108"/>
+      <c r="AC4" s="109"/>
+      <c r="AD4" s="109"/>
+      <c r="AE4" s="109"/>
+      <c r="AF4" s="109"/>
+      <c r="AG4" s="110"/>
     </row>
     <row r="5" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AB5" s="160"/>
-      <c r="AC5" s="161"/>
-      <c r="AD5" s="161"/>
-      <c r="AE5" s="161"/>
-      <c r="AF5" s="161"/>
-      <c r="AG5" s="162"/>
+      <c r="AB5" s="108"/>
+      <c r="AC5" s="109"/>
+      <c r="AD5" s="109"/>
+      <c r="AE5" s="109"/>
+      <c r="AF5" s="109"/>
+      <c r="AG5" s="110"/>
     </row>
     <row r="6" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="141" t="s">
+      <c r="A6" s="89" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="142"/>
-      <c r="C6" s="142"/>
-      <c r="D6" s="142"/>
-      <c r="E6" s="142"/>
-      <c r="F6" s="142"/>
-      <c r="G6" s="142"/>
-      <c r="H6" s="142"/>
-      <c r="I6" s="142"/>
-      <c r="J6" s="142"/>
-      <c r="K6" s="142"/>
-      <c r="L6" s="142"/>
-      <c r="M6" s="142"/>
-      <c r="N6" s="142"/>
-      <c r="O6" s="142"/>
-      <c r="P6" s="142"/>
-      <c r="Q6" s="142"/>
-      <c r="R6" s="142"/>
-      <c r="AB6" s="160"/>
-      <c r="AC6" s="161"/>
-      <c r="AD6" s="161"/>
-      <c r="AE6" s="161"/>
-      <c r="AF6" s="161"/>
-      <c r="AG6" s="162"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="90"/>
+      <c r="M6" s="90"/>
+      <c r="N6" s="90"/>
+      <c r="O6" s="90"/>
+      <c r="P6" s="90"/>
+      <c r="Q6" s="90"/>
+      <c r="R6" s="90"/>
+      <c r="AB6" s="108"/>
+      <c r="AC6" s="109"/>
+      <c r="AD6" s="109"/>
+      <c r="AE6" s="109"/>
+      <c r="AF6" s="109"/>
+      <c r="AG6" s="110"/>
     </row>
     <row r="7" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="133"/>
-      <c r="B7" s="133"/>
-      <c r="C7" s="133"/>
-      <c r="D7" s="133"/>
-      <c r="E7" s="133"/>
-      <c r="F7" s="133"/>
-      <c r="G7" s="133"/>
-      <c r="H7" s="133"/>
-      <c r="I7" s="133"/>
-      <c r="J7" s="133"/>
-      <c r="K7" s="133"/>
-      <c r="L7" s="133"/>
-      <c r="M7" s="133"/>
-      <c r="N7" s="156" t="s">
+      <c r="A7" s="81"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="81"/>
+      <c r="M7" s="81"/>
+      <c r="N7" s="104" t="s">
         <v>235</v>
       </c>
-      <c r="O7" s="156"/>
-      <c r="P7" s="156"/>
-      <c r="Q7" s="156"/>
-      <c r="R7" s="156"/>
-      <c r="AB7" s="160"/>
-      <c r="AC7" s="161"/>
-      <c r="AD7" s="161"/>
-      <c r="AE7" s="161"/>
-      <c r="AF7" s="161"/>
-      <c r="AG7" s="162"/>
-    </row>
-    <row r="8" spans="1:33" s="30" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="63" t="s">
+      <c r="O7" s="104"/>
+      <c r="P7" s="104"/>
+      <c r="Q7" s="104"/>
+      <c r="R7" s="104"/>
+      <c r="AB7" s="108"/>
+      <c r="AC7" s="109"/>
+      <c r="AD7" s="109"/>
+      <c r="AE7" s="109"/>
+      <c r="AF7" s="109"/>
+      <c r="AG7" s="110"/>
+    </row>
+    <row r="8" spans="1:33" s="13" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="63" t="s">
+      <c r="C8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="63" t="s">
+      <c r="D8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="63" t="s">
+      <c r="E8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="152" t="s">
+      <c r="F8" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="153"/>
-      <c r="H8" s="154"/>
-      <c r="I8" s="146" t="s">
+      <c r="G8" s="101"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="94" t="s">
         <v>47</v>
       </c>
-      <c r="J8" s="147"/>
-      <c r="K8" s="148"/>
-      <c r="L8" s="35" t="s">
+      <c r="J8" s="95"/>
+      <c r="K8" s="96"/>
+      <c r="L8" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="M8" s="36" t="s">
+      <c r="M8" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="N8" s="36" t="s">
+      <c r="N8" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="O8" s="36" t="s">
+      <c r="O8" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="P8" s="37" t="s">
+      <c r="P8" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="Q8" s="152" t="s">
+      <c r="Q8" s="100" t="s">
         <v>112</v>
       </c>
-      <c r="R8" s="154"/>
-      <c r="AB8" s="160"/>
-      <c r="AC8" s="161"/>
-      <c r="AD8" s="161"/>
-      <c r="AE8" s="161"/>
-      <c r="AF8" s="161"/>
-      <c r="AG8" s="162"/>
+      <c r="R8" s="102"/>
+      <c r="AB8" s="108"/>
+      <c r="AC8" s="109"/>
+      <c r="AD8" s="109"/>
+      <c r="AE8" s="109"/>
+      <c r="AF8" s="109"/>
+      <c r="AG8" s="110"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="Q9" s="41"/>
-      <c r="AB9" s="160"/>
-      <c r="AC9" s="161"/>
-      <c r="AD9" s="161"/>
-      <c r="AE9" s="161"/>
-      <c r="AF9" s="161"/>
-      <c r="AG9" s="162"/>
+      <c r="Q9" s="1"/>
+      <c r="AB9" s="108"/>
+      <c r="AC9" s="109"/>
+      <c r="AD9" s="109"/>
+      <c r="AE9" s="109"/>
+      <c r="AF9" s="109"/>
+      <c r="AG9" s="110"/>
     </row>
     <row r="10" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="141" t="s">
+      <c r="A10" s="89" t="s">
         <v>74</v>
       </c>
-      <c r="B10" s="142"/>
-      <c r="C10" s="142"/>
-      <c r="D10" s="142"/>
-      <c r="E10" s="142"/>
-      <c r="F10" s="142"/>
-      <c r="G10" s="142"/>
-      <c r="H10" s="142"/>
-      <c r="I10" s="142"/>
-      <c r="J10" s="142"/>
-      <c r="K10" s="142"/>
-      <c r="L10" s="142"/>
-      <c r="M10" s="142"/>
-      <c r="N10" s="142"/>
-      <c r="O10" s="142"/>
-      <c r="P10" s="142"/>
-      <c r="Q10" s="142"/>
-      <c r="R10" s="142"/>
-      <c r="S10" s="142"/>
-      <c r="T10" s="142"/>
-      <c r="U10" s="142"/>
-      <c r="V10" s="142"/>
-      <c r="W10" s="142"/>
-      <c r="X10" s="142"/>
-      <c r="Y10" s="142"/>
-      <c r="AB10" s="163"/>
-      <c r="AC10" s="164"/>
-      <c r="AD10" s="164"/>
-      <c r="AE10" s="164"/>
-      <c r="AF10" s="164"/>
-      <c r="AG10" s="165"/>
+      <c r="B10" s="90"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="90"/>
+      <c r="J10" s="90"/>
+      <c r="K10" s="90"/>
+      <c r="L10" s="90"/>
+      <c r="M10" s="90"/>
+      <c r="N10" s="90"/>
+      <c r="O10" s="90"/>
+      <c r="P10" s="90"/>
+      <c r="Q10" s="90"/>
+      <c r="R10" s="90"/>
+      <c r="S10" s="90"/>
+      <c r="T10" s="90"/>
+      <c r="U10" s="90"/>
+      <c r="V10" s="90"/>
+      <c r="W10" s="90"/>
+      <c r="X10" s="90"/>
+      <c r="Y10" s="90"/>
+      <c r="AB10" s="111"/>
+      <c r="AC10" s="112"/>
+      <c r="AD10" s="112"/>
+      <c r="AE10" s="112"/>
+      <c r="AF10" s="112"/>
+      <c r="AG10" s="113"/>
     </row>
     <row r="11" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="135"/>
-      <c r="B11" s="136"/>
-      <c r="C11" s="136"/>
-      <c r="D11" s="136"/>
-      <c r="E11" s="136"/>
-      <c r="F11" s="136"/>
-      <c r="G11" s="136"/>
-      <c r="H11" s="136"/>
-      <c r="I11" s="136"/>
-      <c r="J11" s="136"/>
-      <c r="K11" s="136"/>
-      <c r="L11" s="136"/>
-      <c r="M11" s="136"/>
-      <c r="N11" s="136"/>
-      <c r="O11" s="136"/>
-      <c r="P11" s="136"/>
-      <c r="Q11" s="136"/>
-      <c r="R11" s="136"/>
-      <c r="S11" s="137"/>
-      <c r="T11" s="143" t="s">
+      <c r="A11" s="83"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="84"/>
+      <c r="L11" s="84"/>
+      <c r="M11" s="84"/>
+      <c r="N11" s="84"/>
+      <c r="O11" s="84"/>
+      <c r="P11" s="84"/>
+      <c r="Q11" s="84"/>
+      <c r="R11" s="84"/>
+      <c r="S11" s="85"/>
+      <c r="T11" s="91" t="s">
         <v>237</v>
       </c>
-      <c r="U11" s="144"/>
-      <c r="V11" s="144"/>
-      <c r="W11" s="144"/>
-      <c r="X11" s="144"/>
-      <c r="Y11" s="145"/>
-      <c r="Z11" s="64"/>
-      <c r="AA11" s="64"/>
-    </row>
-    <row r="12" spans="1:33" s="30" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
+      <c r="U11" s="92"/>
+      <c r="V11" s="92"/>
+      <c r="W11" s="92"/>
+      <c r="X11" s="92"/>
+      <c r="Y11" s="93"/>
+      <c r="Z11" s="32"/>
+      <c r="AA11" s="32"/>
+    </row>
+    <row r="12" spans="1:33" s="13" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="166" t="s">
+      <c r="F12" s="79" t="s">
         <v>239</v>
       </c>
-      <c r="G12" s="166"/>
-      <c r="H12" s="166"/>
-      <c r="I12" s="146" t="s">
+      <c r="G12" s="79"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="94" t="s">
         <v>240</v>
       </c>
-      <c r="J12" s="147"/>
-      <c r="K12" s="148"/>
-      <c r="L12" s="149" t="s">
+      <c r="J12" s="95"/>
+      <c r="K12" s="96"/>
+      <c r="L12" s="97" t="s">
         <v>241</v>
       </c>
-      <c r="M12" s="150"/>
-      <c r="N12" s="151"/>
-      <c r="O12" s="149" t="s">
+      <c r="M12" s="98"/>
+      <c r="N12" s="99"/>
+      <c r="O12" s="97" t="s">
         <v>242</v>
       </c>
-      <c r="P12" s="150"/>
-      <c r="Q12" s="151"/>
-      <c r="R12" s="35" t="s">
+      <c r="P12" s="98"/>
+      <c r="Q12" s="99"/>
+      <c r="R12" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="S12" s="31" t="s">
+      <c r="S12" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="T12" s="63" t="s">
+      <c r="T12" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="U12" s="63" t="s">
+      <c r="U12" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="V12" s="63" t="s">
+      <c r="V12" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="W12" s="35" t="s">
+      <c r="W12" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="X12" s="152" t="s">
+      <c r="X12" s="100" t="s">
         <v>113</v>
       </c>
-      <c r="Y12" s="154"/>
+      <c r="Y12" s="102"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="41"/>
-      <c r="R13" s="33"/>
-      <c r="S13" s="33"/>
-      <c r="T13" s="33"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="33"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="33"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
     </row>
     <row r="15" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="141" t="s">
+      <c r="A15" s="89" t="s">
         <v>141</v>
       </c>
-      <c r="B15" s="142"/>
-      <c r="C15" s="142"/>
-      <c r="D15" s="142"/>
-      <c r="E15" s="142"/>
-      <c r="F15" s="142"/>
-      <c r="G15" s="142"/>
-      <c r="H15" s="142"/>
-      <c r="I15" s="142"/>
-      <c r="J15" s="142"/>
-      <c r="K15" s="142"/>
-      <c r="L15" s="142"/>
-      <c r="M15" s="142"/>
-      <c r="N15" s="142"/>
-      <c r="O15" s="142"/>
-      <c r="P15" s="142"/>
-      <c r="Q15" s="142"/>
+      <c r="B15" s="90"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="90"/>
+      <c r="K15" s="90"/>
+      <c r="L15" s="90"/>
+      <c r="M15" s="90"/>
+      <c r="N15" s="90"/>
+      <c r="O15" s="90"/>
+      <c r="P15" s="90"/>
+      <c r="Q15" s="90"/>
     </row>
     <row r="16" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="65"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="66"/>
-      <c r="L16" s="143" t="s">
+      <c r="A16" s="33"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="91" t="s">
         <v>236</v>
       </c>
-      <c r="M16" s="144"/>
-      <c r="N16" s="144"/>
-      <c r="O16" s="144"/>
-      <c r="P16" s="144"/>
-      <c r="Q16" s="145"/>
-    </row>
-    <row r="17" spans="1:17" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="62" t="s">
+      <c r="M16" s="92"/>
+      <c r="N16" s="92"/>
+      <c r="O16" s="92"/>
+      <c r="P16" s="92"/>
+      <c r="Q16" s="93"/>
+    </row>
+    <row r="17" spans="1:17" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="62" t="s">
+      <c r="B17" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="62" t="s">
+      <c r="C17" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="62" t="s">
+      <c r="D17" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="62" t="s">
+      <c r="E17" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="166" t="s">
+      <c r="F17" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="166"/>
-      <c r="H17" s="166"/>
-      <c r="I17" s="149" t="s">
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="97" t="s">
         <v>150</v>
       </c>
-      <c r="J17" s="150"/>
-      <c r="K17" s="151"/>
-      <c r="L17" s="63" t="s">
+      <c r="J17" s="98"/>
+      <c r="K17" s="99"/>
+      <c r="L17" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="M17" s="63" t="s">
+      <c r="M17" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="N17" s="63" t="s">
+      <c r="N17" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="O17" s="35" t="s">
+      <c r="O17" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="P17" s="152" t="s">
+      <c r="P17" s="100" t="s">
         <v>113</v>
       </c>
-      <c r="Q17" s="154"/>
+      <c r="Q17" s="102"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="41"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="41"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="41"/>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="26">
@@ -9295,537 +9114,537 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="81" t="s">
         <v>225</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="F1" s="122" t="s">
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="F1" s="71" t="s">
         <v>147</v>
       </c>
-      <c r="G1" s="124"/>
-      <c r="I1" s="122" t="s">
+      <c r="G1" s="73"/>
+      <c r="I1" s="71" t="s">
         <v>229</v>
       </c>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="124"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="73"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="G2" s="54" t="s">
+      <c r="G2" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="I2" s="167" t="s">
+      <c r="I2" s="114" t="s">
         <v>228</v>
       </c>
-      <c r="J2" s="167"/>
-      <c r="K2" s="167"/>
-      <c r="L2" s="167"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="F3" s="54" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="F3" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="G3" s="55" t="s">
+      <c r="G3" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="I3" s="167"/>
-      <c r="J3" s="167"/>
-      <c r="K3" s="167"/>
-      <c r="L3" s="167"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="F4" s="54" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="F4" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="G4" s="55" t="s">
+      <c r="G4" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="I4" s="167"/>
-      <c r="J4" s="167"/>
-      <c r="K4" s="167"/>
-      <c r="L4" s="167"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="114"/>
+      <c r="K4" s="114"/>
+      <c r="L4" s="114"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="54"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="F5" s="54" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="F5" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="G5" s="55" t="s">
+      <c r="G5" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="I5" s="167"/>
-      <c r="J5" s="167"/>
-      <c r="K5" s="167"/>
-      <c r="L5" s="167"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="114"/>
+      <c r="K5" s="114"/>
+      <c r="L5" s="114"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="54"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="F6" s="54" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="F6" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="G6" s="55" t="s">
+      <c r="G6" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="I6" s="167"/>
-      <c r="J6" s="167"/>
-      <c r="K6" s="167"/>
-      <c r="L6" s="167"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="114"/>
+      <c r="L6" s="114"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="54"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="54" t="s">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="G7" s="55" t="s">
+      <c r="G7" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="H7" s="17"/>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="54"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="F8" s="54" t="s">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="F8" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="G8" s="55" t="s">
+      <c r="G8" s="29" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="54"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="54" t="s">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="G9" s="55" t="s">
+      <c r="G9" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="H9" s="34"/>
+      <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="54"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="F10" s="54" t="s">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="F10" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="G10" s="55" t="s">
+      <c r="G10" s="29" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="54"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="F11" s="54" t="s">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="F11" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="G11" s="55" t="s">
+      <c r="G11" s="29" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="54"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="F12" s="54" t="s">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="F12" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="G12" s="55" t="s">
+      <c r="G12" s="29" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="54"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="F13" s="54" t="s">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="F13" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="G13" s="55" t="s">
+      <c r="G13" s="29" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="54"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="F14" s="54" t="s">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="F14" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="G14" s="55" t="s">
+      <c r="G14" s="29" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="54"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="F15" s="54" t="s">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="F15" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="G15" s="55" t="s">
+      <c r="G15" s="29" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="54"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="F16" s="54" t="s">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="F16" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="G16" s="55" t="s">
+      <c r="G16" s="29" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A17" s="54"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="F17" s="54" t="s">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="F17" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="G17" s="55" t="s">
+      <c r="G17" s="29" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A18" s="54"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="F18" s="54" t="s">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="F18" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="G18" s="55" t="s">
+      <c r="G18" s="29" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A19" s="54"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
-      <c r="F19" s="54" t="s">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="F19" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="G19" s="55" t="s">
+      <c r="G19" s="29" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" s="54"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="F20" s="54" t="s">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="F20" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="G20" s="55" t="s">
+      <c r="G20" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="41"/>
-      <c r="R20" s="41"/>
-      <c r="S20" s="41"/>
-      <c r="T20" s="41"/>
-      <c r="U20" s="41"/>
-      <c r="V20" s="41"/>
-      <c r="W20" s="41"/>
-      <c r="X20" s="17"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="7"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A21" s="54"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="F21" s="54" t="s">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="F21" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="G21" s="55" t="s">
+      <c r="G21" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="L21" s="41"/>
-      <c r="M21" s="41"/>
-      <c r="N21" s="41"/>
-      <c r="O21" s="41"/>
-      <c r="P21" s="41"/>
-      <c r="Q21" s="41"/>
-      <c r="R21" s="41"/>
-      <c r="S21" s="41"/>
-      <c r="T21" s="41"/>
-      <c r="U21" s="41"/>
-      <c r="V21" s="41"/>
-      <c r="W21" s="41"/>
-      <c r="X21" s="17"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="7"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A22" s="54"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
-      <c r="F22" s="54" t="s">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="F22" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="G22" s="56" t="s">
+      <c r="G22" s="29" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A23" s="54"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="F23" s="27" t="s">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="F23" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="G23" s="56" t="s">
+      <c r="G23" s="29" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A24" s="54"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="F24" s="27" t="s">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="F24" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="G24" s="56" t="s">
+      <c r="G24" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
-      <c r="O24" s="41"/>
-      <c r="P24" s="41"/>
-      <c r="Q24" s="41"/>
-      <c r="R24" s="41"/>
-      <c r="S24" s="41"/>
-      <c r="T24" s="41"/>
-      <c r="U24" s="41"/>
-      <c r="V24" s="41"/>
-      <c r="W24" s="41"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A25" s="54"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="F25" s="27" t="s">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="F25" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="G25" s="56" t="s">
+      <c r="G25" s="29" t="s">
         <v>196</v>
       </c>
-      <c r="M25" s="41"/>
-      <c r="N25" s="41"/>
-      <c r="O25" s="41"/>
-      <c r="P25" s="41"/>
-      <c r="Q25" s="41"/>
-      <c r="R25" s="41"/>
-      <c r="S25" s="41"/>
-      <c r="T25" s="41"/>
-      <c r="U25" s="41"/>
-      <c r="V25" s="41"/>
-      <c r="W25" s="41"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A26" s="54"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="54"/>
-      <c r="F26" s="27" t="s">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="F26" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="G26" s="56" t="s">
+      <c r="G26" s="29" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A27" s="54"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="F27" s="27" t="s">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="F27" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="G27" s="56" t="s">
+      <c r="G27" s="29" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A28" s="54"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="54"/>
-      <c r="F28" s="27" t="s">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="F28" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="G28" s="56" t="s">
+      <c r="G28" s="29" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A29" s="54"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="54"/>
-      <c r="F29" s="27" t="s">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="F29" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="G29" s="56" t="s">
+      <c r="G29" s="29" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A30" s="54"/>
-      <c r="B30" s="54"/>
-      <c r="C30" s="54"/>
-      <c r="F30" s="27" t="s">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="F30" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="G30" s="56" t="s">
+      <c r="G30" s="29" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A31" s="54"/>
-      <c r="B31" s="54"/>
-      <c r="C31" s="54"/>
-      <c r="F31" s="27" t="s">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="F31" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="G31" s="56" t="s">
+      <c r="G31" s="29" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A32" s="54"/>
-      <c r="B32" s="54"/>
-      <c r="C32" s="54"/>
-      <c r="F32" s="27" t="s">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="F32" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="G32" s="56" t="s">
+      <c r="G32" s="29" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="54"/>
-      <c r="B33" s="54"/>
-      <c r="C33" s="54"/>
-      <c r="F33" s="27" t="s">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="F33" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="G33" s="56" t="s">
+      <c r="G33" s="29" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="54"/>
-      <c r="B34" s="54"/>
-      <c r="C34" s="54"/>
-      <c r="F34" s="27" t="s">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="F34" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="G34" s="56" t="s">
+      <c r="G34" s="29" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="54"/>
-      <c r="B35" s="54"/>
-      <c r="C35" s="54"/>
-      <c r="F35" s="27" t="s">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="F35" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="G35" s="56" t="s">
+      <c r="G35" s="29" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="54"/>
-      <c r="B36" s="54"/>
-      <c r="C36" s="54"/>
-      <c r="F36" s="27" t="s">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="F36" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="G36" s="56" t="s">
+      <c r="G36" s="29" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="54"/>
-      <c r="B37" s="54"/>
-      <c r="C37" s="54"/>
-      <c r="F37" s="27" t="s">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="F37" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="G37" s="56" t="s">
+      <c r="G37" s="29" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="54"/>
-      <c r="B38" s="54"/>
-      <c r="C38" s="54"/>
-      <c r="F38" s="27" t="s">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="F38" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="G38" s="56" t="s">
+      <c r="G38" s="29" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="54"/>
-      <c r="B39" s="54"/>
-      <c r="C39" s="54"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="54"/>
-      <c r="B40" s="54"/>
-      <c r="C40" s="54"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="54"/>
-      <c r="B41" s="54"/>
-      <c r="C41" s="54"/>
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="54"/>
-      <c r="B42" s="54"/>
-      <c r="C42" s="54"/>
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="54"/>
-      <c r="B43" s="54"/>
-      <c r="C43" s="54"/>
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="54"/>
-      <c r="B44" s="54"/>
-      <c r="C44" s="54"/>
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
